--- a/java_yme/요구사항명세서/요구사항 명세서_풋살화쇼핑몰.xlsx
+++ b/java_yme/요구사항명세서/요구사항 명세서_풋살화쇼핑몰.xlsx
@@ -22,14 +22,23 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
   <x:si>
-    <x:t>풋살화검색 -&gt; 상품명, 브랜드, 사이즈에 해당하는 키워드 입력 시, 해당 상품 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자는 마이페이지에 배송 조회로 
-배송 상태 조회 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃 -&gt; 로그인, 마이페이지 -&gt; 회원가입으로 변경</x:t>
+    <x:t>회원삭제 -&gt; 회원리스트에서 회원번호에 해당하는 회원 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>풋살화삭제 -&gt; 상품리스트에 상품번호에 해당하는 상품 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입 완료 시, 가입 완료 팝업 출력 후 메인 페이지 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원등록 -&gt; 아이디(중복확인팝업),이름,비밀번호,비밀번호 확인, 생년월일, 우편번호
+주소, 상세주소, 이메일, 휴대폰번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배송 주소록 관리, 개인정보수정, 적립금 내역, 쿠폰 등록, 회원탈퇴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전체풋살화조회 -&gt;  풋살화 이미지,상품명, 브랜드, 사이즈 출력</x:t>
   </x:si>
   <x:si>
     <x:t>풋살화수정 -&gt; 풋살화 등록에 대한 모든 값 모두 수정 가능 
@@ -41,187 +50,6 @@
   <x:si>
     <x:t>주문변경 -&gt; 주문 번호 클릭 시, 해당 주문에 대한 상세내역 페이지로 이동하며, 
                 관리자는 배송 상태 정보를 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색바</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신발</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원삭제 -&gt; 회원리스트에서 회원번호에 해당하는 회원 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입 완료 시, 가입 완료 팝업 출력 후 메인 페이지 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필요 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중상단메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최상단메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쇼핑몰 로고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1:1문의관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우선순위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HOME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스(메뉴)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상단메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객센터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문/배송조회, 반품/교환/AS조회, 주문취소 (조회기간은 오늘/1주일/1개월/3개월/6개월)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전체문의조회 -&gt; 문의일련번호, 문의일자, 문의유형, 제목, 작성자, 답변 여부대한 리스트 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전체주문조회 -&gt; 주문일, 주문번호, 주문자, 결제방법, 주문가격, 주문상태 리스트 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배송 주소록 관리, 개인정보수정, 적립금 내역, 쿠폰 등록, 회원탈퇴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일, 이메일 수신여부, 휴대폰번호, SMS 수신여부 필수 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계속 쇼핑하기 클릭시 메인페이지 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃 버튼 클릭시 메인페이지 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입, 아이디/비밀번호 찾기 버튼 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">계속 쇼핑하기/ 주문하기 버튼 출력 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디, 비밀번호 입력창, 로그인 버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보수정 -&gt; 아이디,이름값 수정불가 나머지 항목에 대해서 회원 정보 수정 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디(중복확인), 비밀번호, 비밀번호 확인, 이름, 우편번호, 주소, 상세주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원검색 -&gt; 이름,아이디,핸드폰번호에 해당하는 키워드 입력시 해당 회원 리스트 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문검색 -&gt; 주문자, 주문상태에 해당하는 키워드 입력시 해당 주문 리스트 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원등록 -&gt; 아이디(중복확인팝업),이름,비밀번호,비밀번호 확인, 생년월일, 우편번호
-주소, 상세주소, 이메일, 이메일수신여부, 휴대폰번호, SMS수신여부 필수 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 내용을 한 개씩 슬라이드로 노출되며 클릭시 공지사항 게시판으로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전체회원조회 -&gt;  회원 아이디, 이름,핸드폰번호, 생년월일 리스트 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>풋살화삭제 -&gt; 상품리스트에 상품번호에 해당하는 상품 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항, Q&amp;A게시판, 1:1문의 메뉴 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지파일만 업로드 가능, 풋살화이미지 규격설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 성공시 회원가입 메뉴가 마이페이지로 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OOO님의 회원등급은 OOO입니다. 문구 노출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 성공시 로그인 메뉴가 로그아웃으로 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빈 단어 검색시 단어를 입력하라고 팝업 메시지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자 페이지의 시작화면으로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니에 담긴 상품 목록 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문하기 클릭시 결제 창으로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">풋살화(성인, 유소년) , 슬리퍼 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항이 기본으로 보이게끔 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인한 본인 내역만 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관심상품, 1:1 문의내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>클릭시 메인페이지로 이동</x:t>
   </x:si>
   <x:si>
     <x:t>문의답변 -&gt; 문의번호에 해당하는 제목 클릭시, 사용자가 문의한 정보 확인
@@ -230,28 +58,200 @@
                 -&gt; 사용자가 마이페이지의 문의 내역에서 답변 여부 확인 가능</x:t>
   </x:si>
   <x:si>
-    <x:t>전체풋살화조회 -&gt;  풋살화 이미지,상품명, 브랜드, 사이즈 출력</x:t>
+    <x:t>주문/배송조회, 반품/교환/AS조회, 주문취소 (조회기간은 오늘/1주일/1개월/3개월/6개월)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전체문의조회 -&gt; 문의일련번호, 문의일자, 문의유형, 제목, 작성자, 답변 여부대한 리스트 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 내용을 한 개씩 슬라이드로 노출되며 클릭시 공지사항 게시판으로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전체회원조회 -&gt;  회원 아이디, 이름,핸드폰번호, 생년월일 리스트 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전체주문조회 -&gt; 주문일, 주문번호, 주문자, 결제방법, 주문가격, 주문상태 리스트 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문검색 -&gt; 주문자, 주문상태에 해당하는 키워드 입력시 해당 주문 리스트 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원정보수정 -&gt; 아이디,이름값 수정불가 나머지 항목에 대해서 회원 정보 수정 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원검색 -&gt; 이름,아이디,핸드폰번호에 해당하는 키워드 입력시 해당 회원 리스트 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>풋살화검색 -&gt; 상품명, 브랜드, 사이즈에 해당하는 키워드 입력 시, 해당 상품 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디(중복확인), 비밀번호, 비밀번호 확인, 이름, 우편번호, 주소, 상세주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색바</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신발</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OOO님의 회원등급은 OOO입니다. 문구 노출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 성공시 회원가입 메뉴가 마이페이지로 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 성공시 로그인 메뉴가 로그아웃으로 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빈 단어 검색시 단어를 입력하라고 팝업 메시지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항, Q&amp;A게시판, 1:1문의 메뉴 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지파일만 업로드 가능, 풋살화이미지 규격설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃 -&gt; 로그인, 마이페이지 -&gt; 회원가입으로 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자는 마이페이지에 배송 조회로 
+배송 상태 조회 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스터드 용도 가이드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요구사항(관리자)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃(관리자계정)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃 -&gt; 로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요구사항(사용자)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색창과 돋보기 모양</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HOME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중상단메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1:1문의관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스(메뉴)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필요 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쇼핑몰 로고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최상단메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우선순위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객센터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상단메뉴</x:t>
   </x:si>
   <x:si>
     <x:t>로그인(관리자계정)</x:t>
   </x:si>
   <x:si>
-    <x:t>로그아웃 -&gt; 로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스터드 용도 가이드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요구사항(관리자)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색창과 돋보기 모양</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요구사항(사용자)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃(관리자계정)</x:t>
+    <x:t>클릭시 메인페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관심상품, 1:1 문의내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인한 본인 내역만 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">계속 쇼핑하기/ 주문하기 버튼 출력 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>계속 쇼핑하기 클릭시 메인페이지 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃 버튼 클릭시 메인페이지 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입, 아이디/비밀번호 찾기 버튼 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디, 비밀번호 입력창, 로그인 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항이 기본으로 보이게끔 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자 페이지의 시작화면으로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문하기 클릭시 결제 창으로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">풋살화(성인, 유소년) , 슬리퍼 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니에 담긴 상품 목록 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일, 휴대폰번호, 생년월일</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1802,7 +1802,7 @@
   <x:dimension ref="A1:Z27"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D6" activeCellId="0" sqref="D6:D6"/>
+      <x:selection activeCell="D11" activeCellId="0" sqref="D11:D11"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15.75" customHeight="1"/>
@@ -1817,7 +1817,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:26" ht="16.399999999999999" customHeight="1">
       <x:c r="A1" s="41" t="s">
-        <x:v>73</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B1" s="41"/>
       <x:c r="C1" s="41"/>
@@ -1875,22 +1875,22 @@
     </x:row>
     <x:row r="3" spans="1:10" ht="16.399999999999999">
       <x:c r="A3" s="36" t="s">
-        <x:v>10</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B3" s="38" t="s">
-        <x:v>27</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C3" s="38" t="s">
-        <x:v>13</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D3" s="38" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E3" s="38" t="s">
-        <x:v>9</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F3" s="38" t="s">
-        <x:v>25</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G3" s="4"/>
       <x:c r="H3" s="4"/>
@@ -1911,16 +1911,16 @@
     </x:row>
     <x:row r="5" spans="1:10" ht="16.399999999999999" customHeight="1">
       <x:c r="A5" s="53" t="s">
-        <x:v>19</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B5" s="53" t="s">
-        <x:v>20</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C5" s="16" t="s">
-        <x:v>30</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D5" s="16" t="s">
-        <x:v>49</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E5" s="16"/>
       <x:c r="F5" s="17">
@@ -1935,13 +1935,13 @@
       <x:c r="A6" s="54"/>
       <x:c r="B6" s="54"/>
       <x:c r="C6" s="43" t="s">
-        <x:v>7</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D6" s="6" t="s">
-        <x:v>43</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E6" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F6" s="48">
         <x:v>1</x:v>
@@ -1956,10 +1956,10 @@
       <x:c r="B7" s="54"/>
       <x:c r="C7" s="44"/>
       <x:c r="D7" s="6" t="s">
-        <x:v>41</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E7" s="6" t="s">
-        <x:v>55</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F7" s="49"/>
       <x:c r="G7" s="4"/>
@@ -1971,13 +1971,13 @@
       <x:c r="A8" s="54"/>
       <x:c r="B8" s="54"/>
       <x:c r="C8" s="8" t="s">
-        <x:v>18</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D8" s="6" t="s">
-        <x:v>40</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E8" s="6" t="s">
-        <x:v>2</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F8" s="18">
         <x:v>1</x:v>
@@ -1991,13 +1991,13 @@
       <x:c r="A9" s="54"/>
       <x:c r="B9" s="54"/>
       <x:c r="C9" s="45" t="s">
-        <x:v>17</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D9" s="6" t="s">
-        <x:v>45</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E9" s="6" t="s">
-        <x:v>54</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F9" s="48">
         <x:v>1</x:v>
@@ -2012,7 +2012,7 @@
       <x:c r="B10" s="54"/>
       <x:c r="C10" s="46"/>
       <x:c r="D10" s="6" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E10" s="6"/>
       <x:c r="F10" s="50"/>
@@ -2026,7 +2026,7 @@
       <x:c r="B11" s="54"/>
       <x:c r="C11" s="47"/>
       <x:c r="D11" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E11" s="6"/>
       <x:c r="F11" s="49"/>
@@ -2039,13 +2039,13 @@
       <x:c r="A12" s="54"/>
       <x:c r="B12" s="54"/>
       <x:c r="C12" s="51" t="s">
-        <x:v>24</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D12" s="6" t="s">
-        <x:v>59</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E12" s="6" t="s">
-        <x:v>39</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F12" s="48">
         <x:v>1</x:v>
@@ -2060,10 +2060,10 @@
       <x:c r="B13" s="54"/>
       <x:c r="C13" s="44"/>
       <x:c r="D13" s="6" t="s">
-        <x:v>42</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E13" s="6" t="s">
-        <x:v>60</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F13" s="49"/>
       <x:c r="G13" s="4"/>
@@ -2075,13 +2075,13 @@
       <x:c r="A14" s="54"/>
       <x:c r="B14" s="54"/>
       <x:c r="C14" s="9" t="s">
-        <x:v>33</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D14" s="6" t="s">
-        <x:v>52</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E14" s="6" t="s">
-        <x:v>62</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F14" s="19">
         <x:v>1</x:v>
@@ -2095,10 +2095,10 @@
       <x:c r="A15" s="54"/>
       <x:c r="B15" s="54"/>
       <x:c r="C15" s="45" t="s">
-        <x:v>22</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D15" s="6" t="s">
-        <x:v>34</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E15" s="6"/>
       <x:c r="F15" s="48">
@@ -2114,7 +2114,7 @@
       <x:c r="B16" s="54"/>
       <x:c r="C16" s="46"/>
       <x:c r="D16" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E16" s="6" t="s">
         <x:v>63</x:v>
@@ -2130,7 +2130,7 @@
       <x:c r="B17" s="55"/>
       <x:c r="C17" s="52"/>
       <x:c r="D17" s="6" t="s">
-        <x:v>37</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E17" s="6"/>
       <x:c r="F17" s="49"/>
@@ -2142,13 +2142,13 @@
     <x:row r="18" spans="1:10" ht="16.399999999999999" customHeight="1">
       <x:c r="A18" s="54"/>
       <x:c r="B18" s="57" t="s">
-        <x:v>28</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C18" s="13" t="s">
-        <x:v>21</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D18" s="6" t="s">
-        <x:v>65</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E18" s="6"/>
       <x:c r="F18" s="19">
@@ -2163,10 +2163,10 @@
       <x:c r="A19" s="54"/>
       <x:c r="B19" s="58"/>
       <x:c r="C19" s="56" t="s">
-        <x:v>8</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D19" s="6" t="s">
-        <x:v>61</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E19" s="6"/>
       <x:c r="F19" s="48">
@@ -2182,7 +2182,7 @@
       <x:c r="B20" s="58"/>
       <x:c r="C20" s="52"/>
       <x:c r="D20" s="6" t="s">
-        <x:v>70</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E20" s="6"/>
       <x:c r="F20" s="49"/>
@@ -2195,13 +2195,13 @@
       <x:c r="A21" s="55"/>
       <x:c r="B21" s="59"/>
       <x:c r="C21" s="14" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D21" s="20" t="s">
-        <x:v>72</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E21" s="23" t="s">
-        <x:v>57</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F21" s="24">
         <x:v>1</x:v>
@@ -2312,7 +2312,7 @@
   <x:dimension ref="A1:Z28"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C29" activeCellId="0" sqref="C29:C29"/>
+      <x:selection activeCell="D10" activeCellId="0" sqref="D10:D11"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2327,7 +2327,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:26" ht="16.399999999999999" customHeight="1">
       <x:c r="A1" s="41" t="s">
-        <x:v>71</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B1" s="41"/>
       <x:c r="C1" s="41"/>
@@ -2385,22 +2385,22 @@
     </x:row>
     <x:row r="3" spans="1:10" ht="16.399999999999999">
       <x:c r="A3" s="36" t="s">
-        <x:v>10</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B3" s="38" t="s">
-        <x:v>27</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C3" s="38" t="s">
-        <x:v>13</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D3" s="38" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E3" s="38" t="s">
-        <x:v>9</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F3" s="38" t="s">
-        <x:v>25</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G3" s="4"/>
       <x:c r="H3" s="4"/>
@@ -2421,16 +2421,16 @@
     </x:row>
     <x:row r="5" spans="1:10" ht="16.399999999999999" customHeight="1">
       <x:c r="A5" s="53" t="s">
-        <x:v>19</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B5" s="53" t="s">
-        <x:v>32</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C5" s="16" t="s">
-        <x:v>26</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D5" s="16" t="s">
-        <x:v>58</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E5" s="16"/>
       <x:c r="F5" s="28">
@@ -2445,13 +2445,13 @@
       <x:c r="A6" s="54"/>
       <x:c r="B6" s="54"/>
       <x:c r="C6" s="27" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D6" s="6" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="D6" s="6" t="s">
-        <x:v>43</x:v>
-      </x:c>
       <x:c r="E6" s="29" t="s">
-        <x:v>56</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F6" s="30">
         <x:v>1</x:v>
@@ -2465,13 +2465,13 @@
       <x:c r="A7" s="54"/>
       <x:c r="B7" s="55"/>
       <x:c r="C7" s="8" t="s">
-        <x:v>74</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D7" s="6" t="s">
-        <x:v>40</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E7" s="6" t="s">
-        <x:v>69</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F7" s="18">
         <x:v>1</x:v>
@@ -2484,13 +2484,13 @@
     <x:row r="8" spans="1:10" ht="16.399999999999999" customHeight="1">
       <x:c r="A8" s="54"/>
       <x:c r="B8" s="53" t="s">
-        <x:v>14</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C8" s="45" t="s">
-        <x:v>15</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D8" s="6" t="s">
-        <x:v>50</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E8" s="6"/>
       <x:c r="F8" s="48">
@@ -2506,7 +2506,7 @@
       <x:c r="B9" s="54"/>
       <x:c r="C9" s="46"/>
       <x:c r="D9" s="6" t="s">
-        <x:v>46</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E9" s="6"/>
       <x:c r="F9" s="50"/>
@@ -2520,7 +2520,7 @@
       <x:c r="B10" s="54"/>
       <x:c r="C10" s="46"/>
       <x:c r="D10" s="60" t="s">
-        <x:v>48</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E10" s="7"/>
       <x:c r="F10" s="50"/>
@@ -2546,7 +2546,7 @@
       <x:c r="B12" s="54"/>
       <x:c r="C12" s="46"/>
       <x:c r="D12" s="6" t="s">
-        <x:v>44</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E12" s="7"/>
       <x:c r="F12" s="50"/>
@@ -2560,7 +2560,7 @@
       <x:c r="B13" s="54"/>
       <x:c r="C13" s="47"/>
       <x:c r="D13" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E13" s="6"/>
       <x:c r="F13" s="50"/>
@@ -2573,10 +2573,10 @@
       <x:c r="A14" s="54"/>
       <x:c r="B14" s="54"/>
       <x:c r="C14" s="45" t="s">
-        <x:v>29</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D14" s="6" t="s">
-        <x:v>67</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E14" s="29"/>
       <x:c r="F14" s="30">
@@ -2592,7 +2592,7 @@
       <x:c r="B15" s="54"/>
       <x:c r="C15" s="46"/>
       <x:c r="D15" s="6" t="s">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E15" s="29"/>
       <x:c r="F15" s="30">
@@ -2608,10 +2608,10 @@
       <x:c r="B16" s="54"/>
       <x:c r="C16" s="46"/>
       <x:c r="D16" s="6" t="s">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E16" s="6" t="s">
-        <x:v>53</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F16" s="25">
         <x:v>1</x:v>
@@ -2626,7 +2626,7 @@
       <x:c r="B17" s="54"/>
       <x:c r="C17" s="46"/>
       <x:c r="D17" s="60" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E17" s="6"/>
       <x:c r="F17" s="48">
@@ -2654,7 +2654,7 @@
       <x:c r="B19" s="54"/>
       <x:c r="C19" s="46"/>
       <x:c r="D19" s="6" t="s">
-        <x:v>51</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E19" s="6"/>
       <x:c r="F19" s="19">
@@ -2669,10 +2669,10 @@
       <x:c r="A20" s="54"/>
       <x:c r="B20" s="54"/>
       <x:c r="C20" s="45" t="s">
-        <x:v>23</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D20" s="31" t="s">
-        <x:v>35</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E20" s="6"/>
       <x:c r="F20" s="21">
@@ -2688,7 +2688,7 @@
       <x:c r="B21" s="54"/>
       <x:c r="C21" s="46"/>
       <x:c r="D21" s="63" t="s">
-        <x:v>66</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E21" s="29"/>
       <x:c r="F21" s="53">
@@ -2739,10 +2739,10 @@
       <x:c r="A25" s="54"/>
       <x:c r="B25" s="54"/>
       <x:c r="C25" s="64" t="s">
-        <x:v>31</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D25" s="33" t="s">
-        <x:v>36</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E25" s="33"/>
       <x:c r="F25" s="35">
@@ -2758,7 +2758,7 @@
       <x:c r="B26" s="54"/>
       <x:c r="C26" s="65"/>
       <x:c r="D26" s="33" t="s">
-        <x:v>47</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E26" s="33"/>
       <x:c r="F26" s="24">
@@ -2774,10 +2774,10 @@
       <x:c r="B27" s="55"/>
       <x:c r="C27" s="66"/>
       <x:c r="D27" s="32" t="s">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E27" s="34" t="s">
-        <x:v>1</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F27" s="24">
         <x:v>1</x:v>

--- a/java_yme/요구사항명세서/요구사항 명세서_풋살화쇼핑몰.xlsx
+++ b/java_yme/요구사항명세서/요구사항 명세서_풋살화쇼핑몰.xlsx
@@ -20,238 +20,244 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
+  <x:si>
+    <x:t>회원탈퇴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전체주문조회 -&gt; 주문일, 주문번호, 주문자, 결제방법, 주문가격, 주문상태 리스트 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항, 1:1문의 메뉴 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OOO님 안녕하세요 ! 라고 문구 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입 완료 시, 로그인 화면으로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름 수정은 관리자만 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전체풋살화조회 -&gt;  풋살화 이미지,상품명, 브랜드, 사이즈 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>풋살화수정 -&gt; 풋살화 등록에 대한 모든 값 모두 수정 가능 
+                        풋살화  이미지 수정 체크박스 버튼을 파일첨부기능 활성화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원탈퇴시 즉시 정보삭제 및 작성한 게시글 모두 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">풋살화(성인, 유소년)  / 슬리퍼 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>신발</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색바</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>풋살화등록 -&gt; 상품명, 브랜드, 사이즈, 상품가격, 상품이미지 첨부, 상품카테고리(성인/유소년) 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문변경 -&gt; 주문 번호 클릭 시, 해당 주문에 대한 상세내역 페이지로 이동하며, 
+                관리자는 배송 상태 정보를 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">계속 쇼핑하기/ 주문하기 버튼 출력 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디, 비밀번호 입력창, 로그인 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입, 아이디/비밀번호 찾기 버튼 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계속 쇼핑하기 클릭시 메인페이지 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃 버튼 클릭시 메인페이지 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>클릭시 메인페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인한 본인 내역만 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남성 / 여성 / 유소년</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전체회원조회 -&gt;  회원 아이디, 이름,핸드폰번호, 생년월일 리스트 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빈 단어 검색시 단어를 입력하라고 팝업 메시지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지파일만 업로드 가능, 풋살화이미지 규격설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 성공시 로그인 메뉴가 로그아웃으로 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 성공시 회원가입 메뉴가 마이페이지로 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전체문의조회 -&gt; 문의일련번호, 문의일자, 문의유형, 제목, 작성자, 답변 여부대한 리스트 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원정보수정 -&gt; 아이디,이름값 수정불가 나머지 항목에 대해서 회원 정보 수정 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문검색 -&gt; 주문자, 주문상태에 해당하는 키워드 입력시 해당 주문 리스트 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>풋살화검색 -&gt; 상품명, 브랜드, 사이즈에 해당하는 키워드 입력 시, 해당 상품 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원검색 -&gt; 이름,아이디,핸드폰번호에 해당하는 키워드 입력시 해당 회원 리스트 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요구사항(사용자)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃(관리자계정)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색창과 돋보기 모양</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃 -&gt; 로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요구사항(관리자)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스터드 용도 가이드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인(관리자계정)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1:1 문의내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디, 비밀번호, 비밀번호 확인, 이름, 우편번호, 주소, 상세주소</x:t>
+  </x:si>
   <x:si>
     <x:t>회원삭제 -&gt; 회원리스트에서 회원번호에 해당하는 회원 삭제</x:t>
   </x:si>
   <x:si>
     <x:t>풋살화삭제 -&gt; 상품리스트에 상품번호에 해당하는 상품 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입 완료 시, 가입 완료 팝업 출력 후 메인 페이지 이동</x:t>
   </x:si>
   <x:si>
     <x:t>회원등록 -&gt; 아이디(중복확인팝업),이름,비밀번호,비밀번호 확인, 생년월일, 우편번호
 주소, 상세주소, 이메일, 휴대폰번호</x:t>
   </x:si>
   <x:si>
-    <x:t>배송 주소록 관리, 개인정보수정, 적립금 내역, 쿠폰 등록, 회원탈퇴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전체풋살화조회 -&gt;  풋살화 이미지,상품명, 브랜드, 사이즈 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>풋살화수정 -&gt; 풋살화 등록에 대한 모든 값 모두 수정 가능 
-                        풋살화  이미지 수정 체크박스 버튼을 파일첨부기능 활성화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>풋살화등록 -&gt; 상품명, 브랜드, 사이즈, 상품가격, 상품이미지 첨부, 상품카테고리(성인/유소년) 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문변경 -&gt; 주문 번호 클릭 시, 해당 주문에 대한 상세내역 페이지로 이동하며, 
-                관리자는 배송 상태 정보를 변경</x:t>
+    <x:t>중상단메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HOME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스(메뉴)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쇼핑몰 로고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최상단메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우선순위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객센터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상단메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1:1문의관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필요 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃 -&gt; 로그인, 마이페이지 -&gt; 회원가입으로 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자는 마이페이지에 배송 조회로 
+배송 상태 조회 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자 페이지의 시작화면으로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문하기 클릭시 결제 창으로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항이 기본으로 보이게끔 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니에 담긴 상품 목록 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개인정보수정 - &gt; 아이디, 이름 제외 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일, 휴대폰번호(숫자만), 생년월일(숫자만)</x:t>
   </x:si>
   <x:si>
     <x:t>문의답변 -&gt; 문의번호에 해당하는 제목 클릭시, 사용자가 문의한 정보 확인
                 -&gt; 이름, 아이디, 이메일, 문의유형, 문의제목, 문의 내용이 불러와지며 문의 답변 작성란을 통해 작성
-                -&gt; 문의 답변 완료 시 답변 여부가 "답변 대기" 상태에서 "답변 완료"로 변경
+                -&gt; 문의 답변 완료 시 답변 여부가 "확인 중" 상태에서 "답변 완료"로 변경
                 -&gt; 사용자가 마이페이지의 문의 내역에서 답변 여부 확인 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문/배송조회, 반품/교환/AS조회, 주문취소 (조회기간은 오늘/1주일/1개월/3개월/6개월)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전체문의조회 -&gt; 문의일련번호, 문의일자, 문의유형, 제목, 작성자, 답변 여부대한 리스트 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 내용을 한 개씩 슬라이드로 노출되며 클릭시 공지사항 게시판으로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전체회원조회 -&gt;  회원 아이디, 이름,핸드폰번호, 생년월일 리스트 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전체주문조회 -&gt; 주문일, 주문번호, 주문자, 결제방법, 주문가격, 주문상태 리스트 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문검색 -&gt; 주문자, 주문상태에 해당하는 키워드 입력시 해당 주문 리스트 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보수정 -&gt; 아이디,이름값 수정불가 나머지 항목에 대해서 회원 정보 수정 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원검색 -&gt; 이름,아이디,핸드폰번호에 해당하는 키워드 입력시 해당 회원 리스트 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>풋살화검색 -&gt; 상품명, 브랜드, 사이즈에 해당하는 키워드 입력 시, 해당 상품 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디(중복확인), 비밀번호, 비밀번호 확인, 이름, 우편번호, 주소, 상세주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색바</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신발</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OOO님의 회원등급은 OOO입니다. 문구 노출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 성공시 회원가입 메뉴가 마이페이지로 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 성공시 로그인 메뉴가 로그아웃으로 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빈 단어 검색시 단어를 입력하라고 팝업 메시지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항, Q&amp;A게시판, 1:1문의 메뉴 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지파일만 업로드 가능, 풋살화이미지 규격설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃 -&gt; 로그인, 마이페이지 -&gt; 회원가입으로 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자는 마이페이지에 배송 조회로 
-배송 상태 조회 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스터드 용도 가이드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요구사항(관리자)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃(관리자계정)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃 -&gt; 로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요구사항(사용자)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색창과 돋보기 모양</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HOME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중상단메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1:1문의관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스(메뉴)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필요 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쇼핑몰 로고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최상단메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우선순위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객센터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상단메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인(관리자계정)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>클릭시 메인페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관심상품, 1:1 문의내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인한 본인 내역만 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">계속 쇼핑하기/ 주문하기 버튼 출력 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>계속 쇼핑하기 클릭시 메인페이지 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃 버튼 클릭시 메인페이지 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입, 아이디/비밀번호 찾기 버튼 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디, 비밀번호 입력창, 로그인 버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항이 기본으로 보이게끔 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자 페이지의 시작화면으로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문하기 클릭시 결제 창으로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">풋살화(성인, 유소년) , 슬리퍼 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니에 담긴 상품 목록 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일, 휴대폰번호, 생년월일</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1802,7 +1808,7 @@
   <x:dimension ref="A1:Z27"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D11" activeCellId="0" sqref="D11:D11"/>
+      <x:selection activeCell="D22" activeCellId="0" sqref="D22:D22"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15.75" customHeight="1"/>
@@ -1817,7 +1823,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:26" ht="16.399999999999999" customHeight="1">
       <x:c r="A1" s="41" t="s">
-        <x:v>37</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B1" s="41"/>
       <x:c r="C1" s="41"/>
@@ -1875,22 +1881,22 @@
     </x:row>
     <x:row r="3" spans="1:10" ht="16.399999999999999">
       <x:c r="A3" s="36" t="s">
-        <x:v>23</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B3" s="38" t="s">
-        <x:v>44</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C3" s="38" t="s">
-        <x:v>46</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D3" s="38" t="s">
-        <x:v>56</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E3" s="38" t="s">
-        <x:v>20</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F3" s="38" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G3" s="4"/>
       <x:c r="H3" s="4"/>
@@ -1911,16 +1917,16 @@
     </x:row>
     <x:row r="5" spans="1:10" ht="16.399999999999999" customHeight="1">
       <x:c r="A5" s="53" t="s">
-        <x:v>43</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B5" s="53" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C5" s="16" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D5" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D5" s="6" t="s">
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E5" s="16"/>
       <x:c r="F5" s="17">
@@ -1935,13 +1941,13 @@
       <x:c r="A6" s="54"/>
       <x:c r="B6" s="54"/>
       <x:c r="C6" s="43" t="s">
-        <x:v>21</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D6" s="6" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E6" s="6" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F6" s="48">
         <x:v>1</x:v>
@@ -1956,10 +1962,10 @@
       <x:c r="B7" s="54"/>
       <x:c r="C7" s="44"/>
       <x:c r="D7" s="6" t="s">
-        <x:v>67</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E7" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F7" s="49"/>
       <x:c r="G7" s="4"/>
@@ -1971,13 +1977,13 @@
       <x:c r="A8" s="54"/>
       <x:c r="B8" s="54"/>
       <x:c r="C8" s="8" t="s">
-        <x:v>51</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D8" s="6" t="s">
-        <x:v>66</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E8" s="6" t="s">
-        <x:v>31</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F8" s="18">
         <x:v>1</x:v>
@@ -1991,13 +1997,13 @@
       <x:c r="A9" s="54"/>
       <x:c r="B9" s="54"/>
       <x:c r="C9" s="45" t="s">
-        <x:v>48</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D9" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E9" s="6" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F9" s="48">
         <x:v>1</x:v>
@@ -2012,7 +2018,7 @@
       <x:c r="B10" s="54"/>
       <x:c r="C10" s="46"/>
       <x:c r="D10" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E10" s="6"/>
       <x:c r="F10" s="50"/>
@@ -2026,7 +2032,7 @@
       <x:c r="B11" s="54"/>
       <x:c r="C11" s="47"/>
       <x:c r="D11" s="6" t="s">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E11" s="6"/>
       <x:c r="F11" s="49"/>
@@ -2039,13 +2045,13 @@
       <x:c r="A12" s="54"/>
       <x:c r="B12" s="54"/>
       <x:c r="C12" s="51" t="s">
-        <x:v>47</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D12" s="6" t="s">
         <x:v>73</x:v>
       </x:c>
       <x:c r="E12" s="6" t="s">
-        <x:v>65</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F12" s="48">
         <x:v>1</x:v>
@@ -2060,7 +2066,7 @@
       <x:c r="B13" s="54"/>
       <x:c r="C13" s="44"/>
       <x:c r="D13" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E13" s="6" t="s">
         <x:v>71</x:v>
@@ -2075,13 +2081,13 @@
       <x:c r="A14" s="54"/>
       <x:c r="B14" s="54"/>
       <x:c r="C14" s="9" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D14" s="6" t="s">
-        <x:v>29</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E14" s="6" t="s">
-        <x:v>69</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F14" s="19">
         <x:v>1</x:v>
@@ -2095,12 +2101,14 @@
       <x:c r="A15" s="54"/>
       <x:c r="B15" s="54"/>
       <x:c r="C15" s="45" t="s">
-        <x:v>39</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D15" s="6" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E15" s="6"/>
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="E15" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
       <x:c r="F15" s="48">
         <x:v>1</x:v>
       </x:c>
@@ -2114,10 +2122,10 @@
       <x:c r="B16" s="54"/>
       <x:c r="C16" s="46"/>
       <x:c r="D16" s="6" t="s">
-        <x:v>62</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E16" s="6" t="s">
-        <x:v>63</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F16" s="50"/>
       <x:c r="G16" s="4"/>
@@ -2130,9 +2138,11 @@
       <x:c r="B17" s="55"/>
       <x:c r="C17" s="52"/>
       <x:c r="D17" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E17" s="6"/>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E17" s="6" t="s">
+        <x:v>8</x:v>
+      </x:c>
       <x:c r="F17" s="49"/>
       <x:c r="G17" s="4"/>
       <x:c r="H17" s="4"/>
@@ -2142,13 +2152,13 @@
     <x:row r="18" spans="1:10" ht="16.399999999999999" customHeight="1">
       <x:c r="A18" s="54"/>
       <x:c r="B18" s="57" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C18" s="13" t="s">
-        <x:v>53</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D18" s="6" t="s">
-        <x:v>61</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E18" s="6"/>
       <x:c r="F18" s="19">
@@ -2163,10 +2173,10 @@
       <x:c r="A19" s="54"/>
       <x:c r="B19" s="58"/>
       <x:c r="C19" s="56" t="s">
-        <x:v>24</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D19" s="6" t="s">
-        <x:v>72</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E19" s="6"/>
       <x:c r="F19" s="48">
@@ -2182,7 +2192,7 @@
       <x:c r="B20" s="58"/>
       <x:c r="C20" s="52"/>
       <x:c r="D20" s="6" t="s">
-        <x:v>33</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E20" s="6"/>
       <x:c r="F20" s="49"/>
@@ -2195,13 +2205,13 @@
       <x:c r="A21" s="55"/>
       <x:c r="B21" s="59"/>
       <x:c r="C21" s="14" t="s">
-        <x:v>22</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D21" s="20" t="s">
-        <x:v>38</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E21" s="23" t="s">
-        <x:v>28</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F21" s="24">
         <x:v>1</x:v>
@@ -2312,7 +2322,7 @@
   <x:dimension ref="A1:Z28"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D10" activeCellId="0" sqref="D10:D11"/>
+      <x:selection activeCell="D21" activeCellId="0" sqref="D21:D24"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2327,7 +2337,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:26" ht="16.399999999999999" customHeight="1">
       <x:c r="A1" s="41" t="s">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B1" s="41"/>
       <x:c r="C1" s="41"/>
@@ -2385,22 +2395,22 @@
     </x:row>
     <x:row r="3" spans="1:10" ht="16.399999999999999">
       <x:c r="A3" s="36" t="s">
-        <x:v>23</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B3" s="38" t="s">
-        <x:v>44</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C3" s="38" t="s">
-        <x:v>46</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D3" s="38" t="s">
-        <x:v>56</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E3" s="38" t="s">
-        <x:v>20</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F3" s="38" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G3" s="4"/>
       <x:c r="H3" s="4"/>
@@ -2421,13 +2431,13 @@
     </x:row>
     <x:row r="5" spans="1:10" ht="16.399999999999999" customHeight="1">
       <x:c r="A5" s="53" t="s">
-        <x:v>43</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B5" s="53" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C5" s="16" t="s">
-        <x:v>40</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D5" s="16" t="s">
         <x:v>70</x:v>
@@ -2445,13 +2455,13 @@
       <x:c r="A6" s="54"/>
       <x:c r="B6" s="54"/>
       <x:c r="C6" s="27" t="s">
-        <x:v>60</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D6" s="6" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E6" s="29" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F6" s="30">
         <x:v>1</x:v>
@@ -2465,13 +2475,13 @@
       <x:c r="A7" s="54"/>
       <x:c r="B7" s="55"/>
       <x:c r="C7" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D7" s="6" t="s">
-        <x:v>66</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="6" t="s">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F7" s="18">
         <x:v>1</x:v>
@@ -2484,13 +2494,13 @@
     <x:row r="8" spans="1:10" ht="16.399999999999999" customHeight="1">
       <x:c r="A8" s="54"/>
       <x:c r="B8" s="53" t="s">
-        <x:v>41</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C8" s="45" t="s">
         <x:v>50</x:v>
       </x:c>
       <x:c r="D8" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="6"/>
       <x:c r="F8" s="48">
@@ -2506,7 +2516,7 @@
       <x:c r="B9" s="54"/>
       <x:c r="C9" s="46"/>
       <x:c r="D9" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E9" s="6"/>
       <x:c r="F9" s="50"/>
@@ -2520,7 +2530,7 @@
       <x:c r="B10" s="54"/>
       <x:c r="C10" s="46"/>
       <x:c r="D10" s="60" t="s">
-        <x:v>3</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E10" s="7"/>
       <x:c r="F10" s="50"/>
@@ -2546,7 +2556,7 @@
       <x:c r="B12" s="54"/>
       <x:c r="C12" s="46"/>
       <x:c r="D12" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E12" s="7"/>
       <x:c r="F12" s="50"/>
@@ -2560,7 +2570,7 @@
       <x:c r="B13" s="54"/>
       <x:c r="C13" s="47"/>
       <x:c r="D13" s="6" t="s">
-        <x:v>0</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E13" s="6"/>
       <x:c r="F13" s="50"/>
@@ -2573,10 +2583,10 @@
       <x:c r="A14" s="54"/>
       <x:c r="B14" s="54"/>
       <x:c r="C14" s="45" t="s">
-        <x:v>49</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D14" s="6" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E14" s="29"/>
       <x:c r="F14" s="30">
@@ -2592,7 +2602,7 @@
       <x:c r="B15" s="54"/>
       <x:c r="C15" s="46"/>
       <x:c r="D15" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E15" s="29"/>
       <x:c r="F15" s="30">
@@ -2608,10 +2618,10 @@
       <x:c r="B16" s="54"/>
       <x:c r="C16" s="46"/>
       <x:c r="D16" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E16" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F16" s="25">
         <x:v>1</x:v>
@@ -2626,7 +2636,7 @@
       <x:c r="B17" s="54"/>
       <x:c r="C17" s="46"/>
       <x:c r="D17" s="60" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E17" s="6"/>
       <x:c r="F17" s="48">
@@ -2654,7 +2664,7 @@
       <x:c r="B19" s="54"/>
       <x:c r="C19" s="46"/>
       <x:c r="D19" s="6" t="s">
-        <x:v>1</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E19" s="6"/>
       <x:c r="F19" s="19">
@@ -2669,10 +2679,10 @@
       <x:c r="A20" s="54"/>
       <x:c r="B20" s="54"/>
       <x:c r="C20" s="45" t="s">
-        <x:v>42</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D20" s="31" t="s">
-        <x:v>11</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E20" s="6"/>
       <x:c r="F20" s="21">
@@ -2688,7 +2698,7 @@
       <x:c r="B21" s="54"/>
       <x:c r="C21" s="46"/>
       <x:c r="D21" s="63" t="s">
-        <x:v>9</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E21" s="29"/>
       <x:c r="F21" s="53">
@@ -2739,10 +2749,10 @@
       <x:c r="A25" s="54"/>
       <x:c r="B25" s="54"/>
       <x:c r="C25" s="64" t="s">
-        <x:v>45</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D25" s="33" t="s">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E25" s="33"/>
       <x:c r="F25" s="35">
@@ -2758,7 +2768,7 @@
       <x:c r="B26" s="54"/>
       <x:c r="C26" s="65"/>
       <x:c r="D26" s="33" t="s">
-        <x:v>15</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E26" s="33"/>
       <x:c r="F26" s="24">
@@ -2774,10 +2784,10 @@
       <x:c r="B27" s="55"/>
       <x:c r="C27" s="66"/>
       <x:c r="D27" s="32" t="s">
-        <x:v>8</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E27" s="34" t="s">
-        <x:v>32</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F27" s="24">
         <x:v>1</x:v>

--- a/java_yme/요구사항명세서/요구사항 명세서_풋살화쇼핑몰.xlsx
+++ b/java_yme/요구사항명세서/요구사항 명세서_풋살화쇼핑몰.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="24380" windowHeight="10350" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="24380" windowHeight="10350" tabRatio="500" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="사용자" sheetId="1" r:id="rId4"/>
@@ -20,251 +20,272 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
-  <x:si>
-    <x:t>회원탈퇴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전체주문조회 -&gt; 주문일, 주문번호, 주문자, 결제방법, 주문가격, 주문상태 리스트 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항, 1:1문의 메뉴 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OOO님 안녕하세요 ! 라고 문구 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입 완료 시, 로그인 화면으로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름 수정은 관리자만 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전체풋살화조회 -&gt;  풋살화 이미지,상품명, 브랜드, 사이즈 출력</x:t>
-  </x:si>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="84">
   <x:si>
     <x:t>풋살화수정 -&gt; 풋살화 등록에 대한 모든 값 모두 수정 가능 
                         풋살화  이미지 수정 체크박스 버튼을 파일첨부기능 활성화</x:t>
   </x:si>
   <x:si>
-    <x:t>회원탈퇴시 즉시 정보삭제 및 작성한 게시글 모두 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">풋살화(성인, 유소년)  / 슬리퍼 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>신발</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색바</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>풋살화등록 -&gt; 상품명, 브랜드, 사이즈, 상품가격, 상품이미지 첨부, 상품카테고리(성인/유소년) 입력</x:t>
+    <x:t>회원탈퇴시 약관사항 동의여부 체크하고 비밀번호 재확인 해야만 탈퇴 되게끔 구현, 회원 탈퇴시 회원이 작성한 1:1문의글 삭제되게끔 구현</x:t>
   </x:si>
   <x:si>
     <x:t>주문변경 -&gt; 주문 번호 클릭 시, 해당 주문에 대한 상세내역 페이지로 이동하며, 
                 관리자는 배송 상태 정보를 변경</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">계속 쇼핑하기/ 주문하기 버튼 출력 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디, 비밀번호 입력창, 로그인 버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입, 아이디/비밀번호 찾기 버튼 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계속 쇼핑하기 클릭시 메인페이지 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃 버튼 클릭시 메인페이지 이동</x:t>
+    <x:t>관리자는 1:1문의게시판 상세확인시 비밀번호 없이 확인 가능하게끔 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전체풋살화조회 -&gt;  풋살화 이미지,상품명, 브랜드, 사이즈 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문의답변 -&gt; 문의번호에 해당하는 제목 클릭시, 사용자가 문의한 정보 확인
+                -&gt; 이름, 아이디, 이메일, 문의유형, 문의제목, 문의 내용이 불러와지며 문의 답변 작성란을 통해 작성
+                -&gt; 문의 답변 완료 시 답변 여부가 "답변 대기" 상태에서 "답변 완료"로 변경
+                -&gt; 사용자가 마이페이지의 문의 내역에서 답변 여부 확인 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원삭제 -&gt; 회원리스트에서 회원번호에 해당하는 회원 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>풋살화삭제 -&gt; 상품리스트에 상품번호에 해당하는 상품 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전체주문조회 -&gt; 주문일, 주문번호, 주문자, 결제방법, 주문가격, 주문상태 리스트 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전체회원조회 -&gt;  회원 아이디, 이름,핸드폰번호, 생년월일 리스트 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디, 비밀번호, 비밀번호 확인, 이름, 우편번호, 주소, 상세주소(주소api이용)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문검색 -&gt; 주문자, 주문상태에 해당하는 키워드 입력시 해당 주문 리스트 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원정보수정 -&gt; 아이디,이름값 수정불가 나머지 항목에 대해서 회원 정보 수정 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원검색 -&gt; 이름,아이디,핸드폰번호에 해당하는 키워드 입력시 해당 회원 리스트 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>풋살화검색 -&gt; 상품명, 브랜드, 사이즈에 해당하는 키워드 입력 시, 해당 상품 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>풋살화등록 -&gt; 상품명, 브랜드, 사이즈, 상품가격, 상품이미지 첨부, 상품카테고리(성인/유소년) 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1:1문의 게시판 답변기능(해당 게시글에 댓글 형식으로 답변 작성) 작성,수정, 삭제 기능 구현 완료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요구사항(사용자)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스터드 용도 가이드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃(관리자계정)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인(관리자계정)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색창과 돋보기 모양</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요구사항(관리자)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃 -&gt; 로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전체문의조회 -&gt; 문의일련번호, 문의일자, 문의유형, 제목, 작성자, 답변 여부대한 리스트 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남성 / 여성 / 유소년</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름 수정은 관리자만 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인한 본인 내역만 출력</x:t>
   </x:si>
   <x:si>
     <x:t>클릭시 메인페이지로 이동</x:t>
   </x:si>
   <x:si>
-    <x:t>로그인한 본인 내역만 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남성 / 여성 / 유소년</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전체회원조회 -&gt;  회원 아이디, 이름,핸드폰번호, 생년월일 리스트 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빈 단어 검색시 단어를 입력하라고 팝업 메시지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지파일만 업로드 가능, 풋살화이미지 규격설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 성공시 로그인 메뉴가 로그아웃으로 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 성공시 회원가입 메뉴가 마이페이지로 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전체문의조회 -&gt; 문의일련번호, 문의일자, 문의유형, 제목, 작성자, 답변 여부대한 리스트 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보수정 -&gt; 아이디,이름값 수정불가 나머지 항목에 대해서 회원 정보 수정 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문검색 -&gt; 주문자, 주문상태에 해당하는 키워드 입력시 해당 주문 리스트 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>풋살화검색 -&gt; 상품명, 브랜드, 사이즈에 해당하는 키워드 입력 시, 해당 상품 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원검색 -&gt; 이름,아이디,핸드폰번호에 해당하는 키워드 입력시 해당 회원 리스트 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요구사항(사용자)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃(관리자계정)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색창과 돋보기 모양</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃 -&gt; 로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요구사항(관리자)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스터드 용도 가이드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인(관리자계정)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1:1 문의내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디, 비밀번호, 비밀번호 확인, 이름, 우편번호, 주소, 상세주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원삭제 -&gt; 회원리스트에서 회원번호에 해당하는 회원 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>풋살화삭제 -&gt; 상품리스트에 상품번호에 해당하는 상품 삭제</x:t>
+    <x:t>1:1문의 게시판에 답변 완료시 답변 여부를 답변 상태로 변경 되며, 사용자의 1:1 문의리스트에도 답변 완료로 변경되게끔 구현</x:t>
   </x:si>
   <x:si>
     <x:t>회원등록 -&gt; 아이디(중복확인팝업),이름,비밀번호,비밀번호 확인, 생년월일, 우편번호
 주소, 상세주소, 이메일, 휴대폰번호</x:t>
   </x:si>
   <x:si>
+    <x:t>상단메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객센터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필요 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1:1문의관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HOME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최상단메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쇼핑몰 로고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능 설명</x:t>
+  </x:si>
+  <x:si>
     <x:t>중상단메뉴</x:t>
   </x:si>
   <x:si>
-    <x:t>HOME</x:t>
-  </x:si>
-  <x:si>
     <x:t>서비스(메뉴)</x:t>
   </x:si>
   <x:si>
-    <x:t>회원관리</x:t>
+    <x:t>우선순위</x:t>
   </x:si>
   <x:si>
     <x:t>회원가입</x:t>
   </x:si>
   <x:si>
-    <x:t>쇼핑몰 로고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최상단메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우선순위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객센터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상단메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1:1문의관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필요 기능</x:t>
-  </x:si>
-  <x:si>
     <x:t>마이페이지</x:t>
   </x:si>
   <x:si>
-    <x:t>로그아웃 -&gt; 로그인, 마이페이지 -&gt; 회원가입으로 변경</x:t>
+    <x:t>회원탈퇴시 즉시 정보삭제 및 작성한 게시글 모두 삭제</x:t>
   </x:si>
   <x:si>
     <x:t>사용자는 마이페이지에 배송 조회로 
 배송 상태 조회 가능</x:t>
   </x:si>
   <x:si>
+    <x:t>로그아웃 -&gt; 로그인, 마이페이지 -&gt; 회원가입으로 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원탈퇴(회원 탈퇴 필수동의 체크/ 비밀번호 재확인)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항이 기본으로 보이게끔 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파란색 글씨 모든 기능 구현 완료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니에 담긴 상품 목록 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항, 1:1문의 메뉴 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자 페이지의 시작화면으로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문하기 클릭시 결제 창으로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
     <x:t>의류</x:t>
   </x:si>
   <x:si>
-    <x:t>관리자 페이지의 시작화면으로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문하기 클릭시 결제 창으로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항이 기본으로 보이게끔 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니에 담긴 상품 목록 출력</x:t>
+    <x:t>검색바</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신발</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일, 휴대폰번호(숫자만), 생년월일(숫자만)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항게시판 작성,수정,삭제 기능 구현 완료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 성공시 회원가입 메뉴가 마이페이지로 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빈 단어 검색시 단어를 입력하라고 팝업 메시지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1:1문의 게시판 글 작성 비밀번호 기능 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1:1 문의내역(로그인한 유저가 작성한것만 따로)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지파일만 업로드 가능, 풋살화이미지 규격설정</x:t>
   </x:si>
   <x:si>
     <x:t>개인정보수정 - &gt; 아이디, 이름 제외 수정</x:t>
   </x:si>
   <x:si>
-    <x:t>이메일, 휴대폰번호(숫자만), 생년월일(숫자만)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문의답변 -&gt; 문의번호에 해당하는 제목 클릭시, 사용자가 문의한 정보 확인
-                -&gt; 이름, 아이디, 이메일, 문의유형, 문의제목, 문의 내용이 불러와지며 문의 답변 작성란을 통해 작성
-                -&gt; 문의 답변 완료 시 답변 여부가 "확인 중" 상태에서 "답변 완료"로 변경
-                -&gt; 사용자가 마이페이지의 문의 내역에서 답변 여부 확인 가능</x:t>
+    <x:t>로그인 성공시 로그인 메뉴가 로그아웃으로 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">계속 쇼핑하기/ 주문하기 버튼 출력 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>OOO님 안녕하세요 ! 라고 문구 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">풋살화(성인, 유소년)  / 슬리퍼 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입 완료 시, 로그인 화면으로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계속 쇼핑하기 클릭시 메인페이지 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입, 아이디/비밀번호 찾기 버튼 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃 버튼 클릭시 메인페이지 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디, 비밀번호 입력창, 로그인 버튼</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="10">
+  <x:fonts count="11">
     <x:font>
       <x:name val="Arial"/>
       <x:sz val="10"/>
@@ -308,6 +329,12 @@
     <x:font>
       <x:name val="Arial"/>
       <x:sz val="11"/>
+      <x:color rgb="ff0000ff"/>
+      <x:b val="1"/>
+    </x:font>
+    <x:font>
+      <x:name val="Arial"/>
+      <x:sz val="11"/>
       <x:color rgb="ffffffff"/>
       <x:b val="1"/>
     </x:font>
@@ -374,11 +401,11 @@
       <x:right style="thin">
         <x:color indexed="64"/>
       </x:right>
-      <x:top style="thin">
-        <x:color indexed="64"/>
+      <x:top>
+        <x:color rgb="ff000000"/>
       </x:top>
       <x:bottom style="thin">
-        <x:color indexed="64"/>
+        <x:color rgb="ff000000"/>
       </x:bottom>
     </x:border>
     <x:border>
@@ -388,8 +415,36 @@
       <x:right style="thin">
         <x:color indexed="64"/>
       </x:right>
-      <x:top>
-        <x:color rgb="ff000000"/>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom style="thin">
         <x:color rgb="ff000000"/>
@@ -397,15 +452,15 @@
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color indexed="64"/>
+        <x:color rgb="ff000000"/>
       </x:left>
       <x:right style="thin">
         <x:color indexed="64"/>
       </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
+      <x:top>
+        <x:color indexed="64"/>
       </x:top>
-      <x:bottom style="thin">
+      <x:bottom>
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
@@ -414,9 +469,9 @@
         <x:color indexed="64"/>
       </x:left>
       <x:right style="thin">
-        <x:color rgb="ff000000"/>
+        <x:color indexed="64"/>
       </x:right>
-      <x:top style="thin">
+      <x:top>
         <x:color indexed="64"/>
       </x:top>
       <x:bottom style="thin">
@@ -428,41 +483,83 @@
         <x:color indexed="64"/>
       </x:left>
       <x:right style="thin">
-        <x:color indexed="64"/>
+        <x:color rgb="ff000000"/>
       </x:right>
       <x:top style="thin">
-        <x:color indexed="64"/>
+        <x:color rgb="ff000000"/>
       </x:top>
       <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color rgb="ff000000"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right style="thin">
         <x:color indexed="64"/>
       </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
       <x:top>
-        <x:color indexed="64"/>
+        <x:color rgb="ff000000"/>
       </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left>
         <x:color indexed="64"/>
       </x:left>
-      <x:right style="thin">
+      <x:right>
         <x:color indexed="64"/>
       </x:right>
-      <x:top>
+      <x:top style="thin">
         <x:color indexed="64"/>
       </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
+      <x:bottom>
+        <x:color indexed="64"/>
       </x:bottom>
     </x:border>
     <x:border>
@@ -470,12 +567,12 @@
         <x:color indexed="64"/>
       </x:left>
       <x:right style="thin">
-        <x:color rgb="ff000000"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top style="thin">
-        <x:color rgb="ff000000"/>
+        <x:color indexed="64"/>
       </x:top>
-      <x:bottom style="thin">
+      <x:bottom>
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
@@ -483,33 +580,33 @@
       <x:left>
         <x:color indexed="64"/>
       </x:left>
-      <x:right style="thin">
+      <x:right>
         <x:color indexed="64"/>
       </x:right>
       <x:top>
         <x:color indexed="64"/>
       </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left>
         <x:color indexed="64"/>
       </x:left>
-      <x:right>
-        <x:color indexed="64"/>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
       </x:right>
       <x:top>
         <x:color indexed="64"/>
       </x:top>
-      <x:bottom style="thin">
+      <x:bottom>
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color rgb="ff000000"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right style="thin">
         <x:color indexed="64"/>
@@ -518,90 +615,20 @@
         <x:color rgb="ff000000"/>
       </x:top>
       <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
+        <x:color indexed="64"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left>
         <x:color indexed="64"/>
       </x:left>
-      <x:right>
-        <x:color indexed="64"/>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
       </x:right>
       <x:top style="thin">
-        <x:color indexed="64"/>
+        <x:color rgb="ff000000"/>
       </x:top>
       <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top>
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom style="thin">
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
@@ -737,7 +764,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="67">
+  <x:cellXfs count="73">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -760,12 +787,6 @@
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -807,69 +828,69 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="bottom"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="bottom"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="bottom"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="bottom"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="bottom"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="bottom"/>
         </x:xf>
       </mc:Fallback>
@@ -887,18 +908,18 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="bottom"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="bottom"/>
         </x:xf>
       </mc:Fallback>
@@ -919,72 +940,81 @@
     <x:xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="bottom"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="bottom"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="bottom"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -994,206 +1024,221 @@
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="bottom"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="bottom"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
@@ -1206,7 +1251,7 @@
     <x:xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
   </x:cellXfs>
@@ -1807,8 +1852,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:Z27"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D22" activeCellId="0" sqref="D22:D22"/>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="D15" activeCellId="0" sqref="D15:D15"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15.75" customHeight="1"/>
@@ -1818,18 +1863,18 @@
     <x:col min="3" max="3" width="16.453125" style="3" customWidth="1"/>
     <x:col min="4" max="4" width="97.81640625" style="3" customWidth="1"/>
     <x:col min="5" max="5" width="55.546875" style="3" customWidth="1"/>
-    <x:col min="6" max="6" width="14.4296875" style="10" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="14.4296875" style="8" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:26" ht="16.399999999999999" customHeight="1">
-      <x:c r="A1" s="41" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B1" s="41"/>
-      <x:c r="C1" s="41"/>
-      <x:c r="D1" s="41"/>
-      <x:c r="E1" s="41"/>
-      <x:c r="F1" s="41"/>
+      <x:c r="A1" s="42" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B1" s="42"/>
+      <x:c r="C1" s="42"/>
+      <x:c r="D1" s="42"/>
+      <x:c r="E1" s="42"/>
+      <x:c r="F1" s="42"/>
       <x:c r="G1" s="4"/>
       <x:c r="H1" s="4"/>
       <x:c r="I1" s="4"/>
@@ -1852,12 +1897,12 @@
       <x:c r="Z1" s="4"/>
     </x:row>
     <x:row r="2" spans="1:26" ht="16.399999999999999">
-      <x:c r="A2" s="42"/>
-      <x:c r="B2" s="42"/>
-      <x:c r="C2" s="42"/>
-      <x:c r="D2" s="42"/>
-      <x:c r="E2" s="42"/>
-      <x:c r="F2" s="42"/>
+      <x:c r="A2" s="43"/>
+      <x:c r="B2" s="43"/>
+      <x:c r="C2" s="43"/>
+      <x:c r="D2" s="43"/>
+      <x:c r="E2" s="43"/>
+      <x:c r="F2" s="43"/>
       <x:c r="G2" s="4"/>
       <x:c r="H2" s="4"/>
       <x:c r="I2" s="4"/>
@@ -1880,23 +1925,23 @@
       <x:c r="Z2" s="4"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="16.399999999999999">
-      <x:c r="A3" s="36" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B3" s="38" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C3" s="38" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D3" s="38" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="E3" s="38" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F3" s="38" t="s">
-        <x:v>59</x:v>
+      <x:c r="A3" s="37" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B3" s="39" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C3" s="39" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D3" s="39" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E3" s="39" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="F3" s="39" t="s">
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G3" s="4"/>
       <x:c r="H3" s="4"/>
@@ -1904,32 +1949,32 @@
       <x:c r="J3" s="4"/>
     </x:row>
     <x:row r="4" spans="1:10" ht="16.399999999999999">
-      <x:c r="A4" s="37"/>
-      <x:c r="B4" s="39"/>
-      <x:c r="C4" s="39"/>
-      <x:c r="D4" s="39"/>
-      <x:c r="E4" s="39"/>
-      <x:c r="F4" s="40"/>
+      <x:c r="A4" s="38"/>
+      <x:c r="B4" s="40"/>
+      <x:c r="C4" s="40"/>
+      <x:c r="D4" s="40"/>
+      <x:c r="E4" s="40"/>
+      <x:c r="F4" s="41"/>
       <x:c r="G4" s="4"/>
       <x:c r="H4" s="4"/>
       <x:c r="I4" s="4"/>
       <x:c r="J4" s="4"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A5" s="53" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="B5" s="53" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="C5" s="16" t="s">
-        <x:v>52</x:v>
+      <x:c r="A5" s="55" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B5" s="55" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C5" s="33" t="s">
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D5" s="6" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="E5" s="16"/>
-      <x:c r="F5" s="17">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E5" s="14"/>
+      <x:c r="F5" s="15">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G5" s="4"/>
@@ -1938,18 +1983,18 @@
       <x:c r="J5" s="4"/>
     </x:row>
     <x:row r="6" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A6" s="54"/>
-      <x:c r="B6" s="54"/>
-      <x:c r="C6" s="43" t="s">
-        <x:v>11</x:v>
+      <x:c r="A6" s="56"/>
+      <x:c r="B6" s="56"/>
+      <x:c r="C6" s="44" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D6" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E6" s="6" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="F6" s="48">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="F6" s="49">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G6" s="4"/>
@@ -1958,34 +2003,34 @@
       <x:c r="J6" s="4"/>
     </x:row>
     <x:row r="7" spans="1:10" ht="16.399999999999999">
-      <x:c r="A7" s="54"/>
-      <x:c r="B7" s="54"/>
-      <x:c r="C7" s="44"/>
+      <x:c r="A7" s="56"/>
+      <x:c r="B7" s="56"/>
+      <x:c r="C7" s="45"/>
       <x:c r="D7" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E7" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F7" s="49"/>
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="F7" s="50"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4"/>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="4"/>
     </x:row>
     <x:row r="8" spans="1:10" s="1" customFormat="1" ht="16.399999999999999">
-      <x:c r="A8" s="54"/>
-      <x:c r="B8" s="54"/>
-      <x:c r="C8" s="8" t="s">
-        <x:v>63</x:v>
+      <x:c r="A8" s="56"/>
+      <x:c r="B8" s="56"/>
+      <x:c r="C8" s="34" t="s">
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D8" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E8" s="6" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="F8" s="18">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F8" s="16">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G8" s="4"/>
@@ -1994,18 +2039,18 @@
       <x:c r="J8" s="4"/>
     </x:row>
     <x:row r="9" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A9" s="54"/>
-      <x:c r="B9" s="54"/>
-      <x:c r="C9" s="45" t="s">
-        <x:v>51</x:v>
+      <x:c r="A9" s="56"/>
+      <x:c r="B9" s="56"/>
+      <x:c r="C9" s="46" t="s">
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D9" s="6" t="s">
-        <x:v>43</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E9" s="6" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="F9" s="48">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="F9" s="49">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G9" s="4"/>
@@ -2014,46 +2059,46 @@
       <x:c r="J9" s="4"/>
     </x:row>
     <x:row r="10" spans="1:10" ht="16.399999999999999">
-      <x:c r="A10" s="54"/>
-      <x:c r="B10" s="54"/>
-      <x:c r="C10" s="46"/>
+      <x:c r="A10" s="56"/>
+      <x:c r="B10" s="56"/>
+      <x:c r="C10" s="47"/>
       <x:c r="D10" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E10" s="6"/>
-      <x:c r="F10" s="50"/>
+      <x:c r="F10" s="51"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4"/>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="4"/>
     </x:row>
     <x:row r="11" spans="1:10" ht="16.399999999999999">
-      <x:c r="A11" s="54"/>
-      <x:c r="B11" s="54"/>
-      <x:c r="C11" s="47"/>
+      <x:c r="A11" s="56"/>
+      <x:c r="B11" s="56"/>
+      <x:c r="C11" s="48"/>
       <x:c r="D11" s="6" t="s">
-        <x:v>4</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E11" s="6"/>
-      <x:c r="F11" s="49"/>
+      <x:c r="F11" s="50"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4"/>
       <x:c r="I11" s="4"/>
       <x:c r="J11" s="4"/>
     </x:row>
     <x:row r="12" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A12" s="54"/>
-      <x:c r="B12" s="54"/>
-      <x:c r="C12" s="51" t="s">
-        <x:v>55</x:v>
+      <x:c r="A12" s="56"/>
+      <x:c r="B12" s="56"/>
+      <x:c r="C12" s="52" t="s">
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D12" s="6" t="s">
-        <x:v>73</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E12" s="6" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F12" s="48">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="F12" s="49">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G12" s="4"/>
@@ -2062,34 +2107,34 @@
       <x:c r="J12" s="4"/>
     </x:row>
     <x:row r="13" spans="1:10" ht="16.399999999999999">
-      <x:c r="A13" s="54"/>
-      <x:c r="B13" s="54"/>
-      <x:c r="C13" s="44"/>
+      <x:c r="A13" s="56"/>
+      <x:c r="B13" s="56"/>
+      <x:c r="C13" s="53"/>
       <x:c r="D13" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E13" s="6" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="F13" s="49"/>
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F13" s="50"/>
       <x:c r="G13" s="4"/>
       <x:c r="H13" s="4"/>
       <x:c r="I13" s="4"/>
       <x:c r="J13" s="4"/>
     </x:row>
     <x:row r="14" spans="1:10" ht="16.399999999999999">
-      <x:c r="A14" s="54"/>
-      <x:c r="B14" s="54"/>
-      <x:c r="C14" s="9" t="s">
-        <x:v>60</x:v>
+      <x:c r="A14" s="56"/>
+      <x:c r="B14" s="56"/>
+      <x:c r="C14" s="35" t="s">
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D14" s="6" t="s">
-        <x:v>2</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E14" s="6" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="F14" s="19">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F14" s="17">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G14" s="4"/>
@@ -2098,18 +2143,18 @@
       <x:c r="J14" s="4"/>
     </x:row>
     <x:row r="15" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A15" s="54"/>
-      <x:c r="B15" s="54"/>
-      <x:c r="C15" s="45" t="s">
-        <x:v>66</x:v>
+      <x:c r="A15" s="56"/>
+      <x:c r="B15" s="56"/>
+      <x:c r="C15" s="46" t="s">
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D15" s="6" t="s">
         <x:v>74</x:v>
       </x:c>
       <x:c r="E15" s="6" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F15" s="48">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F15" s="49">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G15" s="4"/>
@@ -2118,50 +2163,50 @@
       <x:c r="J15" s="4"/>
     </x:row>
     <x:row r="16" spans="1:10" ht="16.399999999999999">
-      <x:c r="A16" s="54"/>
-      <x:c r="B16" s="54"/>
-      <x:c r="C16" s="46"/>
+      <x:c r="A16" s="56"/>
+      <x:c r="B16" s="56"/>
+      <x:c r="C16" s="47"/>
       <x:c r="D16" s="6" t="s">
-        <x:v>42</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E16" s="6" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F16" s="50"/>
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F16" s="51"/>
       <x:c r="G16" s="4"/>
       <x:c r="H16" s="4"/>
       <x:c r="I16" s="4"/>
       <x:c r="J16" s="4"/>
     </x:row>
     <x:row r="17" spans="1:10" ht="16.399999999999999">
-      <x:c r="A17" s="54"/>
-      <x:c r="B17" s="55"/>
-      <x:c r="C17" s="52"/>
+      <x:c r="A17" s="56"/>
+      <x:c r="B17" s="57"/>
+      <x:c r="C17" s="54"/>
       <x:c r="D17" s="6" t="s">
-        <x:v>0</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E17" s="6" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F17" s="49"/>
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F17" s="50"/>
       <x:c r="G17" s="4"/>
       <x:c r="H17" s="4"/>
       <x:c r="I17" s="4"/>
       <x:c r="J17" s="4"/>
     </x:row>
     <x:row r="18" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A18" s="54"/>
-      <x:c r="B18" s="57" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C18" s="13" t="s">
-        <x:v>69</x:v>
+      <x:c r="A18" s="56"/>
+      <x:c r="B18" s="60" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C18" s="11" t="s">
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D18" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E18" s="6"/>
-      <x:c r="F18" s="19">
+      <x:c r="F18" s="17">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G18" s="4"/>
@@ -2170,16 +2215,16 @@
       <x:c r="J18" s="4"/>
     </x:row>
     <x:row r="19" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A19" s="54"/>
-      <x:c r="B19" s="58"/>
-      <x:c r="C19" s="56" t="s">
-        <x:v>10</x:v>
+      <x:c r="A19" s="56"/>
+      <x:c r="B19" s="61"/>
+      <x:c r="C19" s="58" t="s">
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D19" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E19" s="6"/>
-      <x:c r="F19" s="48">
+      <x:c r="F19" s="49">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G19" s="4"/>
@@ -2188,32 +2233,32 @@
       <x:c r="J19" s="4"/>
     </x:row>
     <x:row r="20" spans="1:10" ht="16.399999999999999">
-      <x:c r="A20" s="54"/>
-      <x:c r="B20" s="58"/>
-      <x:c r="C20" s="52"/>
+      <x:c r="A20" s="56"/>
+      <x:c r="B20" s="61"/>
+      <x:c r="C20" s="59"/>
       <x:c r="D20" s="6" t="s">
-        <x:v>40</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E20" s="6"/>
-      <x:c r="F20" s="49"/>
+      <x:c r="F20" s="50"/>
       <x:c r="G20" s="4"/>
       <x:c r="H20" s="4"/>
       <x:c r="I20" s="4"/>
       <x:c r="J20" s="4"/>
     </x:row>
     <x:row r="21" spans="1:10" ht="16.399999999999999">
-      <x:c r="A21" s="55"/>
-      <x:c r="B21" s="59"/>
-      <x:c r="C21" s="14" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D21" s="20" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="E21" s="23" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F21" s="24">
+      <x:c r="A21" s="57"/>
+      <x:c r="B21" s="62"/>
+      <x:c r="C21" s="12" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D21" s="18" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E21" s="21" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="F21" s="22">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G21" s="4"/>
@@ -2222,71 +2267,77 @@
       <x:c r="J21" s="4"/>
     </x:row>
     <x:row r="22" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A22" s="26"/>
-      <x:c r="B22" s="26"/>
-      <x:c r="C22" s="26"/>
-      <x:c r="D22" s="26"/>
-      <x:c r="E22" s="26"/>
-      <x:c r="F22" s="22"/>
+      <x:c r="A22" s="24"/>
+      <x:c r="B22" s="24"/>
+      <x:c r="C22" s="24"/>
+      <x:c r="D22" s="24"/>
+      <x:c r="E22" s="24"/>
+      <x:c r="F22" s="20"/>
       <x:c r="G22" s="4"/>
       <x:c r="H22" s="4"/>
       <x:c r="I22" s="4"/>
       <x:c r="J22" s="4"/>
     </x:row>
     <x:row r="23" spans="1:10" ht="16.399999999999999">
-      <x:c r="A23" s="15"/>
-      <x:c r="B23" s="15"/>
-      <x:c r="C23" s="15"/>
-      <x:c r="D23" s="15"/>
-      <x:c r="E23" s="15"/>
-      <x:c r="F23" s="11"/>
+      <x:c r="A23" s="13"/>
+      <x:c r="B23" s="13"/>
+      <x:c r="C23" s="13" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D23" s="13"/>
+      <x:c r="E23" s="13"/>
+      <x:c r="F23" s="9"/>
       <x:c r="G23" s="4"/>
       <x:c r="H23" s="4"/>
       <x:c r="I23" s="4"/>
       <x:c r="J23" s="4"/>
     </x:row>
     <x:row r="24" spans="1:10" ht="16.399999999999999">
-      <x:c r="A24" s="15"/>
-      <x:c r="B24" s="15"/>
-      <x:c r="C24" s="15"/>
-      <x:c r="D24" s="15"/>
-      <x:c r="E24" s="15"/>
-      <x:c r="F24" s="12"/>
+      <x:c r="A24" s="13"/>
+      <x:c r="B24" s="13"/>
+      <x:c r="C24" s="13" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D24" s="13"/>
+      <x:c r="E24" s="13"/>
+      <x:c r="F24" s="10"/>
       <x:c r="G24" s="4"/>
       <x:c r="H24" s="4"/>
       <x:c r="I24" s="4"/>
       <x:c r="J24" s="4"/>
     </x:row>
     <x:row r="25" spans="1:10" ht="16.399999999999999">
-      <x:c r="A25" s="15"/>
-      <x:c r="B25" s="15"/>
-      <x:c r="C25" s="15"/>
-      <x:c r="D25" s="15"/>
-      <x:c r="E25" s="15"/>
-      <x:c r="F25" s="11"/>
+      <x:c r="A25" s="13"/>
+      <x:c r="B25" s="13"/>
+      <x:c r="C25" s="13" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D25" s="13"/>
+      <x:c r="E25" s="13"/>
+      <x:c r="F25" s="9"/>
       <x:c r="G25" s="4"/>
       <x:c r="H25" s="4"/>
       <x:c r="I25" s="4"/>
       <x:c r="J25" s="4"/>
     </x:row>
     <x:row r="26" spans="1:10" ht="16.399999999999999">
-      <x:c r="A26" s="15"/>
-      <x:c r="B26" s="15"/>
-      <x:c r="C26" s="15"/>
-      <x:c r="D26" s="15"/>
-      <x:c r="E26" s="15"/>
-      <x:c r="F26" s="11"/>
+      <x:c r="A26" s="13"/>
+      <x:c r="B26" s="13"/>
+      <x:c r="C26" s="13"/>
+      <x:c r="D26" s="13"/>
+      <x:c r="E26" s="13"/>
+      <x:c r="F26" s="9"/>
       <x:c r="G26" s="4"/>
       <x:c r="H26" s="4"/>
       <x:c r="I26" s="4"/>
       <x:c r="J26" s="4"/>
     </x:row>
     <x:row r="27" spans="1:5" customHeight="1">
-      <x:c r="A27" s="15"/>
-      <x:c r="B27" s="15"/>
-      <x:c r="C27" s="15"/>
-      <x:c r="D27" s="15"/>
-      <x:c r="E27" s="15"/>
+      <x:c r="A27" s="13"/>
+      <x:c r="B27" s="13"/>
+      <x:c r="C27" s="13"/>
+      <x:c r="D27" s="13"/>
+      <x:c r="E27" s="13"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="20">
@@ -2319,10 +2370,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet4"/>
-  <x:dimension ref="A1:Z28"/>
+  <x:dimension ref="A1:Z32"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D21" activeCellId="0" sqref="D21:D24"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A5" activeCellId="0" sqref="A5:A27"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2332,18 +2383,18 @@
     <x:col min="3" max="3" width="25.546875" style="3" customWidth="1"/>
     <x:col min="4" max="4" width="97.81640625" style="3" customWidth="1"/>
     <x:col min="5" max="5" width="46" style="3" customWidth="1"/>
-    <x:col min="6" max="6" width="14.4296875" style="10" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="14.4296875" style="8" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:26" ht="16.399999999999999" customHeight="1">
-      <x:c r="A1" s="41" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="B1" s="41"/>
-      <x:c r="C1" s="41"/>
-      <x:c r="D1" s="41"/>
-      <x:c r="E1" s="41"/>
-      <x:c r="F1" s="41"/>
+      <x:c r="A1" s="42" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B1" s="42"/>
+      <x:c r="C1" s="42"/>
+      <x:c r="D1" s="42"/>
+      <x:c r="E1" s="42"/>
+      <x:c r="F1" s="42"/>
       <x:c r="G1" s="4"/>
       <x:c r="H1" s="4"/>
       <x:c r="I1" s="4"/>
@@ -2366,12 +2417,12 @@
       <x:c r="Z1" s="5"/>
     </x:row>
     <x:row r="2" spans="1:26" ht="16.399999999999999">
-      <x:c r="A2" s="42"/>
-      <x:c r="B2" s="42"/>
-      <x:c r="C2" s="42"/>
-      <x:c r="D2" s="42"/>
-      <x:c r="E2" s="42"/>
-      <x:c r="F2" s="42"/>
+      <x:c r="A2" s="43"/>
+      <x:c r="B2" s="43"/>
+      <x:c r="C2" s="43"/>
+      <x:c r="D2" s="43"/>
+      <x:c r="E2" s="43"/>
+      <x:c r="F2" s="43"/>
       <x:c r="G2" s="4"/>
       <x:c r="H2" s="4"/>
       <x:c r="I2" s="4"/>
@@ -2394,23 +2445,23 @@
       <x:c r="Z2" s="5"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="16.399999999999999">
-      <x:c r="A3" s="36" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B3" s="38" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C3" s="38" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D3" s="38" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="E3" s="38" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F3" s="38" t="s">
-        <x:v>59</x:v>
+      <x:c r="A3" s="37" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B3" s="39" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C3" s="39" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D3" s="39" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E3" s="39" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="F3" s="39" t="s">
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G3" s="4"/>
       <x:c r="H3" s="4"/>
@@ -2418,32 +2469,32 @@
       <x:c r="J3" s="4"/>
     </x:row>
     <x:row r="4" spans="1:10" ht="16.399999999999999">
-      <x:c r="A4" s="37"/>
-      <x:c r="B4" s="39"/>
-      <x:c r="C4" s="39"/>
-      <x:c r="D4" s="39"/>
-      <x:c r="E4" s="39"/>
-      <x:c r="F4" s="40"/>
+      <x:c r="A4" s="38"/>
+      <x:c r="B4" s="40"/>
+      <x:c r="C4" s="40"/>
+      <x:c r="D4" s="40"/>
+      <x:c r="E4" s="40"/>
+      <x:c r="F4" s="41"/>
       <x:c r="G4" s="4"/>
       <x:c r="H4" s="4"/>
       <x:c r="I4" s="4"/>
       <x:c r="J4" s="4"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A5" s="53" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="B5" s="53" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C5" s="16" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="D5" s="16" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="E5" s="16"/>
-      <x:c r="F5" s="28">
+      <x:c r="A5" s="55" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B5" s="55" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C5" s="33" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D5" s="14" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="E5" s="14"/>
+      <x:c r="F5" s="25">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G5" s="4"/>
@@ -2452,18 +2503,18 @@
       <x:c r="J5" s="4"/>
     </x:row>
     <x:row r="6" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A6" s="54"/>
-      <x:c r="B6" s="54"/>
-      <x:c r="C6" s="27" t="s">
-        <x:v>41</x:v>
+      <x:c r="A6" s="56"/>
+      <x:c r="B6" s="56"/>
+      <x:c r="C6" s="36" t="s">
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D6" s="6" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E6" s="29" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="F6" s="30">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E6" s="26" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="F6" s="27">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G6" s="4"/>
@@ -2472,18 +2523,18 @@
       <x:c r="J6" s="4"/>
     </x:row>
     <x:row r="7" spans="1:10" s="2" customFormat="1" ht="16.399999999999999">
-      <x:c r="A7" s="54"/>
-      <x:c r="B7" s="55"/>
-      <x:c r="C7" s="8" t="s">
-        <x:v>36</x:v>
+      <x:c r="A7" s="56"/>
+      <x:c r="B7" s="57"/>
+      <x:c r="C7" s="34" t="s">
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D7" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E7" s="6" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="F7" s="18">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F7" s="16">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G7" s="4"/>
@@ -2492,18 +2543,18 @@
       <x:c r="J7" s="4"/>
     </x:row>
     <x:row r="8" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A8" s="54"/>
-      <x:c r="B8" s="53" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C8" s="45" t="s">
-        <x:v>50</x:v>
+      <x:c r="A8" s="56"/>
+      <x:c r="B8" s="55" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C8" s="65" t="s">
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D8" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E8" s="6"/>
-      <x:c r="F8" s="48">
+      <x:c r="F8" s="49">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G8" s="4"/>
@@ -2512,84 +2563,84 @@
       <x:c r="J8" s="4"/>
     </x:row>
     <x:row r="9" spans="1:10" ht="16.399999999999999">
-      <x:c r="A9" s="54"/>
-      <x:c r="B9" s="54"/>
-      <x:c r="C9" s="46"/>
+      <x:c r="A9" s="56"/>
+      <x:c r="B9" s="56"/>
+      <x:c r="C9" s="66"/>
       <x:c r="D9" s="6" t="s">
-        <x:v>34</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E9" s="6"/>
-      <x:c r="F9" s="50"/>
+      <x:c r="F9" s="51"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4"/>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="4"/>
     </x:row>
     <x:row r="10" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A10" s="54"/>
-      <x:c r="B10" s="54"/>
-      <x:c r="C10" s="46"/>
-      <x:c r="D10" s="60" t="s">
-        <x:v>46</x:v>
+      <x:c r="A10" s="56"/>
+      <x:c r="B10" s="56"/>
+      <x:c r="C10" s="66"/>
+      <x:c r="D10" s="63" t="s">
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="7"/>
-      <x:c r="F10" s="50"/>
+      <x:c r="F10" s="51"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4"/>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="4"/>
     </x:row>
     <x:row r="11" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A11" s="54"/>
-      <x:c r="B11" s="54"/>
-      <x:c r="C11" s="46"/>
-      <x:c r="D11" s="61"/>
+      <x:c r="A11" s="56"/>
+      <x:c r="B11" s="56"/>
+      <x:c r="C11" s="66"/>
+      <x:c r="D11" s="64"/>
       <x:c r="E11" s="7"/>
-      <x:c r="F11" s="50"/>
+      <x:c r="F11" s="51"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4"/>
       <x:c r="I11" s="4"/>
       <x:c r="J11" s="4"/>
     </x:row>
     <x:row r="12" spans="1:10" ht="16.399999999999999">
-      <x:c r="A12" s="54"/>
-      <x:c r="B12" s="54"/>
-      <x:c r="C12" s="46"/>
+      <x:c r="A12" s="56"/>
+      <x:c r="B12" s="56"/>
+      <x:c r="C12" s="66"/>
       <x:c r="D12" s="6" t="s">
-        <x:v>31</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E12" s="7"/>
-      <x:c r="F12" s="50"/>
+      <x:c r="F12" s="51"/>
       <x:c r="G12" s="4"/>
       <x:c r="H12" s="4"/>
       <x:c r="I12" s="4"/>
       <x:c r="J12" s="4"/>
     </x:row>
     <x:row r="13" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A13" s="54"/>
-      <x:c r="B13" s="54"/>
-      <x:c r="C13" s="47"/>
+      <x:c r="A13" s="56"/>
+      <x:c r="B13" s="56"/>
+      <x:c r="C13" s="67"/>
       <x:c r="D13" s="6" t="s">
-        <x:v>44</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E13" s="6"/>
-      <x:c r="F13" s="50"/>
+      <x:c r="F13" s="51"/>
       <x:c r="G13" s="4"/>
       <x:c r="H13" s="4"/>
       <x:c r="I13" s="4"/>
       <x:c r="J13" s="4"/>
     </x:row>
     <x:row r="14" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A14" s="54"/>
-      <x:c r="B14" s="54"/>
-      <x:c r="C14" s="45" t="s">
-        <x:v>58</x:v>
+      <x:c r="A14" s="56"/>
+      <x:c r="B14" s="56"/>
+      <x:c r="C14" s="65" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D14" s="6" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="E14" s="29"/>
-      <x:c r="F14" s="30">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E14" s="26"/>
+      <x:c r="F14" s="27">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G14" s="4"/>
@@ -2598,14 +2649,14 @@
       <x:c r="J14" s="4"/>
     </x:row>
     <x:row r="15" spans="1:10" ht="16.399999999999999">
-      <x:c r="A15" s="54"/>
-      <x:c r="B15" s="54"/>
-      <x:c r="C15" s="46"/>
+      <x:c r="A15" s="56"/>
+      <x:c r="B15" s="56"/>
+      <x:c r="C15" s="66"/>
       <x:c r="D15" s="6" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E15" s="29"/>
-      <x:c r="F15" s="30">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E15" s="26"/>
+      <x:c r="F15" s="27">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G15" s="4"/>
@@ -2614,16 +2665,16 @@
       <x:c r="J15" s="4"/>
     </x:row>
     <x:row r="16" spans="1:10" ht="16.399999999999999">
-      <x:c r="A16" s="54"/>
-      <x:c r="B16" s="54"/>
-      <x:c r="C16" s="46"/>
+      <x:c r="A16" s="56"/>
+      <x:c r="B16" s="56"/>
+      <x:c r="C16" s="66"/>
       <x:c r="D16" s="6" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="E16" s="6" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="F16" s="25">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="F16" s="23">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G16" s="4"/>
@@ -2632,14 +2683,14 @@
       <x:c r="J16" s="4"/>
     </x:row>
     <x:row r="17" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A17" s="54"/>
-      <x:c r="B17" s="54"/>
-      <x:c r="C17" s="46"/>
-      <x:c r="D17" s="60" t="s">
-        <x:v>7</x:v>
+      <x:c r="A17" s="56"/>
+      <x:c r="B17" s="56"/>
+      <x:c r="C17" s="66"/>
+      <x:c r="D17" s="63" t="s">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E17" s="6"/>
-      <x:c r="F17" s="48">
+      <x:c r="F17" s="49">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G17" s="4"/>
@@ -2648,26 +2699,26 @@
       <x:c r="J17" s="4"/>
     </x:row>
     <x:row r="18" spans="1:10" ht="16.399999999999999">
-      <x:c r="A18" s="54"/>
-      <x:c r="B18" s="54"/>
-      <x:c r="C18" s="46"/>
-      <x:c r="D18" s="62"/>
+      <x:c r="A18" s="56"/>
+      <x:c r="B18" s="56"/>
+      <x:c r="C18" s="66"/>
+      <x:c r="D18" s="68"/>
       <x:c r="E18" s="6"/>
-      <x:c r="F18" s="49"/>
+      <x:c r="F18" s="50"/>
       <x:c r="G18" s="4"/>
       <x:c r="H18" s="4"/>
       <x:c r="I18" s="4"/>
       <x:c r="J18" s="4"/>
     </x:row>
     <x:row r="19" spans="1:10" ht="16.399999999999999">
-      <x:c r="A19" s="54"/>
-      <x:c r="B19" s="54"/>
-      <x:c r="C19" s="46"/>
+      <x:c r="A19" s="56"/>
+      <x:c r="B19" s="56"/>
+      <x:c r="C19" s="66"/>
       <x:c r="D19" s="6" t="s">
-        <x:v>45</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E19" s="6"/>
-      <x:c r="F19" s="19">
+      <x:c r="F19" s="17">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G19" s="4"/>
@@ -2676,16 +2727,16 @@
       <x:c r="J19" s="4"/>
     </x:row>
     <x:row r="20" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A20" s="54"/>
-      <x:c r="B20" s="54"/>
-      <x:c r="C20" s="45" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D20" s="31" t="s">
-        <x:v>30</x:v>
+      <x:c r="A20" s="56"/>
+      <x:c r="B20" s="56"/>
+      <x:c r="C20" s="65" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D20" s="28" t="s">
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E20" s="6"/>
-      <x:c r="F20" s="21">
+      <x:c r="F20" s="19">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G20" s="4"/>
@@ -2694,14 +2745,14 @@
       <x:c r="J20" s="4"/>
     </x:row>
     <x:row r="21" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A21" s="54"/>
-      <x:c r="B21" s="54"/>
-      <x:c r="C21" s="46"/>
-      <x:c r="D21" s="63" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="E21" s="29"/>
-      <x:c r="F21" s="53">
+      <x:c r="A21" s="56"/>
+      <x:c r="B21" s="56"/>
+      <x:c r="C21" s="66"/>
+      <x:c r="D21" s="69" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E21" s="26"/>
+      <x:c r="F21" s="55">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G21" s="4"/>
@@ -2710,52 +2761,52 @@
       <x:c r="J21" s="4"/>
     </x:row>
     <x:row r="22" spans="1:10" ht="16.399999999999999">
-      <x:c r="A22" s="54"/>
-      <x:c r="B22" s="54"/>
-      <x:c r="C22" s="46"/>
-      <x:c r="D22" s="46"/>
-      <x:c r="E22" s="23"/>
-      <x:c r="F22" s="54"/>
+      <x:c r="A22" s="56"/>
+      <x:c r="B22" s="56"/>
+      <x:c r="C22" s="66"/>
+      <x:c r="D22" s="66"/>
+      <x:c r="E22" s="21"/>
+      <x:c r="F22" s="56"/>
       <x:c r="G22" s="4"/>
       <x:c r="H22" s="4"/>
       <x:c r="I22" s="4"/>
       <x:c r="J22" s="4"/>
     </x:row>
     <x:row r="23" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A23" s="54"/>
-      <x:c r="B23" s="54"/>
-      <x:c r="C23" s="46"/>
-      <x:c r="D23" s="46"/>
-      <x:c r="E23" s="33"/>
-      <x:c r="F23" s="54"/>
+      <x:c r="A23" s="56"/>
+      <x:c r="B23" s="56"/>
+      <x:c r="C23" s="66"/>
+      <x:c r="D23" s="66"/>
+      <x:c r="E23" s="30"/>
+      <x:c r="F23" s="56"/>
       <x:c r="G23" s="4"/>
       <x:c r="H23" s="4"/>
       <x:c r="I23" s="4"/>
       <x:c r="J23" s="4"/>
     </x:row>
     <x:row r="24" spans="1:10" ht="16.399999999999999">
-      <x:c r="A24" s="54"/>
-      <x:c r="B24" s="54"/>
-      <x:c r="C24" s="47"/>
-      <x:c r="D24" s="47"/>
-      <x:c r="E24" s="33"/>
-      <x:c r="F24" s="55"/>
+      <x:c r="A24" s="56"/>
+      <x:c r="B24" s="56"/>
+      <x:c r="C24" s="67"/>
+      <x:c r="D24" s="67"/>
+      <x:c r="E24" s="30"/>
+      <x:c r="F24" s="57"/>
       <x:c r="G24" s="4"/>
       <x:c r="H24" s="4"/>
       <x:c r="I24" s="4"/>
       <x:c r="J24" s="4"/>
     </x:row>
     <x:row r="25" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A25" s="54"/>
-      <x:c r="B25" s="54"/>
-      <x:c r="C25" s="64" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="D25" s="33" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E25" s="33"/>
-      <x:c r="F25" s="35">
+      <x:c r="A25" s="56"/>
+      <x:c r="B25" s="56"/>
+      <x:c r="C25" s="70" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D25" s="30" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E25" s="30"/>
+      <x:c r="F25" s="32">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G25" s="4"/>
@@ -2764,14 +2815,14 @@
       <x:c r="J25" s="4"/>
     </x:row>
     <x:row r="26" spans="1:10" ht="16.399999999999999">
-      <x:c r="A26" s="54"/>
-      <x:c r="B26" s="54"/>
-      <x:c r="C26" s="65"/>
-      <x:c r="D26" s="33" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E26" s="33"/>
-      <x:c r="F26" s="24">
+      <x:c r="A26" s="56"/>
+      <x:c r="B26" s="56"/>
+      <x:c r="C26" s="71"/>
+      <x:c r="D26" s="30" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E26" s="30"/>
+      <x:c r="F26" s="22">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G26" s="4"/>
@@ -2780,16 +2831,16 @@
       <x:c r="J26" s="4"/>
     </x:row>
     <x:row r="27" spans="1:10" ht="32.75">
-      <x:c r="A27" s="55"/>
-      <x:c r="B27" s="55"/>
-      <x:c r="C27" s="66"/>
-      <x:c r="D27" s="32" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E27" s="34" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="F27" s="24">
+      <x:c r="A27" s="57"/>
+      <x:c r="B27" s="57"/>
+      <x:c r="C27" s="72"/>
+      <x:c r="D27" s="29" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E27" s="31" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="F27" s="22">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G27" s="4"/>
@@ -2798,11 +2849,31 @@
       <x:c r="J27" s="4"/>
     </x:row>
     <x:row r="28" spans="1:5" customHeight="1">
-      <x:c r="A28" s="15"/>
-      <x:c r="B28" s="15"/>
-      <x:c r="C28" s="15"/>
-      <x:c r="D28" s="15"/>
-      <x:c r="E28" s="15"/>
+      <x:c r="A28" s="13"/>
+      <x:c r="B28" s="13"/>
+      <x:c r="C28" s="13"/>
+      <x:c r="D28" s="13"/>
+      <x:c r="E28" s="13"/>
+    </x:row>
+    <x:row r="29" spans="3:3" customHeight="1">
+      <x:c r="C29" s="3" t="s">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="3:3" customHeight="1">
+      <x:c r="C30" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="3:3" customHeight="1">
+      <x:c r="C31" s="3" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="3:3" customHeight="1">
+      <x:c r="C32" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="20">

--- a/java_yme/요구사항명세서/요구사항 명세서_풋살화쇼핑몰.xlsx
+++ b/java_yme/요구사항명세서/요구사항 명세서_풋살화쇼핑몰.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22010" windowHeight="9380" tabRatio="500" activeTab="1"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22010" windowHeight="9380" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="사용자" sheetId="1" r:id="rId4"/>
@@ -20,213 +20,232 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="105">
-  <x:si>
-    <x:t>주문변경 -&gt; 주문 번호 클릭 시, 해당 주문에 대한 상세내역 페이지로 이동하며, 
-                관리자는 배송 상태 정보를 변경</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="106">
+  <x:si>
+    <x:t>카카오 주소 api적용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아임포트 결제 api적용</x:t>
   </x:si>
   <x:si>
     <x:t>등급 변경은 SUPER ADMIN만 가능</x:t>
   </x:si>
   <x:si>
+    <x:t>회원가입, 아이디/비밀번호 찾기 버튼 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃 버튼 클릭시 메인페이지 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입 완료 시, 로그인 화면으로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>옵션(사이즈)는 한번에 한 개씩 설정가능함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계속 쇼핑하기 클릭시 메인페이지 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수량변경 -&gt; 상품의 사이즈별 재고 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">계속 쇼핑하기/ 주문하기 버튼 출력 </x:t>
+  </x:si>
+  <x:si>
     <x:t>주문배송/조회, 장바구니 대신에 관리자메뉴</x:t>
   </x:si>
   <x:si>
-    <x:t>로그아웃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>취소내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필요 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스(메뉴)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HOME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쇼핑몰 로고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1:1문의관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문/배송조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최상단메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상단메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체크박스 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품상세메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우선순위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객센터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품상세</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품검색 -&gt; 상품명, 브랜드, 사이즈에 해당하는 키워드 입력 시, 해당 상품 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름,아이디,생년월일, 등급 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃 -&gt; 로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃(관리자계정)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색창과 돋보기 모양</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1:1문의 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인(관리자계정)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요구사항(관리자)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요구사항(사용자)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자전용메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수량변경 -&gt; 상품의 사이즈별 재고 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개인정보수정 - &gt; 아이디, 이름 제외 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지파일만 업로드 가능, 풋살화이미지 규격설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제하기 버튼 누르면 결제완료 페이지로 넘어감</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1:1 문의내역(로그인한 유저가 작성한것만 따로)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 성공시 회원가입 메뉴가 마이페이지로 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 성공시 로그인 메뉴가 로그아웃으로 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일, 휴대폰번호(숫자만), 생년월일(숫자만)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수량이 변경될때마다 합계 금액도 변경되게 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모든 1:1 게시글 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>클릭시 메인페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문상태는 &lt;주문취소&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의류상품들만 나오게끔 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>풋살화상품들 나오게끔 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전체문의조회 -&gt; 문의일련번호, 문의일자, 문의유형, 제목, 작성자, 답변 여부대한 리스트 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배송지는 주문자 동일 / 직접 입력으로 선택 가능하게 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈퇴 즉시 주문내역,장바구니내역, 게시판작성 내역 모두 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름을 개명할 경우 대비해서 관리자가 변경 가능하게끔 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제 완료 페이지에는 계속 쇼핑하기, 주문내역 확인하기 버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품등록 -&gt; 상품명, 브랜드, 사이즈, 상품가격, 상품이미지 첨부, 상품정보 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전체주문조회 -&gt; 주문일, 주문번호, 주문자, 결제방법, 주문가격, 주문상태 리스트 출력</x:t>
+    <x:t>OOO님 안녕하세요 ! 라고 문구 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디, 비밀번호 입력창, 로그인 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>풋살화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브랜드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색바</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품상세 -&gt; 등록한 상품의 상세내용 확인 및 수정
+                -&gt; 상품 수정시 이미지, 상품이름, 상품정보 등 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니에서 체크된 상품들의 목록을 보여주고, 총결제 금액 보여줌</x:t>
   </x:si>
   <x:si>
     <x:t>주문상태는 &lt;주문확인중&gt;,&lt;배송중&gt;
 주문내역에는 주문 정보들을 출력</x:t>
   </x:si>
   <x:si>
-    <x:t>장바구니에서 체크된 상품들의 목록을 보여주고, 총결제 금액 보여줌</x:t>
-  </x:si>
-  <x:si>
     <x:t>장바구니 기능 회원만 가능함으로
  비회원이 클릭시 로그인창으로 이동</x:t>
   </x:si>
   <x:si>
-    <x:t>결제 정보는 신용카드/ 실시간계좌이체 / 무통장 입금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니에 담고 페이지 이동 없이 계속 페이지 유지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마우스 가져다 되면 아래로 브랜드명이 나오게끔 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원탈퇴(회원 탈퇴 필수동의 체크/ 비밀번호 재확인)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃 -&gt; 로그인, 마이페이지 -&gt; 회원가입으로 변경</x:t>
+    <x:t>필요 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>취소내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스(메뉴)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품상세메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품상세</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자전용메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상단메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최상단메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HOME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1:1문의관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쇼핑몰 로고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문/배송조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체크박스 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우선순위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객센터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름변경 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>클릭시 메인페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모든 1:1 게시글 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문상태는 &lt;주문취소&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의류상품들만 나오게끔 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>풋살화상품들 나오게끔 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원정보수정 -&gt; 리스트에서 아이디를 클릭하면 수정페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름을 개명할 경우 대비해서 관리자가 변경 가능하게끔 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자는 마이페이지에 주문내역 조회시
+배송 상태 조회 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제 완료 페이지에는 계속 쇼핑하기, 주문내역 확인하기 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배송지는 주문자 동일 / 직접 입력으로 선택 가능하게 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈퇴 즉시 주문내역,장바구니내역, 게시판작성 내역 모두 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품등록 -&gt; 상품명, 브랜드, 사이즈, 상품가격, 상품이미지 첨부, 상품정보 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품검색 -&gt; 상품명, 브랜드, 사이즈에 해당하는 키워드 입력 시, 해당 상품 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>각각 브랜드 이름을 클릭하면 풋살화/의류 상관없이 해당 브랜드 상품 나오게끔 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문관리 -&gt; 주문일, 주문번호, 주문자, 결제방법, 주문가격, 주문상태 리스트 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문검색 -&gt; 주문번호, 주문자 id에 해당하는 키워드 입력시 해당 주문 리스트 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전체문의조회 -&gt; 문의일련번호, 문의일자, 문의유형, 제목, 작성자, 답변 여부대한 리스트 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빈 단어 검색시 단어를 입력하라고 팝업 메시지
+검색단어는 상품명으로 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체크박스로 전체 선택 및 부분 선택 가능하며 
+체크된 상품들의 금액 합계출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 배송비 2,500원이며 합계금액 10만원 이상일시 
+배송비 무료 적용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설정한 옵션 상품의 수량 변경(버튼 클릭시 1개씩 증가하거나 1개씩 감소)</x:t>
   </x:si>
   <x:si>
     <x:t>문의답변 -&gt; 문의번호에 해당하는 제목 클릭시, 사용자가 문의한 정보 확인
@@ -235,88 +254,53 @@
                 -&gt; 사용자가 마이페이지의 문의 내역에서 답변 여부 확인 가능</x:t>
   </x:si>
   <x:si>
-    <x:t>체크박스로 전체 선택 및 부분 선택 가능하며 
-체크된 상품들의 금액 합계출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설정한 옵션 상품의 수량 변경(버튼 클릭시 1개씩 증가하거나 1개씩 감소)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 배송비 2,500원이며 합계금액 10만원 이상일시 
-배송비 무료 적용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빈 단어 검색시 단어를 입력하라고 팝업 메시지
-검색단어는 상품명으로 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브랜드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>풋살화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색바</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">계속 쇼핑하기/ 주문하기 버튼 출력 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디, 비밀번호 입력창, 로그인 버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃 버튼 클릭시 메인페이지 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입, 아이디/비밀번호 찾기 버튼 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계속 쇼핑하기 클릭시 메인페이지 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>옵션(사이즈)는 한번에 한 개씩 설정가능함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입 완료 시, 로그인 화면으로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OOO님 안녕하세요 ! 라고 문구 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디, 비밀번호, 비밀번호 확인, 이름, 우편번호, 주소, 상세주소(주소api이용)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>각각 브랜드 이름을 클릭하면 풋살화/의류 상관없이 해당 브랜드 상품 나오게끔 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제하기 버튼누르면 주문서 작성 됨</x:t>
+    <x:t>주문변경 -&gt; 주문 번호 클릭 시, 해당 주문에 대한 상세내역 페이지로 이동하며, 
+                재고량 부족일 경우 재고량부족, 주문확인 버튼 시 배송시작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃 -&gt; 로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1:1문의 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인(관리자계정)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요구사항(사용자)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색창과 돋보기 모양</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃(관리자계정)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요구사항(관리자)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마우스 가져다 되면 아래로 브랜드명이 나오게끔 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃 -&gt; 로그인, 마이페이지 -&gt; 회원가입으로 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원탈퇴(회원 탈퇴 필수동의 체크/ 비밀번호 재확인)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니에 담고 페이지 이동 없이 계속 페이지 유지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원관리, 상품관리, 1:1문의관리, 주문관리로 구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제 정보는 카카오페이/신용카드/ 실시간계좌이체 / 무통장 입금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>휴대폰번호 SMS 인증 api 적용</x:t>
   </x:si>
   <x:si>
     <x:t>주문하기 클릭시 결제 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자 페이지의 시작화면으로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니 담기, 바로 결제하기 버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문내역 -&gt; 주문번호로 검색 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">상품이미지, 상품이름, 상품정보 </x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
@@ -324,37 +308,56 @@
 </x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">상품이미지, 상품이름, 상품정보 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>수량확인 -&gt; 상품의 재고 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자 페이지의 시작화면으로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문내역 -&gt; 주문번호로 검색 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름,아이디,생년월일, 등급 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니 담기, 바로 결제하기 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수량이 변경될때마다 합계 금액도 변경되게 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 성공시 로그인 메뉴가 로그아웃으로 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1:1 문의내역(로그인한 유저가 작성한것만 따로)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일, 휴대폰번호(숫자만), 생년월일(숫자만)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개인정보수정 - &gt; 아이디, 이름 제외 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 성공시 회원가입 메뉴가 마이페이지로 변경</x:t>
+  </x:si>
+  <x:si>
     <x:t>회원검색 -&gt; 전체,아이디,이름,생년월일로 검색</x:t>
   </x:si>
   <x:si>
-    <x:t>상품상세 -&gt; 등록한 상품의 상세내용 확인 및 수정
-                -&gt; 상품 수정시 이미지, 상품이름, 상품정보 등 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보수정 -&gt; 리스트에서 아이디를 클릭하면 수정페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원관리, 상품관리, 1:1문의관리, 주문관리로 구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자는 마이페이지에 주문내역 조회시
-배송 상태 조회 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수량확인 -&gt; 상품의 재고 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름변경 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문검색 -&gt; 주문자id, 주문상태에 해당하는 키워드 입력시 해당 주문 리스트 출력</x:t>
+    <x:t>결제하기 버튼 누르면 결제화면창이 나오면서 결제 완료시 결제완료 페이지로 넘어감</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디, 비밀번호, 비밀번호 확인, 이름, 우편번호, 주소, 상세주소</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="13">
+  <x:fonts count="14">
     <x:font>
       <x:name val="Arial"/>
       <x:sz val="10"/>
@@ -457,6 +460,28 @@
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff008000"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff008000"/>
+          <x:b val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:fonts>
   <x:fills count="4">
     <x:fill>
@@ -733,7 +758,7 @@
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color rgb="ff000000"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right style="thin">
         <x:color rgb="ff000000"/>
@@ -741,8 +766,8 @@
       <x:top style="thin">
         <x:color rgb="ff000000"/>
       </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
       </x:bottom>
     </x:border>
     <x:border>
@@ -752,8 +777,8 @@
       <x:right style="thin">
         <x:color rgb="ff000000"/>
       </x:right>
-      <x:top>
-        <x:color indexed="64"/>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
       </x:top>
       <x:bottom>
         <x:color indexed="64"/>
@@ -761,16 +786,16 @@
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color indexed="64"/>
+        <x:color rgb="ff000000"/>
       </x:left>
       <x:right style="thin">
-        <x:color indexed="64"/>
+        <x:color rgb="ff000000"/>
       </x:right>
       <x:top>
-        <x:color rgb="ff000000"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom>
-        <x:color rgb="ff000000"/>
+        <x:color indexed="64"/>
       </x:bottom>
     </x:border>
     <x:border>
@@ -789,30 +814,30 @@
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color rgb="ff000000"/>
+        <x:color indexed="64"/>
       </x:left>
-      <x:right style="thin">
+      <x:right>
         <x:color indexed="64"/>
       </x:right>
-      <x:top>
+      <x:top style="thin">
         <x:color rgb="ff000000"/>
       </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
+      <x:bottom>
+        <x:color indexed="64"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left style="thin">
         <x:color indexed="64"/>
       </x:left>
-      <x:right style="thin">
+      <x:right>
         <x:color indexed="64"/>
       </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
+      <x:top>
+        <x:color indexed="64"/>
       </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
       </x:bottom>
     </x:border>
     <x:border>
@@ -820,27 +845,27 @@
         <x:color indexed="64"/>
       </x:left>
       <x:right style="thin">
-        <x:color rgb="ff000000"/>
+        <x:color indexed="64"/>
       </x:right>
-      <x:top style="thin">
+      <x:top>
         <x:color rgb="ff000000"/>
       </x:top>
       <x:bottom>
-        <x:color indexed="64"/>
+        <x:color rgb="ff000000"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color indexed="64"/>
+        <x:color rgb="ff000000"/>
       </x:left>
       <x:right style="thin">
-        <x:color rgb="ff000000"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top>
-        <x:color indexed="64"/>
+        <x:color rgb="ff000000"/>
       </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
       </x:bottom>
     </x:border>
     <x:border>
@@ -848,6 +873,48 @@
         <x:color indexed="64"/>
       </x:left>
       <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
         <x:color rgb="ff000000"/>
       </x:right>
       <x:top>
@@ -869,48 +936,6 @@
       </x:top>
       <x:bottom>
         <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
       </x:bottom>
     </x:border>
   </x:borders>
@@ -1166,20 +1191,84 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1237,6 +1326,111 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <x:xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
@@ -1246,7 +1440,7 @@
     <x:xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1254,44 +1448,18 @@
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1303,24 +1471,24 @@
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1334,45 +1502,6 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1383,15 +1512,6 @@
     <x:xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -1400,13 +1520,13 @@
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1424,110 +1544,15 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2126,8 +2151,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:Z38"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D18" activeCellId="0" sqref="D18:D19"/>
+    <x:sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="D40" activeCellId="0" sqref="D40:D40"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15.75" customHeight="1"/>
@@ -2141,14 +2166,14 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:26" ht="16.399999999999999" customHeight="1">
-      <x:c r="A1" s="47" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="B1" s="47"/>
-      <x:c r="C1" s="47"/>
-      <x:c r="D1" s="47"/>
-      <x:c r="E1" s="47"/>
-      <x:c r="F1" s="47"/>
+      <x:c r="A1" s="55" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B1" s="55"/>
+      <x:c r="C1" s="55"/>
+      <x:c r="D1" s="55"/>
+      <x:c r="E1" s="55"/>
+      <x:c r="F1" s="55"/>
       <x:c r="G1" s="5"/>
       <x:c r="H1" s="5"/>
       <x:c r="I1" s="5"/>
@@ -2171,12 +2196,12 @@
       <x:c r="Z1" s="5"/>
     </x:row>
     <x:row r="2" spans="1:26" ht="16.399999999999999">
-      <x:c r="A2" s="48"/>
-      <x:c r="B2" s="48"/>
-      <x:c r="C2" s="48"/>
-      <x:c r="D2" s="48"/>
-      <x:c r="E2" s="48"/>
-      <x:c r="F2" s="48"/>
+      <x:c r="A2" s="56"/>
+      <x:c r="B2" s="56"/>
+      <x:c r="C2" s="56"/>
+      <x:c r="D2" s="56"/>
+      <x:c r="E2" s="56"/>
+      <x:c r="F2" s="56"/>
       <x:c r="G2" s="5"/>
       <x:c r="H2" s="5"/>
       <x:c r="I2" s="5"/>
@@ -2199,23 +2224,23 @@
       <x:c r="Z2" s="5"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="16.399999999999999">
-      <x:c r="A3" s="42" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="B3" s="44" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C3" s="44" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D3" s="44" t="s">
+      <x:c r="A3" s="50" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B3" s="52" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C3" s="52" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="E3" s="44" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="F3" s="44" t="s">
-        <x:v>23</x:v>
+      <x:c r="D3" s="52" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E3" s="52" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F3" s="52" t="s">
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G3" s="5"/>
       <x:c r="H3" s="5"/>
@@ -2223,29 +2248,29 @@
       <x:c r="J3" s="5"/>
     </x:row>
     <x:row r="4" spans="1:10" ht="16.399999999999999">
-      <x:c r="A4" s="43"/>
-      <x:c r="B4" s="45"/>
-      <x:c r="C4" s="45"/>
-      <x:c r="D4" s="45"/>
-      <x:c r="E4" s="45"/>
-      <x:c r="F4" s="46"/>
+      <x:c r="A4" s="51"/>
+      <x:c r="B4" s="53"/>
+      <x:c r="C4" s="53"/>
+      <x:c r="D4" s="53"/>
+      <x:c r="E4" s="53"/>
+      <x:c r="F4" s="54"/>
       <x:c r="G4" s="5"/>
       <x:c r="H4" s="5"/>
       <x:c r="I4" s="5"/>
       <x:c r="J4" s="5"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A5" s="76" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B5" s="66" t="s">
-        <x:v>17</x:v>
+      <x:c r="A5" s="91" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B5" s="69" t="s">
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C5" s="26" t="s">
-        <x:v>11</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D5" s="7" t="s">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E5" s="11"/>
       <x:c r="F5" s="12">
@@ -2257,18 +2282,18 @@
       <x:c r="J5" s="5"/>
     </x:row>
     <x:row r="6" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A6" s="77"/>
-      <x:c r="B6" s="67"/>
-      <x:c r="C6" s="49" t="s">
-        <x:v>76</x:v>
+      <x:c r="A6" s="92"/>
+      <x:c r="B6" s="71"/>
+      <x:c r="C6" s="72" t="s">
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D6" s="7" t="s">
-        <x:v>81</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E6" s="7" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="F6" s="54">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="F6" s="57">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G6" s="5"/>
@@ -2277,32 +2302,32 @@
       <x:c r="J6" s="5"/>
     </x:row>
     <x:row r="7" spans="1:10" ht="16.399999999999999">
-      <x:c r="A7" s="77"/>
-      <x:c r="B7" s="67"/>
-      <x:c r="C7" s="50"/>
+      <x:c r="A7" s="92"/>
+      <x:c r="B7" s="71"/>
+      <x:c r="C7" s="73"/>
       <x:c r="D7" s="7" t="s">
-        <x:v>83</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E7" s="7" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="F7" s="55"/>
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F7" s="77"/>
       <x:c r="G7" s="5"/>
       <x:c r="H7" s="5"/>
       <x:c r="I7" s="5"/>
       <x:c r="J7" s="5"/>
     </x:row>
     <x:row r="8" spans="1:10" s="2" customFormat="1" ht="16.399999999999999">
-      <x:c r="A8" s="77"/>
-      <x:c r="B8" s="67"/>
+      <x:c r="A8" s="92"/>
+      <x:c r="B8" s="71"/>
       <x:c r="C8" s="27" t="s">
-        <x:v>3</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D8" s="7" t="s">
-        <x:v>82</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E8" s="7" t="s">
-        <x:v>67</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F8" s="13">
         <x:v>1</x:v>
@@ -2313,18 +2338,18 @@
       <x:c r="J8" s="5"/>
     </x:row>
     <x:row r="9" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A9" s="77"/>
-      <x:c r="B9" s="67"/>
-      <x:c r="C9" s="51" t="s">
-        <x:v>15</x:v>
+      <x:c r="A9" s="92"/>
+      <x:c r="B9" s="71"/>
+      <x:c r="C9" s="74" t="s">
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D9" s="7" t="s">
-        <x:v>88</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E9" s="7" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="F9" s="54">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="F9" s="57">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G9" s="5"/>
@@ -2333,46 +2358,50 @@
       <x:c r="J9" s="5"/>
     </x:row>
     <x:row r="10" spans="1:10" ht="16.399999999999999">
-      <x:c r="A10" s="77"/>
-      <x:c r="B10" s="67"/>
-      <x:c r="C10" s="52"/>
+      <x:c r="A10" s="92"/>
+      <x:c r="B10" s="71"/>
+      <x:c r="C10" s="75"/>
       <x:c r="D10" s="7" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="E10" s="7"/>
-      <x:c r="F10" s="56"/>
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E10" s="7" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F10" s="58"/>
       <x:c r="G10" s="5"/>
       <x:c r="H10" s="5"/>
       <x:c r="I10" s="5"/>
       <x:c r="J10" s="5"/>
     </x:row>
     <x:row r="11" spans="1:10" ht="16.399999999999999">
-      <x:c r="A11" s="77"/>
-      <x:c r="B11" s="67"/>
-      <x:c r="C11" s="53"/>
+      <x:c r="A11" s="92"/>
+      <x:c r="B11" s="71"/>
+      <x:c r="C11" s="76"/>
       <x:c r="D11" s="7" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="E11" s="7"/>
-      <x:c r="F11" s="55"/>
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E11" s="7" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="F11" s="77"/>
       <x:c r="G11" s="5"/>
       <x:c r="H11" s="5"/>
       <x:c r="I11" s="5"/>
       <x:c r="J11" s="5"/>
     </x:row>
     <x:row r="12" spans="1:10" ht="19" customHeight="1">
-      <x:c r="A12" s="77"/>
-      <x:c r="B12" s="67"/>
-      <x:c r="C12" s="51" t="s">
-        <x:v>25</x:v>
+      <x:c r="A12" s="92"/>
+      <x:c r="B12" s="71"/>
+      <x:c r="C12" s="74" t="s">
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D12" s="7" t="s">
-        <x:v>40</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E12" s="7" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="F12" s="54">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F12" s="57">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G12" s="5"/>
@@ -2381,28 +2410,28 @@
       <x:c r="J12" s="5"/>
     </x:row>
     <x:row r="13" spans="1:10" ht="17.5" customHeight="1">
-      <x:c r="A13" s="77"/>
-      <x:c r="B13" s="67"/>
-      <x:c r="C13" s="52"/>
+      <x:c r="A13" s="92"/>
+      <x:c r="B13" s="71"/>
+      <x:c r="C13" s="75"/>
       <x:c r="D13" s="7" t="s">
-        <x:v>43</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E13" s="7"/>
-      <x:c r="F13" s="55"/>
+      <x:c r="F13" s="77"/>
       <x:c r="G13" s="5"/>
       <x:c r="H13" s="5"/>
       <x:c r="I13" s="5"/>
       <x:c r="J13" s="5"/>
     </x:row>
     <x:row r="14" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A14" s="77"/>
-      <x:c r="B14" s="67"/>
-      <x:c r="C14" s="53"/>
+      <x:c r="A14" s="92"/>
+      <x:c r="B14" s="71"/>
+      <x:c r="C14" s="76"/>
       <x:c r="D14" s="7" t="s">
-        <x:v>66</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E14" s="7" t="s">
-        <x:v>55</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F14" s="14">
         <x:v>2</x:v>
@@ -2413,18 +2442,18 @@
       <x:c r="J14" s="5"/>
     </x:row>
     <x:row r="15" spans="1:10" ht="35.5" customHeight="1">
-      <x:c r="A15" s="77"/>
-      <x:c r="B15" s="67"/>
-      <x:c r="C15" s="71" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D15" s="61" t="s">
-        <x:v>96</x:v>
+      <x:c r="A15" s="92"/>
+      <x:c r="B15" s="71"/>
+      <x:c r="C15" s="61" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D15" s="82" t="s">
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E15" s="33" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="F15" s="54">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F15" s="57">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G15" s="5"/>
@@ -2433,42 +2462,42 @@
       <x:c r="J15" s="5"/>
     </x:row>
     <x:row r="16" spans="1:10" ht="32.75">
-      <x:c r="A16" s="77"/>
-      <x:c r="B16" s="67"/>
-      <x:c r="C16" s="72"/>
-      <x:c r="D16" s="62"/>
+      <x:c r="A16" s="92"/>
+      <x:c r="B16" s="71"/>
+      <x:c r="C16" s="62"/>
+      <x:c r="D16" s="83"/>
       <x:c r="E16" s="33" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="F16" s="56"/>
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="F16" s="58"/>
       <x:c r="G16" s="5"/>
       <x:c r="H16" s="5"/>
       <x:c r="I16" s="5"/>
       <x:c r="J16" s="5"/>
     </x:row>
     <x:row r="17" spans="1:10" ht="32.75">
-      <x:c r="A17" s="77"/>
-      <x:c r="B17" s="67"/>
-      <x:c r="C17" s="72"/>
-      <x:c r="D17" s="63"/>
+      <x:c r="A17" s="92"/>
+      <x:c r="B17" s="71"/>
+      <x:c r="C17" s="62"/>
+      <x:c r="D17" s="84"/>
       <x:c r="E17" s="33" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="F17" s="55"/>
+      <x:c r="F17" s="77"/>
       <x:c r="G17" s="5"/>
       <x:c r="H17" s="5"/>
       <x:c r="I17" s="5"/>
       <x:c r="J17" s="5"/>
     </x:row>
     <x:row r="18" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A18" s="77"/>
-      <x:c r="B18" s="67"/>
-      <x:c r="C18" s="72"/>
-      <x:c r="D18" s="59" t="s">
-        <x:v>80</x:v>
+      <x:c r="A18" s="92"/>
+      <x:c r="B18" s="71"/>
+      <x:c r="C18" s="62"/>
+      <x:c r="D18" s="80" t="s">
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E18" s="7" t="s">
-        <x:v>84</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F18" s="16">
         <x:v>2</x:v>
@@ -2479,12 +2508,12 @@
       <x:c r="J18" s="5"/>
     </x:row>
     <x:row r="19" spans="1:10" ht="16.5" customHeight="1">
-      <x:c r="A19" s="77"/>
-      <x:c r="B19" s="67"/>
-      <x:c r="C19" s="73"/>
-      <x:c r="D19" s="60"/>
+      <x:c r="A19" s="92"/>
+      <x:c r="B19" s="71"/>
+      <x:c r="C19" s="66"/>
+      <x:c r="D19" s="81"/>
       <x:c r="E19" s="20" t="s">
-        <x:v>91</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F19" s="21">
         <x:v>1</x:v>
@@ -2495,16 +2524,16 @@
       <x:c r="J19" s="5"/>
     </x:row>
     <x:row r="20" spans="1:10" ht="32.75" customHeight="1">
-      <x:c r="A20" s="77"/>
-      <x:c r="B20" s="67"/>
-      <x:c r="C20" s="69" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D20" s="84" t="s">
+      <x:c r="A20" s="92"/>
+      <x:c r="B20" s="71"/>
+      <x:c r="C20" s="87" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D20" s="42" t="s">
         <x:v>94</x:v>
       </x:c>
       <x:c r="E20" s="37" t="s">
-        <x:v>60</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F20" s="21">
         <x:v>1</x:v>
@@ -2515,14 +2544,14 @@
       <x:c r="J20" s="5"/>
     </x:row>
     <x:row r="21" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A21" s="77"/>
-      <x:c r="B21" s="67"/>
-      <x:c r="C21" s="70"/>
+      <x:c r="A21" s="92"/>
+      <x:c r="B21" s="71"/>
+      <x:c r="C21" s="88"/>
       <x:c r="D21" s="7" t="s">
-        <x:v>6</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E21" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F21" s="18">
         <x:v>2</x:v>
@@ -2533,13 +2562,13 @@
       <x:c r="J21" s="5"/>
     </x:row>
     <x:row r="22" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A22" s="77"/>
-      <x:c r="B22" s="67"/>
-      <x:c r="C22" s="52" t="s">
-        <x:v>26</x:v>
+      <x:c r="A22" s="92"/>
+      <x:c r="B22" s="71"/>
+      <x:c r="C22" s="75" t="s">
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D22" s="7" t="s">
-        <x:v>5</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E22" s="20"/>
       <x:c r="F22" s="18">
@@ -2551,14 +2580,14 @@
       <x:c r="J22" s="5"/>
     </x:row>
     <x:row r="23" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A23" s="77"/>
-      <x:c r="B23" s="68"/>
-      <x:c r="C23" s="53"/>
+      <x:c r="A23" s="92"/>
+      <x:c r="B23" s="70"/>
+      <x:c r="C23" s="76"/>
       <x:c r="D23" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E23" s="20" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F23" s="18">
         <x:v>1</x:v>
@@ -2569,15 +2598,15 @@
       <x:c r="J23" s="5"/>
     </x:row>
     <x:row r="24" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A24" s="77"/>
-      <x:c r="B24" s="64" t="s">
-        <x:v>18</x:v>
+      <x:c r="A24" s="92"/>
+      <x:c r="B24" s="85" t="s">
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C24" s="34" t="s">
-        <x:v>77</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D24" s="7" t="s">
-        <x:v>52</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E24" s="20"/>
       <x:c r="F24" s="25">
@@ -2589,13 +2618,13 @@
       <x:c r="J24" s="5"/>
     </x:row>
     <x:row r="25" spans="1:10" ht="16.399999999999999">
-      <x:c r="A25" s="77"/>
-      <x:c r="B25" s="64"/>
+      <x:c r="A25" s="92"/>
+      <x:c r="B25" s="85"/>
       <x:c r="C25" s="29" t="s">
-        <x:v>73</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E25" s="20"/>
       <x:c r="F25" s="18">
@@ -2607,13 +2636,13 @@
       <x:c r="J25" s="5"/>
     </x:row>
     <x:row r="26" spans="1:10" ht="16.399999999999999">
-      <x:c r="A26" s="77"/>
-      <x:c r="B26" s="64"/>
-      <x:c r="C26" s="57" t="s">
-        <x:v>75</x:v>
+      <x:c r="A26" s="92"/>
+      <x:c r="B26" s="85"/>
+      <x:c r="C26" s="78" t="s">
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D26" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E26" s="20"/>
       <x:c r="F26" s="18">
@@ -2625,11 +2654,11 @@
       <x:c r="J26" s="5"/>
     </x:row>
     <x:row r="27" spans="1:6" ht="16.5" customHeight="1">
-      <x:c r="A27" s="77"/>
-      <x:c r="B27" s="64"/>
-      <x:c r="C27" s="58"/>
+      <x:c r="A27" s="92"/>
+      <x:c r="B27" s="85"/>
+      <x:c r="C27" s="79"/>
       <x:c r="D27" s="15" t="s">
-        <x:v>89</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E27" s="17"/>
       <x:c r="F27" s="35">
@@ -2637,31 +2666,31 @@
       </x:c>
     </x:row>
     <x:row r="28" spans="1:6" ht="31.5" customHeight="1">
-      <x:c r="A28" s="77"/>
-      <x:c r="B28" s="65"/>
+      <x:c r="A28" s="92"/>
+      <x:c r="B28" s="86"/>
       <x:c r="C28" s="30" t="s">
-        <x:v>78</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D28" s="36" t="s">
-        <x:v>33</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E28" s="24" t="s">
-        <x:v>72</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F28" s="35">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:6" customHeight="1">
-      <x:c r="A29" s="77"/>
-      <x:c r="B29" s="75" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C29" s="74" t="s">
-        <x:v>28</x:v>
+      <x:c r="A29" s="92"/>
+      <x:c r="B29" s="90" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C29" s="89" t="s">
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D29" s="23" t="s">
-        <x:v>95</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E29" s="23"/>
       <x:c r="F29" s="35">
@@ -2669,11 +2698,11 @@
       </x:c>
     </x:row>
     <x:row r="30" spans="1:6" customHeight="1">
-      <x:c r="A30" s="77"/>
-      <x:c r="B30" s="75"/>
-      <x:c r="C30" s="74"/>
+      <x:c r="A30" s="92"/>
+      <x:c r="B30" s="90"/>
+      <x:c r="C30" s="89"/>
       <x:c r="D30" s="23" t="s">
-        <x:v>85</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E30" s="23"/>
       <x:c r="F30" s="35">
@@ -2681,43 +2710,43 @@
       </x:c>
     </x:row>
     <x:row r="31" spans="1:6" customHeight="1">
-      <x:c r="A31" s="77"/>
-      <x:c r="B31" s="75"/>
-      <x:c r="C31" s="74"/>
+      <x:c r="A31" s="92"/>
+      <x:c r="B31" s="90"/>
+      <x:c r="C31" s="89"/>
       <x:c r="D31" s="23" t="s">
-        <x:v>70</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E31" s="23" t="s">
-        <x:v>47</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F31" s="35">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:6" customHeight="1">
-      <x:c r="A32" s="77"/>
-      <x:c r="B32" s="75"/>
-      <x:c r="C32" s="74"/>
+      <x:c r="A32" s="92"/>
+      <x:c r="B32" s="90"/>
+      <x:c r="C32" s="89"/>
       <x:c r="D32" s="23" t="s">
-        <x:v>93</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="23" t="s">
-        <x:v>64</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F32" s="35">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:6" customHeight="1">
-      <x:c r="A33" s="77"/>
-      <x:c r="B33" s="75" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C33" s="74" t="s">
-        <x:v>20</x:v>
+      <x:c r="A33" s="92"/>
+      <x:c r="B33" s="90" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C33" s="89" t="s">
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D33" s="23" t="s">
-        <x:v>61</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E33" s="23"/>
       <x:c r="F33" s="35">
@@ -2725,25 +2754,25 @@
       </x:c>
     </x:row>
     <x:row r="34" spans="1:6" customHeight="1">
-      <x:c r="A34" s="77"/>
-      <x:c r="B34" s="75"/>
-      <x:c r="C34" s="74"/>
+      <x:c r="A34" s="92"/>
+      <x:c r="B34" s="90"/>
+      <x:c r="C34" s="89"/>
       <x:c r="D34" s="40" t="s">
-        <x:v>54</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E34" s="41" t="s">
-        <x:v>19</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F34" s="35">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:6" customHeight="1">
-      <x:c r="A35" s="77"/>
-      <x:c r="B35" s="75"/>
-      <x:c r="C35" s="74"/>
+      <x:c r="A35" s="92"/>
+      <x:c r="B35" s="90"/>
+      <x:c r="C35" s="89"/>
       <x:c r="D35" s="40" t="s">
-        <x:v>63</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E35" s="41"/>
       <x:c r="F35" s="35">
@@ -2751,25 +2780,25 @@
       </x:c>
     </x:row>
     <x:row r="36" spans="1:6" customHeight="1">
-      <x:c r="A36" s="77"/>
-      <x:c r="B36" s="75"/>
-      <x:c r="C36" s="74"/>
+      <x:c r="A36" s="92"/>
+      <x:c r="B36" s="90"/>
+      <x:c r="C36" s="89"/>
       <x:c r="D36" s="40" t="s">
-        <x:v>42</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E36" s="41" t="s">
-        <x:v>90</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F36" s="35">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:6" customHeight="1">
-      <x:c r="A37" s="77"/>
-      <x:c r="B37" s="75"/>
-      <x:c r="C37" s="74"/>
+      <x:c r="A37" s="92"/>
+      <x:c r="B37" s="90"/>
+      <x:c r="C37" s="89"/>
       <x:c r="D37" s="40" t="s">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E37" s="41"/>
       <x:c r="F37" s="35">
@@ -2819,8 +2848,8 @@
   <x:sheetPr codeName="Sheet4"/>
   <x:dimension ref="A1:Z29"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D18" activeCellId="0" sqref="D18:D18"/>
+    <x:sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="D3" activeCellId="0" sqref="D3:D4"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2834,14 +2863,14 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:26" ht="16.399999999999999" customHeight="1">
-      <x:c r="A1" s="47" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B1" s="47"/>
-      <x:c r="C1" s="47"/>
-      <x:c r="D1" s="47"/>
-      <x:c r="E1" s="47"/>
-      <x:c r="F1" s="47"/>
+      <x:c r="A1" s="55" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B1" s="55"/>
+      <x:c r="C1" s="55"/>
+      <x:c r="D1" s="55"/>
+      <x:c r="E1" s="55"/>
+      <x:c r="F1" s="55"/>
       <x:c r="G1" s="5"/>
       <x:c r="H1" s="5"/>
       <x:c r="I1" s="5"/>
@@ -2864,12 +2893,12 @@
       <x:c r="Z1" s="6"/>
     </x:row>
     <x:row r="2" spans="1:26" ht="16.399999999999999">
-      <x:c r="A2" s="48"/>
-      <x:c r="B2" s="48"/>
-      <x:c r="C2" s="48"/>
-      <x:c r="D2" s="48"/>
-      <x:c r="E2" s="48"/>
-      <x:c r="F2" s="48"/>
+      <x:c r="A2" s="56"/>
+      <x:c r="B2" s="56"/>
+      <x:c r="C2" s="56"/>
+      <x:c r="D2" s="56"/>
+      <x:c r="E2" s="56"/>
+      <x:c r="F2" s="56"/>
       <x:c r="G2" s="5"/>
       <x:c r="H2" s="5"/>
       <x:c r="I2" s="5"/>
@@ -2892,23 +2921,23 @@
       <x:c r="Z2" s="6"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="16.399999999999999">
-      <x:c r="A3" s="42" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="B3" s="44" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C3" s="44" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D3" s="44" t="s">
+      <x:c r="A3" s="50" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B3" s="52" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C3" s="52" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="E3" s="44" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="F3" s="44" t="s">
-        <x:v>23</x:v>
+      <x:c r="D3" s="52" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E3" s="52" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F3" s="52" t="s">
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G3" s="5"/>
       <x:c r="H3" s="5"/>
@@ -2916,29 +2945,29 @@
       <x:c r="J3" s="5"/>
     </x:row>
     <x:row r="4" spans="1:10" ht="16.399999999999999">
-      <x:c r="A4" s="43"/>
-      <x:c r="B4" s="45"/>
-      <x:c r="C4" s="45"/>
-      <x:c r="D4" s="45"/>
-      <x:c r="E4" s="45"/>
-      <x:c r="F4" s="46"/>
+      <x:c r="A4" s="51"/>
+      <x:c r="B4" s="53"/>
+      <x:c r="C4" s="53"/>
+      <x:c r="D4" s="53"/>
+      <x:c r="E4" s="53"/>
+      <x:c r="F4" s="54"/>
       <x:c r="G4" s="5"/>
       <x:c r="H4" s="5"/>
       <x:c r="I4" s="5"/>
       <x:c r="J4" s="5"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A5" s="66" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B5" s="85" t="s">
-        <x:v>18</x:v>
+      <x:c r="A5" s="69" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B5" s="67" t="s">
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C5" s="26" t="s">
-        <x:v>9</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D5" s="11" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E5" s="11"/>
       <x:c r="F5" s="19">
@@ -2950,16 +2979,16 @@
       <x:c r="J5" s="5"/>
     </x:row>
     <x:row r="6" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A6" s="67"/>
-      <x:c r="B6" s="85"/>
+      <x:c r="A6" s="71"/>
+      <x:c r="B6" s="67"/>
       <x:c r="C6" s="28" t="s">
-        <x:v>35</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D6" s="7" t="s">
-        <x:v>81</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E6" s="20" t="s">
-        <x:v>2</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F6" s="21">
         <x:v>1</x:v>
@@ -2970,16 +2999,16 @@
       <x:c r="J6" s="5"/>
     </x:row>
     <x:row r="7" spans="1:10" s="3" customFormat="1" ht="16.399999999999999">
-      <x:c r="A7" s="67"/>
-      <x:c r="B7" s="85"/>
+      <x:c r="A7" s="71"/>
+      <x:c r="B7" s="67"/>
       <x:c r="C7" s="27" t="s">
-        <x:v>32</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D7" s="7" t="s">
-        <x:v>82</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E7" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F7" s="13">
         <x:v>1</x:v>
@@ -2990,16 +3019,16 @@
       <x:c r="J7" s="5"/>
     </x:row>
     <x:row r="8" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A8" s="67"/>
-      <x:c r="B8" s="85"/>
+      <x:c r="A8" s="71"/>
+      <x:c r="B8" s="67"/>
       <x:c r="C8" s="31" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D8" s="7" t="s">
-        <x:v>100</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E8" s="7"/>
-      <x:c r="F8" s="54">
+      <x:c r="F8" s="57">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G8" s="5"/>
@@ -3008,96 +3037,94 @@
       <x:c r="J8" s="5"/>
     </x:row>
     <x:row r="9" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A9" s="67"/>
-      <x:c r="B9" s="66" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C9" s="71" t="s">
-        <x:v>13</x:v>
+      <x:c r="A9" s="71"/>
+      <x:c r="B9" s="69" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C9" s="61" t="s">
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D9" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E9" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F9" s="56"/>
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F9" s="58"/>
       <x:c r="G9" s="5"/>
       <x:c r="H9" s="5"/>
       <x:c r="I9" s="5"/>
       <x:c r="J9" s="5"/>
     </x:row>
     <x:row r="10" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A10" s="67"/>
-      <x:c r="B10" s="67"/>
-      <x:c r="C10" s="72"/>
+      <x:c r="A10" s="71"/>
+      <x:c r="B10" s="71"/>
+      <x:c r="C10" s="62"/>
       <x:c r="D10" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E10" s="7"/>
-      <x:c r="F10" s="56"/>
+      <x:c r="F10" s="58"/>
       <x:c r="G10" s="5"/>
       <x:c r="H10" s="5"/>
       <x:c r="I10" s="5"/>
       <x:c r="J10" s="5"/>
     </x:row>
     <x:row r="11" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A11" s="67"/>
-      <x:c r="B11" s="67"/>
-      <x:c r="C11" s="73"/>
+      <x:c r="A11" s="71"/>
+      <x:c r="B11" s="71"/>
+      <x:c r="C11" s="66"/>
       <x:c r="D11" s="7" t="s">
-        <x:v>99</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="F11" s="56"/>
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F11" s="58"/>
       <x:c r="G11" s="5"/>
       <x:c r="H11" s="5"/>
       <x:c r="I11" s="5"/>
       <x:c r="J11" s="5"/>
     </x:row>
     <x:row r="12" spans="1:10" ht="16.399999999999999">
-      <x:c r="A12" s="67"/>
-      <x:c r="B12" s="67"/>
-      <x:c r="C12" s="71" t="s">
-        <x:v>12</x:v>
+      <x:c r="A12" s="71"/>
+      <x:c r="B12" s="71"/>
+      <x:c r="C12" s="61" t="s">
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D12" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E12" s="8"/>
-      <x:c r="F12" s="56"/>
+      <x:c r="F12" s="58"/>
       <x:c r="G12" s="5"/>
       <x:c r="H12" s="5"/>
       <x:c r="I12" s="5"/>
       <x:c r="J12" s="5"/>
     </x:row>
     <x:row r="13" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A13" s="67"/>
-      <x:c r="B13" s="67"/>
-      <x:c r="C13" s="72"/>
+      <x:c r="A13" s="71"/>
+      <x:c r="B13" s="71"/>
+      <x:c r="C13" s="62"/>
       <x:c r="D13" s="7" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="E13" s="22" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="F13" s="56"/>
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E13" s="22"/>
+      <x:c r="F13" s="58"/>
       <x:c r="G13" s="5"/>
       <x:c r="H13" s="5"/>
       <x:c r="I13" s="5"/>
       <x:c r="J13" s="5"/>
     </x:row>
     <x:row r="14" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A14" s="67"/>
-      <x:c r="B14" s="67"/>
-      <x:c r="C14" s="72"/>
-      <x:c r="D14" s="86" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="E14" s="87"/>
-      <x:c r="F14" s="66">
+      <x:c r="A14" s="71"/>
+      <x:c r="B14" s="71"/>
+      <x:c r="C14" s="62"/>
+      <x:c r="D14" s="59" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E14" s="68"/>
+      <x:c r="F14" s="69">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G14" s="5"/>
@@ -3106,26 +3133,26 @@
       <x:c r="J14" s="5"/>
     </x:row>
     <x:row r="15" spans="1:10" ht="16.399999999999999">
-      <x:c r="A15" s="67"/>
-      <x:c r="B15" s="67"/>
-      <x:c r="C15" s="72"/>
-      <x:c r="D15" s="88"/>
-      <x:c r="E15" s="87"/>
-      <x:c r="F15" s="68"/>
+      <x:c r="A15" s="71"/>
+      <x:c r="B15" s="71"/>
+      <x:c r="C15" s="62"/>
+      <x:c r="D15" s="60"/>
+      <x:c r="E15" s="68"/>
+      <x:c r="F15" s="70"/>
       <x:c r="G15" s="5"/>
       <x:c r="H15" s="5"/>
       <x:c r="I15" s="5"/>
       <x:c r="J15" s="5"/>
     </x:row>
     <x:row r="16" spans="1:10" ht="16.399999999999999">
-      <x:c r="A16" s="67"/>
-      <x:c r="B16" s="67"/>
-      <x:c r="C16" s="72"/>
+      <x:c r="A16" s="71"/>
+      <x:c r="B16" s="71"/>
+      <x:c r="C16" s="62"/>
       <x:c r="D16" s="20" t="s">
-        <x:v>102</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E16" s="40"/>
-      <x:c r="F16" s="89">
+      <x:c r="F16" s="43">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G16" s="5"/>
@@ -3134,11 +3161,11 @@
       <x:c r="J16" s="5"/>
     </x:row>
     <x:row r="17" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A17" s="67"/>
-      <x:c r="B17" s="67"/>
-      <x:c r="C17" s="72"/>
+      <x:c r="A17" s="71"/>
+      <x:c r="B17" s="71"/>
+      <x:c r="C17" s="62"/>
       <x:c r="D17" s="20" t="s">
-        <x:v>39</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E17" s="40"/>
       <x:c r="F17" s="21">
@@ -3150,16 +3177,16 @@
       <x:c r="J17" s="5"/>
     </x:row>
     <x:row r="18" spans="1:10" ht="16.399999999999999">
-      <x:c r="A18" s="67"/>
-      <x:c r="B18" s="67"/>
-      <x:c r="C18" s="71" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D18" s="90" t="s">
-        <x:v>53</x:v>
+      <x:c r="A18" s="71"/>
+      <x:c r="B18" s="71"/>
+      <x:c r="C18" s="61" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D18" s="44" t="s">
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E18" s="40"/>
-      <x:c r="F18" s="89">
+      <x:c r="F18" s="43">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G18" s="5"/>
@@ -3168,14 +3195,14 @@
       <x:c r="J18" s="5"/>
     </x:row>
     <x:row r="19" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A19" s="67"/>
-      <x:c r="B19" s="67"/>
-      <x:c r="C19" s="72"/>
-      <x:c r="D19" s="78" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="E19" s="87"/>
-      <x:c r="F19" s="66">
+      <x:c r="A19" s="71"/>
+      <x:c r="B19" s="71"/>
+      <x:c r="C19" s="62"/>
+      <x:c r="D19" s="63" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E19" s="68"/>
+      <x:c r="F19" s="69">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G19" s="5"/>
@@ -3184,49 +3211,49 @@
       <x:c r="J19" s="5"/>
     </x:row>
     <x:row r="20" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A20" s="67"/>
-      <x:c r="B20" s="67"/>
-      <x:c r="C20" s="72"/>
-      <x:c r="D20" s="79"/>
-      <x:c r="E20" s="87"/>
-      <x:c r="F20" s="67"/>
+      <x:c r="A20" s="71"/>
+      <x:c r="B20" s="71"/>
+      <x:c r="C20" s="62"/>
+      <x:c r="D20" s="64"/>
+      <x:c r="E20" s="68"/>
+      <x:c r="F20" s="71"/>
       <x:c r="G20" s="5"/>
       <x:c r="H20" s="5"/>
       <x:c r="I20" s="5"/>
       <x:c r="J20" s="5"/>
     </x:row>
     <x:row r="21" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A21" s="67"/>
-      <x:c r="B21" s="67"/>
-      <x:c r="C21" s="72"/>
-      <x:c r="D21" s="79"/>
-      <x:c r="E21" s="87"/>
-      <x:c r="F21" s="67"/>
+      <x:c r="A21" s="71"/>
+      <x:c r="B21" s="71"/>
+      <x:c r="C21" s="62"/>
+      <x:c r="D21" s="64"/>
+      <x:c r="E21" s="68"/>
+      <x:c r="F21" s="71"/>
       <x:c r="G21" s="5"/>
       <x:c r="H21" s="5"/>
       <x:c r="I21" s="5"/>
       <x:c r="J21" s="5"/>
     </x:row>
     <x:row r="22" spans="1:10" ht="16.399999999999999">
-      <x:c r="A22" s="67"/>
-      <x:c r="B22" s="67"/>
-      <x:c r="C22" s="73"/>
-      <x:c r="D22" s="80"/>
-      <x:c r="E22" s="87"/>
-      <x:c r="F22" s="67"/>
+      <x:c r="A22" s="71"/>
+      <x:c r="B22" s="71"/>
+      <x:c r="C22" s="66"/>
+      <x:c r="D22" s="65"/>
+      <x:c r="E22" s="68"/>
+      <x:c r="F22" s="71"/>
       <x:c r="G22" s="5"/>
       <x:c r="H22" s="5"/>
       <x:c r="I22" s="5"/>
       <x:c r="J22" s="5"/>
     </x:row>
     <x:row r="23" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A23" s="67"/>
-      <x:c r="B23" s="67"/>
-      <x:c r="C23" s="81" t="s">
-        <x:v>27</x:v>
+      <x:c r="A23" s="71"/>
+      <x:c r="B23" s="71"/>
+      <x:c r="C23" s="93" t="s">
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D23" s="23" t="s">
-        <x:v>59</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E23" s="40"/>
       <x:c r="F23" s="21">
@@ -3238,11 +3265,11 @@
       <x:c r="J23" s="5"/>
     </x:row>
     <x:row r="24" spans="1:10" ht="16.399999999999999">
-      <x:c r="A24" s="67"/>
-      <x:c r="B24" s="67"/>
-      <x:c r="C24" s="82"/>
+      <x:c r="A24" s="71"/>
+      <x:c r="B24" s="71"/>
+      <x:c r="C24" s="94"/>
       <x:c r="D24" s="23" t="s">
-        <x:v>104</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E24" s="23"/>
       <x:c r="F24" s="32">
@@ -3254,16 +3281,16 @@
       <x:c r="J24" s="5"/>
     </x:row>
     <x:row r="25" spans="1:10" ht="31.5" customHeight="1">
-      <x:c r="A25" s="68"/>
-      <x:c r="B25" s="68"/>
-      <x:c r="C25" s="83"/>
-      <x:c r="D25" s="91" t="s">
-        <x:v>0</x:v>
+      <x:c r="A25" s="70"/>
+      <x:c r="B25" s="70"/>
+      <x:c r="C25" s="95"/>
+      <x:c r="D25" s="45" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="24" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="F25" s="92">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F25" s="46">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G25" s="5"/>
@@ -3276,7 +3303,7 @@
       <x:c r="B26" s="39"/>
       <x:c r="C26" s="10"/>
       <x:c r="E26" s="10"/>
-      <x:c r="F26" s="93"/>
+      <x:c r="F26" s="47"/>
       <x:c r="G26" s="5"/>
       <x:c r="H26" s="5"/>
       <x:c r="I26" s="5"/>
@@ -3286,7 +3313,7 @@
       <x:c r="A27" s="39"/>
       <x:c r="B27" s="39"/>
       <x:c r="E27" s="10"/>
-      <x:c r="F27" s="93"/>
+      <x:c r="F27" s="47"/>
       <x:c r="G27" s="5"/>
       <x:c r="H27" s="5"/>
       <x:c r="I27" s="5"/>
@@ -3295,8 +3322,8 @@
     <x:row r="28" spans="1:6" customHeight="1">
       <x:c r="A28" s="10"/>
       <x:c r="B28" s="10"/>
-      <x:c r="E28" s="94"/>
-      <x:c r="F28" s="95"/>
+      <x:c r="E28" s="48"/>
+      <x:c r="F28" s="49"/>
     </x:row>
     <x:row r="29" spans="5:5" customHeight="1">
       <x:c r="E29" s="10"/>

--- a/java_yme/요구사항명세서/요구사항 명세서_풋살화쇼핑몰.xlsx
+++ b/java_yme/요구사항명세서/요구사항 명세서_풋살화쇼핑몰.xlsx
@@ -22,68 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="106">
   <x:si>
-    <x:t>카카오 주소 api적용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아임포트 결제 api적용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등급 변경은 SUPER ADMIN만 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입, 아이디/비밀번호 찾기 버튼 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃 버튼 클릭시 메인페이지 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입 완료 시, 로그인 화면으로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>옵션(사이즈)는 한번에 한 개씩 설정가능함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계속 쇼핑하기 클릭시 메인페이지 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수량변경 -&gt; 상품의 사이즈별 재고 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">계속 쇼핑하기/ 주문하기 버튼 출력 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문배송/조회, 장바구니 대신에 관리자메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OOO님 안녕하세요 ! 라고 문구 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디, 비밀번호 입력창, 로그인 버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>풋살화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브랜드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색바</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품상세 -&gt; 등록한 상품의 상세내용 확인 및 수정
-                -&gt; 상품 수정시 이미지, 상품이름, 상품정보 등 수정</x:t>
+    <x:t>휴대폰번호 SMS 인증 api(coolSMS) 적용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디, 비밀번호, 비밀번호 확인, 이름, 우편번호, 주소, 상세주소</x:t>
   </x:si>
   <x:si>
     <x:t>장바구니에서 체크된 상품들의 목록을 보여주고, 총결제 금액 보여줌</x:t>
@@ -95,157 +37,6 @@
   <x:si>
     <x:t>장바구니 기능 회원만 가능함으로
  비회원이 클릭시 로그인창으로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필요 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>취소내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스(메뉴)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품상세메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품상세</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자전용메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상단메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최상단메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HOME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1:1문의관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쇼핑몰 로고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문/배송조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체크박스 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우선순위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객센터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름변경 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>클릭시 메인페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모든 1:1 게시글 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문상태는 &lt;주문취소&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의류상품들만 나오게끔 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>풋살화상품들 나오게끔 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보수정 -&gt; 리스트에서 아이디를 클릭하면 수정페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름을 개명할 경우 대비해서 관리자가 변경 가능하게끔 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자는 마이페이지에 주문내역 조회시
-배송 상태 조회 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제 완료 페이지에는 계속 쇼핑하기, 주문내역 확인하기 버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배송지는 주문자 동일 / 직접 입력으로 선택 가능하게 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈퇴 즉시 주문내역,장바구니내역, 게시판작성 내역 모두 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품등록 -&gt; 상품명, 브랜드, 사이즈, 상품가격, 상품이미지 첨부, 상품정보 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품검색 -&gt; 상품명, 브랜드, 사이즈에 해당하는 키워드 입력 시, 해당 상품 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>각각 브랜드 이름을 클릭하면 풋살화/의류 상관없이 해당 브랜드 상품 나오게끔 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문관리 -&gt; 주문일, 주문번호, 주문자, 결제방법, 주문가격, 주문상태 리스트 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문검색 -&gt; 주문번호, 주문자 id에 해당하는 키워드 입력시 해당 주문 리스트 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전체문의조회 -&gt; 문의일련번호, 문의일자, 문의유형, 제목, 작성자, 답변 여부대한 리스트 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빈 단어 검색시 단어를 입력하라고 팝업 메시지
-검색단어는 상품명으로 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체크박스로 전체 선택 및 부분 선택 가능하며 
-체크된 상품들의 금액 합계출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 배송비 2,500원이며 합계금액 10만원 이상일시 
-배송비 무료 적용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설정한 옵션 상품의 수량 변경(버튼 클릭시 1개씩 증가하거나 1개씩 감소)</x:t>
   </x:si>
   <x:si>
     <x:t>문의답변 -&gt; 문의번호에 해당하는 제목 클릭시, 사용자가 문의한 정보 확인
@@ -254,53 +45,226 @@
                 -&gt; 사용자가 마이페이지의 문의 내역에서 답변 여부 확인 가능</x:t>
   </x:si>
   <x:si>
+    <x:t>상품상세 -&gt; 등록한 상품의 상세내용 확인 및 수정
+                -&gt; 상품 수정시 이미지, 상품이름, 상품정보 등 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제 정보는 카카오페이/신용카드/ 실시간계좌이체 / 무통장 입금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배송지는 주문자 동일 / 직접 입력으로 선택 가능하게 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자는 마이페이지에 주문내역 조회시
+배송 상태 조회 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원정보수정 -&gt; 리스트에서 아이디를 클릭하면 수정페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제 완료 페이지에는 계속 쇼핑하기, 주문내역 확인하기 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름을 개명할 경우 대비해서 관리자가 변경 가능하게끔 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈퇴 즉시 주문내역,장바구니내역, 게시판작성 내역 모두 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전체문의조회 -&gt; 문의일련번호, 문의일자, 문의유형, 제목, 작성자, 답변 여부대한 리스트 출력</x:t>
+  </x:si>
+  <x:si>
     <x:t>주문변경 -&gt; 주문 번호 클릭 시, 해당 주문에 대한 상세내역 페이지로 이동하며, 
                 재고량 부족일 경우 재고량부족, 주문확인 버튼 시 배송시작</x:t>
   </x:si>
   <x:si>
+    <x:t>빈 단어 검색시 단어를 입력하라고 팝업 메시지
+검색단어는 상품명으로 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 배송비 2,500원이며 합계금액 10만원 이상일시 
+배송비 무료 적용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체크박스로 전체 선택 및 부분 선택 가능하며 
+체크된 상품들의 금액 합계출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설정한 옵션 상품의 수량 변경(버튼 클릭시 1개씩 증가하거나 1개씩 감소)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품검색 -&gt; 상품명, 브랜드, 사이즈에 해당하는 키워드 입력 시, 해당 상품 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제하기 버튼 누르면 결제화면창이 나오면서 결제 완료시 결제완료 페이지로 넘어감</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품등록 -&gt; 상품명, 브랜드, 사이즈, 상품가격, 상품이미지 첨부, 상품정보 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문검색 -&gt; 주문번호, 주문자 id에 해당하는 키워드 입력시 해당 주문 리스트 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>각각 브랜드 이름을 클릭하면 풋살화/의류 상관없이 해당 브랜드 상품 나오게끔 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문관리 -&gt; 주문일, 주문번호, 주문자, 결제방법, 주문가격, 주문상태 리스트 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원관리, 상품관리, 1:1문의관리, 주문관리로 구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원탈퇴(회원 탈퇴 필수동의 체크/ 비밀번호 재확인)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃 -&gt; 로그인, 마이페이지 -&gt; 회원가입으로 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마우스 가져다 되면 아래로 브랜드명이 나오게끔 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니에 담고 페이지 이동 없이 계속 페이지 유지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카카오 주소 api적용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의류상품들만 나오게끔 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모든 1:1 게시글 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>클릭시 메인페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>풋살화상품들 나오게끔 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문상태는 &lt;주문취소&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아임포트 결제 api적용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HOME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쇼핑몰 로고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문/배송조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최상단메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체크박스 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품상세메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스(메뉴)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>취소내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필요 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자전용메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품상세</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상단메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1:1문의관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객센터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름변경 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우선순위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1:1문의 작성</x:t>
+  </x:si>
+  <x:si>
     <x:t>로그아웃 -&gt; 로그인</x:t>
   </x:si>
   <x:si>
-    <x:t>1:1문의 작성</x:t>
+    <x:t>요구사항(사용자)</x:t>
   </x:si>
   <x:si>
     <x:t>로그인(관리자계정)</x:t>
   </x:si>
   <x:si>
-    <x:t>요구사항(사용자)</x:t>
+    <x:t>로그아웃(관리자계정)</x:t>
   </x:si>
   <x:si>
     <x:t>검색창과 돋보기 모양</x:t>
   </x:si>
   <x:si>
-    <x:t>로그아웃(관리자계정)</x:t>
-  </x:si>
-  <x:si>
     <x:t>요구사항(관리자)</x:t>
   </x:si>
   <x:si>
-    <x:t>마우스 가져다 되면 아래로 브랜드명이 나오게끔 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃 -&gt; 로그인, 마이페이지 -&gt; 회원가입으로 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원탈퇴(회원 탈퇴 필수동의 체크/ 비밀번호 재확인)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니에 담고 페이지 이동 없이 계속 페이지 유지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원관리, 상품관리, 1:1문의관리, 주문관리로 구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제 정보는 카카오페이/신용카드/ 실시간계좌이체 / 무통장 입금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>휴대폰번호 SMS 인증 api 적용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문하기 클릭시 결제 페이지로 이동</x:t>
+    <x:t xml:space="preserve">상품이미지, 상품이름, 상품정보 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문내역 -&gt; 주문번호로 검색 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니 담기, 바로 결제하기 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수량확인 -&gt; 상품의 재고 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름,아이디,생년월일, 등급 출력</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
@@ -308,49 +272,85 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">상품이미지, 상품이름, 상품정보 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>수량확인 -&gt; 상품의 재고 확인</x:t>
+    <x:t>주문하기 클릭시 결제 페이지로 이동</x:t>
   </x:si>
   <x:si>
     <x:t>관리자 페이지의 시작화면으로 이동</x:t>
   </x:si>
   <x:si>
-    <x:t>주문내역 -&gt; 주문번호로 검색 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름,아이디,생년월일, 등급 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니 담기, 바로 결제하기 버튼</x:t>
+    <x:t>이메일, 휴대폰번호(숫자만), 생년월일(숫자만)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개인정보수정 - &gt; 아이디, 이름 제외 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 성공시 회원가입 메뉴가 마이페이지로 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원검색 -&gt; 전체,아이디,이름,생년월일로 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 성공시 로그인 메뉴가 로그아웃으로 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1:1 문의내역(로그인한 유저가 작성한것만 따로)</x:t>
   </x:si>
   <x:si>
     <x:t>수량이 변경될때마다 합계 금액도 변경되게 구현</x:t>
   </x:si>
   <x:si>
-    <x:t>로그인 성공시 로그인 메뉴가 로그아웃으로 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1:1 문의내역(로그인한 유저가 작성한것만 따로)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일, 휴대폰번호(숫자만), 생년월일(숫자만)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개인정보수정 - &gt; 아이디, 이름 제외 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 성공시 회원가입 메뉴가 마이페이지로 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원검색 -&gt; 전체,아이디,이름,생년월일로 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제하기 버튼 누르면 결제화면창이 나오면서 결제 완료시 결제완료 페이지로 넘어감</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디, 비밀번호, 비밀번호 확인, 이름, 우편번호, 주소, 상세주소</x:t>
+    <x:t>의류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색바</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>풋살화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브랜드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수량변경 -&gt; 상품의 사이즈별 재고 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OOO님 안녕하세요 ! 라고 문구 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디, 비밀번호 입력창, 로그인 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃 버튼 클릭시 메인페이지 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">계속 쇼핑하기/ 주문하기 버튼 출력 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>계속 쇼핑하기 클릭시 메인페이지 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>옵션(사이즈)는 한번에 한 개씩 설정가능함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등급 변경은 SUPER ADMIN만 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입 완료 시, 로그인 화면으로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입, 아이디/비밀번호 찾기 버튼 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문배송/조회, 장바구니 대신에 관리자메뉴</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -800,23 +800,23 @@
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color rgb="ff000000"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right style="thin">
         <x:color indexed="64"/>
       </x:right>
-      <x:top style="thin">
+      <x:top>
         <x:color rgb="ff000000"/>
       </x:top>
       <x:bottom>
-        <x:color indexed="64"/>
+        <x:color rgb="ff000000"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color indexed="64"/>
+        <x:color rgb="ff000000"/>
       </x:left>
-      <x:right>
+      <x:right style="thin">
         <x:color indexed="64"/>
       </x:right>
       <x:top style="thin">
@@ -828,13 +828,13 @@
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color indexed="64"/>
+        <x:color rgb="ff000000"/>
       </x:left>
-      <x:right>
+      <x:right style="thin">
         <x:color indexed="64"/>
       </x:right>
       <x:top>
-        <x:color indexed="64"/>
+        <x:color rgb="ff000000"/>
       </x:top>
       <x:bottom style="thin">
         <x:color rgb="ff000000"/>
@@ -847,25 +847,25 @@
       <x:right style="thin">
         <x:color indexed="64"/>
       </x:right>
-      <x:top>
+      <x:top style="thin">
         <x:color rgb="ff000000"/>
       </x:top>
       <x:bottom>
-        <x:color rgb="ff000000"/>
+        <x:color indexed="64"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color rgb="ff000000"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right style="thin">
-        <x:color indexed="64"/>
+        <x:color rgb="ff000000"/>
       </x:right>
-      <x:top>
+      <x:top style="thin">
         <x:color rgb="ff000000"/>
       </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
+      <x:bottom>
+        <x:color indexed="64"/>
       </x:bottom>
     </x:border>
     <x:border>
@@ -873,10 +873,10 @@
         <x:color indexed="64"/>
       </x:left>
       <x:right style="thin">
-        <x:color indexed="64"/>
+        <x:color rgb="ff000000"/>
       </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
+      <x:top>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom>
         <x:color indexed="64"/>
@@ -889,8 +889,22 @@
       <x:right style="thin">
         <x:color rgb="ff000000"/>
       </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
       <x:top style="thin">
-        <x:color rgb="ff000000"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom>
         <x:color indexed="64"/>
@@ -900,11 +914,11 @@
       <x:left style="thin">
         <x:color indexed="64"/>
       </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
+      <x:right>
+        <x:color indexed="64"/>
       </x:right>
-      <x:top>
-        <x:color indexed="64"/>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
       </x:top>
       <x:bottom>
         <x:color indexed="64"/>
@@ -914,28 +928,14 @@
       <x:left style="thin">
         <x:color indexed="64"/>
       </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
+      <x:right>
+        <x:color indexed="64"/>
       </x:right>
       <x:top>
         <x:color indexed="64"/>
       </x:top>
       <x:bottom style="thin">
         <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
       </x:bottom>
     </x:border>
   </x:borders>
@@ -1326,6 +1326,120 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
@@ -1341,39 +1455,86 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1391,167 +1552,6 @@
     </mc:AlternateContent>
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
@@ -2152,7 +2152,7 @@
   <x:dimension ref="A1:Z38"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D40" activeCellId="0" sqref="D40:D40"/>
+      <x:selection activeCell="E12" activeCellId="0" sqref="E12:E12"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15.75" customHeight="1"/>
@@ -2167,7 +2167,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:26" ht="16.399999999999999" customHeight="1">
       <x:c r="A1" s="55" t="s">
-        <x:v>78</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B1" s="55"/>
       <x:c r="C1" s="55"/>
@@ -2225,22 +2225,22 @@
     </x:row>
     <x:row r="3" spans="1:10" ht="16.399999999999999">
       <x:c r="A3" s="50" t="s">
-        <x:v>15</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B3" s="52" t="s">
-        <x:v>28</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C3" s="52" t="s">
-        <x:v>24</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D3" s="52" t="s">
-        <x:v>31</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E3" s="52" t="s">
-        <x:v>13</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F3" s="52" t="s">
-        <x:v>47</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G3" s="5"/>
       <x:c r="H3" s="5"/>
@@ -2260,17 +2260,17 @@
       <x:c r="J4" s="5"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A5" s="91" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="B5" s="69" t="s">
-        <x:v>36</x:v>
+      <x:c r="A5" s="84" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B5" s="74" t="s">
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C5" s="26" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D5" s="7" t="s">
-        <x:v>52</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E5" s="11"/>
       <x:c r="F5" s="12">
@@ -2282,18 +2282,18 @@
       <x:c r="J5" s="5"/>
     </x:row>
     <x:row r="6" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A6" s="92"/>
-      <x:c r="B6" s="71"/>
-      <x:c r="C6" s="72" t="s">
-        <x:v>19</x:v>
+      <x:c r="A6" s="85"/>
+      <x:c r="B6" s="75"/>
+      <x:c r="C6" s="57" t="s">
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D6" s="7" t="s">
-        <x:v>12</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E6" s="7" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="F6" s="57">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="F6" s="62">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G6" s="5"/>
@@ -2302,32 +2302,32 @@
       <x:c r="J6" s="5"/>
     </x:row>
     <x:row r="7" spans="1:10" ht="16.399999999999999">
-      <x:c r="A7" s="92"/>
-      <x:c r="B7" s="71"/>
-      <x:c r="C7" s="73"/>
+      <x:c r="A7" s="85"/>
+      <x:c r="B7" s="75"/>
+      <x:c r="C7" s="58"/>
       <x:c r="D7" s="7" t="s">
-        <x:v>3</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E7" s="7" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F7" s="77"/>
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="F7" s="63"/>
       <x:c r="G7" s="5"/>
       <x:c r="H7" s="5"/>
       <x:c r="I7" s="5"/>
       <x:c r="J7" s="5"/>
     </x:row>
     <x:row r="8" spans="1:10" s="2" customFormat="1" ht="16.399999999999999">
-      <x:c r="A8" s="92"/>
-      <x:c r="B8" s="71"/>
+      <x:c r="A8" s="85"/>
+      <x:c r="B8" s="75"/>
       <x:c r="C8" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D8" s="7" t="s">
-        <x:v>4</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E8" s="7" t="s">
-        <x:v>83</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F8" s="13">
         <x:v>1</x:v>
@@ -2338,18 +2338,18 @@
       <x:c r="J8" s="5"/>
     </x:row>
     <x:row r="9" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A9" s="92"/>
-      <x:c r="B9" s="71"/>
-      <x:c r="C9" s="74" t="s">
+      <x:c r="A9" s="85"/>
+      <x:c r="B9" s="75"/>
+      <x:c r="C9" s="59" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="D9" s="7" t="s">
-        <x:v>105</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E9" s="7" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="F9" s="57">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="F9" s="62">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G9" s="5"/>
@@ -2358,50 +2358,50 @@
       <x:c r="J9" s="5"/>
     </x:row>
     <x:row r="10" spans="1:10" ht="16.399999999999999">
-      <x:c r="A10" s="92"/>
-      <x:c r="B10" s="71"/>
-      <x:c r="C10" s="75"/>
+      <x:c r="A10" s="85"/>
+      <x:c r="B10" s="75"/>
+      <x:c r="C10" s="60"/>
       <x:c r="D10" s="7" t="s">
-        <x:v>100</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E10" s="7" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F10" s="58"/>
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F10" s="64"/>
       <x:c r="G10" s="5"/>
       <x:c r="H10" s="5"/>
       <x:c r="I10" s="5"/>
       <x:c r="J10" s="5"/>
     </x:row>
     <x:row r="11" spans="1:10" ht="16.399999999999999">
-      <x:c r="A11" s="92"/>
-      <x:c r="B11" s="71"/>
-      <x:c r="C11" s="76"/>
+      <x:c r="A11" s="85"/>
+      <x:c r="B11" s="75"/>
+      <x:c r="C11" s="61"/>
       <x:c r="D11" s="7" t="s">
-        <x:v>5</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E11" s="7" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="F11" s="77"/>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F11" s="63"/>
       <x:c r="G11" s="5"/>
       <x:c r="H11" s="5"/>
       <x:c r="I11" s="5"/>
       <x:c r="J11" s="5"/>
     </x:row>
     <x:row r="12" spans="1:10" ht="19" customHeight="1">
-      <x:c r="A12" s="92"/>
-      <x:c r="B12" s="71"/>
-      <x:c r="C12" s="74" t="s">
-        <x:v>48</x:v>
+      <x:c r="A12" s="85"/>
+      <x:c r="B12" s="75"/>
+      <x:c r="C12" s="59" t="s">
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D12" s="7" t="s">
-        <x:v>101</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E12" s="7" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F12" s="57">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F12" s="62">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G12" s="5"/>
@@ -2410,28 +2410,28 @@
       <x:c r="J12" s="5"/>
     </x:row>
     <x:row r="13" spans="1:10" ht="17.5" customHeight="1">
-      <x:c r="A13" s="92"/>
-      <x:c r="B13" s="71"/>
-      <x:c r="C13" s="75"/>
+      <x:c r="A13" s="85"/>
+      <x:c r="B13" s="75"/>
+      <x:c r="C13" s="60"/>
       <x:c r="D13" s="7" t="s">
-        <x:v>99</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E13" s="7"/>
-      <x:c r="F13" s="77"/>
+      <x:c r="F13" s="63"/>
       <x:c r="G13" s="5"/>
       <x:c r="H13" s="5"/>
       <x:c r="I13" s="5"/>
       <x:c r="J13" s="5"/>
     </x:row>
     <x:row r="14" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A14" s="92"/>
-      <x:c r="B14" s="71"/>
-      <x:c r="C14" s="76"/>
+      <x:c r="A14" s="85"/>
+      <x:c r="B14" s="75"/>
+      <x:c r="C14" s="61"/>
       <x:c r="D14" s="7" t="s">
-        <x:v>84</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E14" s="7" t="s">
-        <x:v>62</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F14" s="14">
         <x:v>2</x:v>
@@ -2442,18 +2442,18 @@
       <x:c r="J14" s="5"/>
     </x:row>
     <x:row r="15" spans="1:10" ht="35.5" customHeight="1">
-      <x:c r="A15" s="92"/>
-      <x:c r="B15" s="71"/>
-      <x:c r="C15" s="61" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D15" s="82" t="s">
-        <x:v>90</x:v>
+      <x:c r="A15" s="85"/>
+      <x:c r="B15" s="75"/>
+      <x:c r="C15" s="79" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D15" s="69" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E15" s="33" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F15" s="57">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F15" s="62">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G15" s="5"/>
@@ -2462,42 +2462,42 @@
       <x:c r="J15" s="5"/>
     </x:row>
     <x:row r="16" spans="1:10" ht="32.75">
-      <x:c r="A16" s="92"/>
-      <x:c r="B16" s="71"/>
-      <x:c r="C16" s="62"/>
-      <x:c r="D16" s="83"/>
+      <x:c r="A16" s="85"/>
+      <x:c r="B16" s="75"/>
+      <x:c r="C16" s="80"/>
+      <x:c r="D16" s="70"/>
       <x:c r="E16" s="33" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="F16" s="58"/>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F16" s="64"/>
       <x:c r="G16" s="5"/>
       <x:c r="H16" s="5"/>
       <x:c r="I16" s="5"/>
       <x:c r="J16" s="5"/>
     </x:row>
     <x:row r="17" spans="1:10" ht="32.75">
-      <x:c r="A17" s="92"/>
-      <x:c r="B17" s="71"/>
-      <x:c r="C17" s="62"/>
-      <x:c r="D17" s="84"/>
+      <x:c r="A17" s="85"/>
+      <x:c r="B17" s="75"/>
+      <x:c r="C17" s="80"/>
+      <x:c r="D17" s="71"/>
       <x:c r="E17" s="33" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="F17" s="77"/>
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F17" s="63"/>
       <x:c r="G17" s="5"/>
       <x:c r="H17" s="5"/>
       <x:c r="I17" s="5"/>
       <x:c r="J17" s="5"/>
     </x:row>
     <x:row r="18" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A18" s="92"/>
-      <x:c r="B18" s="71"/>
-      <x:c r="C18" s="62"/>
-      <x:c r="D18" s="80" t="s">
-        <x:v>9</x:v>
+      <x:c r="A18" s="85"/>
+      <x:c r="B18" s="75"/>
+      <x:c r="C18" s="80"/>
+      <x:c r="D18" s="67" t="s">
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E18" s="7" t="s">
-        <x:v>7</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F18" s="16">
         <x:v>2</x:v>
@@ -2508,12 +2508,12 @@
       <x:c r="J18" s="5"/>
     </x:row>
     <x:row r="19" spans="1:10" ht="16.5" customHeight="1">
-      <x:c r="A19" s="92"/>
-      <x:c r="B19" s="71"/>
-      <x:c r="C19" s="66"/>
-      <x:c r="D19" s="81"/>
+      <x:c r="A19" s="85"/>
+      <x:c r="B19" s="75"/>
+      <x:c r="C19" s="81"/>
+      <x:c r="D19" s="68"/>
       <x:c r="E19" s="20" t="s">
-        <x:v>89</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F19" s="21">
         <x:v>1</x:v>
@@ -2524,16 +2524,16 @@
       <x:c r="J19" s="5"/>
     </x:row>
     <x:row r="20" spans="1:10" ht="32.75" customHeight="1">
-      <x:c r="A20" s="92"/>
-      <x:c r="B20" s="71"/>
-      <x:c r="C20" s="87" t="s">
-        <x:v>42</x:v>
+      <x:c r="A20" s="85"/>
+      <x:c r="B20" s="75"/>
+      <x:c r="C20" s="77" t="s">
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D20" s="42" t="s">
-        <x:v>94</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E20" s="37" t="s">
-        <x:v>22</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F20" s="21">
         <x:v>1</x:v>
@@ -2544,14 +2544,14 @@
       <x:c r="J20" s="5"/>
     </x:row>
     <x:row r="21" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A21" s="92"/>
-      <x:c r="B21" s="71"/>
-      <x:c r="C21" s="88"/>
+      <x:c r="A21" s="85"/>
+      <x:c r="B21" s="75"/>
+      <x:c r="C21" s="78"/>
       <x:c r="D21" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E21" s="7" t="s">
-        <x:v>54</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F21" s="18">
         <x:v>2</x:v>
@@ -2562,13 +2562,13 @@
       <x:c r="J21" s="5"/>
     </x:row>
     <x:row r="22" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A22" s="92"/>
-      <x:c r="B22" s="71"/>
-      <x:c r="C22" s="75" t="s">
-        <x:v>49</x:v>
+      <x:c r="A22" s="85"/>
+      <x:c r="B22" s="75"/>
+      <x:c r="C22" s="60" t="s">
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D22" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E22" s="20"/>
       <x:c r="F22" s="18">
@@ -2580,14 +2580,14 @@
       <x:c r="J22" s="5"/>
     </x:row>
     <x:row r="23" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A23" s="92"/>
-      <x:c r="B23" s="70"/>
-      <x:c r="C23" s="76"/>
+      <x:c r="A23" s="85"/>
+      <x:c r="B23" s="76"/>
+      <x:c r="C23" s="61"/>
       <x:c r="D23" s="7" t="s">
-        <x:v>76</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E23" s="20" t="s">
-        <x:v>53</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F23" s="18">
         <x:v>1</x:v>
@@ -2598,15 +2598,15 @@
       <x:c r="J23" s="5"/>
     </x:row>
     <x:row r="24" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A24" s="92"/>
-      <x:c r="B24" s="85" t="s">
+      <x:c r="A24" s="85"/>
+      <x:c r="B24" s="72" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C24" s="34" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D24" s="7" t="s">
         <x:v>35</x:v>
-      </x:c>
-      <x:c r="C24" s="34" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D24" s="7" t="s">
-        <x:v>56</x:v>
       </x:c>
       <x:c r="E24" s="20"/>
       <x:c r="F24" s="25">
@@ -2618,13 +2618,13 @@
       <x:c r="J24" s="5"/>
     </x:row>
     <x:row r="25" spans="1:10" ht="16.399999999999999">
-      <x:c r="A25" s="92"/>
-      <x:c r="B25" s="85"/>
+      <x:c r="A25" s="85"/>
+      <x:c r="B25" s="72"/>
       <x:c r="C25" s="29" t="s">
-        <x:v>18</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D25" s="7" t="s">
-        <x:v>55</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E25" s="20"/>
       <x:c r="F25" s="18">
@@ -2636,13 +2636,13 @@
       <x:c r="J25" s="5"/>
     </x:row>
     <x:row r="26" spans="1:10" ht="16.399999999999999">
-      <x:c r="A26" s="92"/>
-      <x:c r="B26" s="85"/>
-      <x:c r="C26" s="78" t="s">
-        <x:v>16</x:v>
+      <x:c r="A26" s="85"/>
+      <x:c r="B26" s="72"/>
+      <x:c r="C26" s="65" t="s">
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D26" s="7" t="s">
-        <x:v>82</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E26" s="20"/>
       <x:c r="F26" s="18">
@@ -2654,11 +2654,11 @@
       <x:c r="J26" s="5"/>
     </x:row>
     <x:row r="27" spans="1:6" ht="16.5" customHeight="1">
-      <x:c r="A27" s="92"/>
-      <x:c r="B27" s="85"/>
-      <x:c r="C27" s="79"/>
+      <x:c r="A27" s="85"/>
+      <x:c r="B27" s="72"/>
+      <x:c r="C27" s="66"/>
       <x:c r="D27" s="15" t="s">
-        <x:v>65</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E27" s="17"/>
       <x:c r="F27" s="35">
@@ -2666,31 +2666,31 @@
       </x:c>
     </x:row>
     <x:row r="28" spans="1:6" ht="31.5" customHeight="1">
-      <x:c r="A28" s="92"/>
-      <x:c r="B28" s="86"/>
+      <x:c r="A28" s="85"/>
+      <x:c r="B28" s="73"/>
       <x:c r="C28" s="30" t="s">
-        <x:v>17</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D28" s="36" t="s">
-        <x:v>79</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E28" s="24" t="s">
-        <x:v>69</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F28" s="35">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:6" customHeight="1">
-      <x:c r="A29" s="92"/>
-      <x:c r="B29" s="90" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C29" s="89" t="s">
-        <x:v>33</x:v>
+      <x:c r="A29" s="85"/>
+      <x:c r="B29" s="83" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C29" s="82" t="s">
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D29" s="23" t="s">
-        <x:v>91</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E29" s="23"/>
       <x:c r="F29" s="35">
@@ -2698,11 +2698,11 @@
       </x:c>
     </x:row>
     <x:row r="30" spans="1:6" customHeight="1">
-      <x:c r="A30" s="92"/>
-      <x:c r="B30" s="90"/>
-      <x:c r="C30" s="89"/>
+      <x:c r="A30" s="85"/>
+      <x:c r="B30" s="83"/>
+      <x:c r="C30" s="82"/>
       <x:c r="D30" s="23" t="s">
-        <x:v>6</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E30" s="23"/>
       <x:c r="F30" s="35">
@@ -2710,43 +2710,43 @@
       </x:c>
     </x:row>
     <x:row r="31" spans="1:6" customHeight="1">
-      <x:c r="A31" s="92"/>
-      <x:c r="B31" s="90"/>
-      <x:c r="C31" s="89"/>
+      <x:c r="A31" s="85"/>
+      <x:c r="B31" s="83"/>
+      <x:c r="C31" s="82"/>
       <x:c r="D31" s="23" t="s">
-        <x:v>72</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E31" s="23" t="s">
-        <x:v>97</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F31" s="35">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:6" customHeight="1">
-      <x:c r="A32" s="92"/>
-      <x:c r="B32" s="90"/>
-      <x:c r="C32" s="89"/>
+      <x:c r="A32" s="85"/>
+      <x:c r="B32" s="83"/>
+      <x:c r="C32" s="82"/>
       <x:c r="D32" s="23" t="s">
-        <x:v>96</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E32" s="23" t="s">
-        <x:v>85</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F32" s="35">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:6" customHeight="1">
-      <x:c r="A33" s="92"/>
-      <x:c r="B33" s="90" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="C33" s="89" t="s">
-        <x:v>43</x:v>
+      <x:c r="A33" s="85"/>
+      <x:c r="B33" s="83" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C33" s="82" t="s">
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D33" s="23" t="s">
-        <x:v>21</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E33" s="23"/>
       <x:c r="F33" s="35">
@@ -2754,11 +2754,11 @@
       </x:c>
     </x:row>
     <x:row r="34" spans="1:6" customHeight="1">
-      <x:c r="A34" s="92"/>
-      <x:c r="B34" s="90"/>
-      <x:c r="C34" s="89"/>
+      <x:c r="A34" s="85"/>
+      <x:c r="B34" s="83"/>
+      <x:c r="C34" s="82"/>
       <x:c r="D34" s="40" t="s">
-        <x:v>61</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E34" s="41" t="s">
         <x:v>44</x:v>
@@ -2768,11 +2768,11 @@
       </x:c>
     </x:row>
     <x:row r="35" spans="1:6" customHeight="1">
-      <x:c r="A35" s="92"/>
-      <x:c r="B35" s="90"/>
-      <x:c r="C35" s="89"/>
+      <x:c r="A35" s="85"/>
+      <x:c r="B35" s="83"/>
+      <x:c r="C35" s="82"/>
       <x:c r="D35" s="40" t="s">
-        <x:v>87</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E35" s="41"/>
       <x:c r="F35" s="35">
@@ -2780,25 +2780,25 @@
       </x:c>
     </x:row>
     <x:row r="36" spans="1:6" customHeight="1">
-      <x:c r="A36" s="92"/>
-      <x:c r="B36" s="90"/>
-      <x:c r="C36" s="89"/>
+      <x:c r="A36" s="85"/>
+      <x:c r="B36" s="83"/>
+      <x:c r="C36" s="82"/>
       <x:c r="D36" s="40" t="s">
-        <x:v>104</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E36" s="41" t="s">
-        <x:v>1</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F36" s="35">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:6" customHeight="1">
-      <x:c r="A37" s="92"/>
-      <x:c r="B37" s="90"/>
-      <x:c r="C37" s="89"/>
+      <x:c r="A37" s="85"/>
+      <x:c r="B37" s="83"/>
+      <x:c r="C37" s="82"/>
       <x:c r="D37" s="40" t="s">
-        <x:v>60</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="41"/>
       <x:c r="F37" s="35">
@@ -2864,7 +2864,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:26" ht="16.399999999999999" customHeight="1">
       <x:c r="A1" s="55" t="s">
-        <x:v>81</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B1" s="55"/>
       <x:c r="C1" s="55"/>
@@ -2922,22 +2922,22 @@
     </x:row>
     <x:row r="3" spans="1:10" ht="16.399999999999999">
       <x:c r="A3" s="50" t="s">
-        <x:v>15</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B3" s="52" t="s">
-        <x:v>28</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C3" s="52" t="s">
-        <x:v>24</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D3" s="52" t="s">
-        <x:v>31</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E3" s="52" t="s">
-        <x:v>13</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F3" s="52" t="s">
-        <x:v>47</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G3" s="5"/>
       <x:c r="H3" s="5"/>
@@ -2957,17 +2957,17 @@
       <x:c r="J4" s="5"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A5" s="69" t="s">
+      <x:c r="A5" s="74" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B5" s="94" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C5" s="26" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="B5" s="67" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C5" s="26" t="s">
-        <x:v>37</x:v>
-      </x:c>
       <x:c r="D5" s="11" t="s">
-        <x:v>93</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E5" s="11"/>
       <x:c r="F5" s="19">
@@ -2979,16 +2979,16 @@
       <x:c r="J5" s="5"/>
     </x:row>
     <x:row r="6" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A6" s="71"/>
-      <x:c r="B6" s="67"/>
+      <x:c r="A6" s="75"/>
+      <x:c r="B6" s="94"/>
       <x:c r="C6" s="28" t="s">
-        <x:v>77</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D6" s="7" t="s">
-        <x:v>12</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E6" s="20" t="s">
-        <x:v>10</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F6" s="21">
         <x:v>1</x:v>
@@ -2999,16 +2999,16 @@
       <x:c r="J6" s="5"/>
     </x:row>
     <x:row r="7" spans="1:10" s="3" customFormat="1" ht="16.399999999999999">
-      <x:c r="A7" s="71"/>
-      <x:c r="B7" s="67"/>
+      <x:c r="A7" s="75"/>
+      <x:c r="B7" s="94"/>
       <x:c r="C7" s="27" t="s">
-        <x:v>80</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D7" s="7" t="s">
-        <x:v>4</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E7" s="7" t="s">
-        <x:v>75</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F7" s="13">
         <x:v>1</x:v>
@@ -3019,16 +3019,16 @@
       <x:c r="J7" s="5"/>
     </x:row>
     <x:row r="8" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A8" s="71"/>
-      <x:c r="B8" s="67"/>
+      <x:c r="A8" s="75"/>
+      <x:c r="B8" s="94"/>
       <x:c r="C8" s="31" t="s">
-        <x:v>34</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D8" s="7" t="s">
-        <x:v>86</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E8" s="7"/>
-      <x:c r="F8" s="57">
+      <x:c r="F8" s="62">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G8" s="5"/>
@@ -3037,94 +3037,94 @@
       <x:c r="J8" s="5"/>
     </x:row>
     <x:row r="9" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A9" s="71"/>
-      <x:c r="B9" s="69" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C9" s="61" t="s">
-        <x:v>50</x:v>
+      <x:c r="A9" s="75"/>
+      <x:c r="B9" s="74" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C9" s="79" t="s">
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D9" s="7" t="s">
-        <x:v>95</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E9" s="7" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F9" s="58"/>
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="F9" s="64"/>
       <x:c r="G9" s="5"/>
       <x:c r="H9" s="5"/>
       <x:c r="I9" s="5"/>
       <x:c r="J9" s="5"/>
     </x:row>
     <x:row r="10" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A10" s="71"/>
-      <x:c r="B10" s="71"/>
-      <x:c r="C10" s="62"/>
+      <x:c r="A10" s="75"/>
+      <x:c r="B10" s="75"/>
+      <x:c r="C10" s="80"/>
       <x:c r="D10" s="7" t="s">
-        <x:v>103</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E10" s="7"/>
-      <x:c r="F10" s="58"/>
+      <x:c r="F10" s="64"/>
       <x:c r="G10" s="5"/>
       <x:c r="H10" s="5"/>
       <x:c r="I10" s="5"/>
       <x:c r="J10" s="5"/>
     </x:row>
     <x:row r="11" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A11" s="71"/>
-      <x:c r="B11" s="71"/>
-      <x:c r="C11" s="66"/>
+      <x:c r="A11" s="75"/>
+      <x:c r="B11" s="75"/>
+      <x:c r="C11" s="81"/>
       <x:c r="D11" s="7" t="s">
-        <x:v>57</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="F11" s="58"/>
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="F11" s="64"/>
       <x:c r="G11" s="5"/>
       <x:c r="H11" s="5"/>
       <x:c r="I11" s="5"/>
       <x:c r="J11" s="5"/>
     </x:row>
     <x:row r="12" spans="1:10" ht="16.399999999999999">
-      <x:c r="A12" s="71"/>
-      <x:c r="B12" s="71"/>
-      <x:c r="C12" s="61" t="s">
-        <x:v>39</x:v>
+      <x:c r="A12" s="75"/>
+      <x:c r="B12" s="75"/>
+      <x:c r="C12" s="79" t="s">
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D12" s="7" t="s">
-        <x:v>64</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E12" s="8"/>
-      <x:c r="F12" s="58"/>
+      <x:c r="F12" s="64"/>
       <x:c r="G12" s="5"/>
       <x:c r="H12" s="5"/>
       <x:c r="I12" s="5"/>
       <x:c r="J12" s="5"/>
     </x:row>
     <x:row r="13" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A13" s="71"/>
-      <x:c r="B13" s="71"/>
-      <x:c r="C13" s="62"/>
+      <x:c r="A13" s="75"/>
+      <x:c r="B13" s="75"/>
+      <x:c r="C13" s="80"/>
       <x:c r="D13" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E13" s="22"/>
-      <x:c r="F13" s="58"/>
+      <x:c r="F13" s="64"/>
       <x:c r="G13" s="5"/>
       <x:c r="H13" s="5"/>
       <x:c r="I13" s="5"/>
       <x:c r="J13" s="5"/>
     </x:row>
     <x:row r="14" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A14" s="71"/>
-      <x:c r="B14" s="71"/>
-      <x:c r="C14" s="62"/>
-      <x:c r="D14" s="59" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E14" s="68"/>
-      <x:c r="F14" s="69">
+      <x:c r="A14" s="75"/>
+      <x:c r="B14" s="75"/>
+      <x:c r="C14" s="80"/>
+      <x:c r="D14" s="86" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E14" s="95"/>
+      <x:c r="F14" s="74">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G14" s="5"/>
@@ -3133,23 +3133,23 @@
       <x:c r="J14" s="5"/>
     </x:row>
     <x:row r="15" spans="1:10" ht="16.399999999999999">
-      <x:c r="A15" s="71"/>
-      <x:c r="B15" s="71"/>
-      <x:c r="C15" s="62"/>
-      <x:c r="D15" s="60"/>
-      <x:c r="E15" s="68"/>
-      <x:c r="F15" s="70"/>
+      <x:c r="A15" s="75"/>
+      <x:c r="B15" s="75"/>
+      <x:c r="C15" s="80"/>
+      <x:c r="D15" s="87"/>
+      <x:c r="E15" s="95"/>
+      <x:c r="F15" s="76"/>
       <x:c r="G15" s="5"/>
       <x:c r="H15" s="5"/>
       <x:c r="I15" s="5"/>
       <x:c r="J15" s="5"/>
     </x:row>
     <x:row r="16" spans="1:10" ht="16.399999999999999">
-      <x:c r="A16" s="71"/>
-      <x:c r="B16" s="71"/>
-      <x:c r="C16" s="62"/>
+      <x:c r="A16" s="75"/>
+      <x:c r="B16" s="75"/>
+      <x:c r="C16" s="80"/>
       <x:c r="D16" s="20" t="s">
-        <x:v>92</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E16" s="40"/>
       <x:c r="F16" s="43">
@@ -3161,11 +3161,11 @@
       <x:c r="J16" s="5"/>
     </x:row>
     <x:row r="17" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A17" s="71"/>
-      <x:c r="B17" s="71"/>
-      <x:c r="C17" s="62"/>
+      <x:c r="A17" s="75"/>
+      <x:c r="B17" s="75"/>
+      <x:c r="C17" s="80"/>
       <x:c r="D17" s="20" t="s">
-        <x:v>8</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E17" s="40"/>
       <x:c r="F17" s="21">
@@ -3177,13 +3177,13 @@
       <x:c r="J17" s="5"/>
     </x:row>
     <x:row r="18" spans="1:10" ht="16.399999999999999">
-      <x:c r="A18" s="71"/>
-      <x:c r="B18" s="71"/>
-      <x:c r="C18" s="61" t="s">
-        <x:v>40</x:v>
+      <x:c r="A18" s="75"/>
+      <x:c r="B18" s="75"/>
+      <x:c r="C18" s="79" t="s">
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D18" s="44" t="s">
-        <x:v>68</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E18" s="40"/>
       <x:c r="F18" s="43">
@@ -3195,14 +3195,14 @@
       <x:c r="J18" s="5"/>
     </x:row>
     <x:row r="19" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A19" s="71"/>
-      <x:c r="B19" s="71"/>
-      <x:c r="C19" s="62"/>
-      <x:c r="D19" s="63" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="E19" s="68"/>
-      <x:c r="F19" s="69">
+      <x:c r="A19" s="75"/>
+      <x:c r="B19" s="75"/>
+      <x:c r="C19" s="80"/>
+      <x:c r="D19" s="88" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E19" s="95"/>
+      <x:c r="F19" s="74">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G19" s="5"/>
@@ -3211,49 +3211,49 @@
       <x:c r="J19" s="5"/>
     </x:row>
     <x:row r="20" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A20" s="71"/>
-      <x:c r="B20" s="71"/>
-      <x:c r="C20" s="62"/>
-      <x:c r="D20" s="64"/>
-      <x:c r="E20" s="68"/>
-      <x:c r="F20" s="71"/>
+      <x:c r="A20" s="75"/>
+      <x:c r="B20" s="75"/>
+      <x:c r="C20" s="80"/>
+      <x:c r="D20" s="89"/>
+      <x:c r="E20" s="95"/>
+      <x:c r="F20" s="75"/>
       <x:c r="G20" s="5"/>
       <x:c r="H20" s="5"/>
       <x:c r="I20" s="5"/>
       <x:c r="J20" s="5"/>
     </x:row>
     <x:row r="21" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A21" s="71"/>
-      <x:c r="B21" s="71"/>
-      <x:c r="C21" s="62"/>
-      <x:c r="D21" s="64"/>
-      <x:c r="E21" s="68"/>
-      <x:c r="F21" s="71"/>
+      <x:c r="A21" s="75"/>
+      <x:c r="B21" s="75"/>
+      <x:c r="C21" s="80"/>
+      <x:c r="D21" s="89"/>
+      <x:c r="E21" s="95"/>
+      <x:c r="F21" s="75"/>
       <x:c r="G21" s="5"/>
       <x:c r="H21" s="5"/>
       <x:c r="I21" s="5"/>
       <x:c r="J21" s="5"/>
     </x:row>
     <x:row r="22" spans="1:10" ht="16.399999999999999">
-      <x:c r="A22" s="71"/>
-      <x:c r="B22" s="71"/>
-      <x:c r="C22" s="66"/>
-      <x:c r="D22" s="65"/>
-      <x:c r="E22" s="68"/>
-      <x:c r="F22" s="71"/>
+      <x:c r="A22" s="75"/>
+      <x:c r="B22" s="75"/>
+      <x:c r="C22" s="81"/>
+      <x:c r="D22" s="90"/>
+      <x:c r="E22" s="95"/>
+      <x:c r="F22" s="75"/>
       <x:c r="G22" s="5"/>
       <x:c r="H22" s="5"/>
       <x:c r="I22" s="5"/>
       <x:c r="J22" s="5"/>
     </x:row>
     <x:row r="23" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A23" s="71"/>
-      <x:c r="B23" s="71"/>
-      <x:c r="C23" s="93" t="s">
-        <x:v>32</x:v>
+      <x:c r="A23" s="75"/>
+      <x:c r="B23" s="75"/>
+      <x:c r="C23" s="91" t="s">
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D23" s="23" t="s">
-        <x:v>66</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E23" s="40"/>
       <x:c r="F23" s="21">
@@ -3265,11 +3265,11 @@
       <x:c r="J23" s="5"/>
     </x:row>
     <x:row r="24" spans="1:10" ht="16.399999999999999">
-      <x:c r="A24" s="71"/>
-      <x:c r="B24" s="71"/>
-      <x:c r="C24" s="94"/>
+      <x:c r="A24" s="75"/>
+      <x:c r="B24" s="75"/>
+      <x:c r="C24" s="92"/>
       <x:c r="D24" s="23" t="s">
-        <x:v>67</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E24" s="23"/>
       <x:c r="F24" s="32">
@@ -3281,14 +3281,14 @@
       <x:c r="J24" s="5"/>
     </x:row>
     <x:row r="25" spans="1:10" ht="31.5" customHeight="1">
-      <x:c r="A25" s="70"/>
-      <x:c r="B25" s="70"/>
-      <x:c r="C25" s="95"/>
+      <x:c r="A25" s="76"/>
+      <x:c r="B25" s="76"/>
+      <x:c r="C25" s="93"/>
       <x:c r="D25" s="45" t="s">
-        <x:v>74</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E25" s="24" t="s">
-        <x:v>59</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F25" s="46">
         <x:v>1</x:v>

--- a/java_yme/요구사항명세서/요구사항 명세서_풋살화쇼핑몰.xlsx
+++ b/java_yme/요구사항명세서/요구사항 명세서_풋살화쇼핑몰.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="HCell" lastEdited="11.0" lowestEdited="11.0" rupBuild="0.2292"/>
+  <x:fileVersion appName="HCell" lastEdited="11.0" lowestEdited="11.0" rupBuild="0.4741"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="25340" windowHeight="11610" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="25340" windowHeight="11990" tabRatio="500" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="사용자" sheetId="1" r:id="rId4"/>
@@ -22,24 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="113">
   <x:si>
-    <x:t>&lt;주문취소&gt;,&lt;재고부족&gt;,&lt;교환/반품&gt; 중 반품에
-해당하는 주문상태일 경우 환불하기 버튼 활성화
-환불버튼 누르면 아임포트api로 환불 진행되며, 
-주문자에게는 &lt;환불완료&gt;로 표기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리뷰는 별점과 간단한 글로 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>별점은 1개,2개,3개,4개,5개 로 0.5개는 없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문의답변 -&gt; 문의번호에 해당하는 제목 클릭시, 사용자가 문의한 정보 확인
-                -&gt; 이름, 아이디, 이메일, 문의유형, 문의제목, 문의 내용이 불러와지며 문의 답변 작성란을 통해 작성
-                -&gt; 문의 답변 완료 시 답변 여부가 "답변 대기" 상태에서 "답변 완료"로 변경
-                -&gt; 사용자가 마이페이지의 문의 내역에서 답변 여부 확인 가능</x:t>
-  </x:si>
-  <x:si>
     <x:t>주문상태는 &lt;주문확인중&gt;,&lt;배송시작&gt;
 주문내역에는 주문 정보들을 출력
 &lt;주문확인중&gt; 일경우 &lt;주문취소&gt;
@@ -47,24 +29,170 @@
 버튼 나오게끔 구현</x:t>
   </x:si>
   <x:si>
+    <x:t>전체문의조회 -&gt; 문의일련번호, 문의일자, 문의유형, 제목, 작성자, 답변 여부대한 리스트 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개인정보수정 - &gt; 아이디, 이름 제외 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일, 휴대폰번호(숫자만), 생년월일(숫자만)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 성공시 회원가입 메뉴가 마이페이지로 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원검색 -&gt; 전체,아이디,이름,생년월일로 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 성공시 로그인 메뉴가 로그아웃으로 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수량이 변경될때마다 합계 금액도 변경되게 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1:1 문의내역(로그인한 유저가 작성한것만 따로)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>클릭시 메인페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문상태는 &lt;주문취소&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모든 1:1 게시글 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카카오 주소 api적용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아임포트 결제 api적용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문변경 -&gt; 주문 번호 클릭 시, 해당 주문에 대한 상세내역 페이지로 이동하며, 
+                재고량 부족일 경우 재고량부족, 주문확인 버튼 시 배송시작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자는 마이페이지에 주문내역 조회시
+배송 상태 조회 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈퇴 즉시 주문내역,장바구니내역, 게시판작성 내역 모두 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름을 개명할 경우 대비해서 관리자가 변경 가능하게끔 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배송지는 주문자 동일 / 직접 입력으로 선택 가능하게 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제 정보는 카카오페이/신용카드/ 실시간계좌이체 / 무통장 입금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원정보수정 -&gt; 리스트에서 아이디를 클릭하면 수정페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제 완료 페이지에는 계속 쇼핑하기, 주문내역 확인하기 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품검색 -&gt; 상품명, 브랜드, 사이즈에 해당하는 키워드 입력 시, 해당 상품 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>각각 브랜드 이름을 클릭하면 풋살화/의류 상관없이 해당 브랜드 상품 나오게끔 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품등록 -&gt; 상품명, 브랜드, 사이즈, 상품가격, 상품이미지 첨부, 상품정보 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문관리 -&gt; 주문일, 주문번호, 주문자, 결제방법, 주문가격, 주문상태 리스트 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문검색 -&gt; 주문번호, 주문자 id에 해당하는 키워드 입력시 해당 주문 리스트 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리뷰 작성은 회원만 가능하고, 상품은 구매했거나
+구매하고 3개월이내에만 작성이 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제하기 버튼 누르면 결제화면창이 나오면서 결제 완료시 결제완료 페이지로 넘어감</x:t>
+  </x:si>
+  <x:si>
     <x:t>상품상세 -&gt; 등록한 상품의 상세내용 확인 및 수정
                 -&gt; 상품 수정시 이미지, 상품이름, 상품정보 등 수정</x:t>
   </x:si>
   <x:si>
-    <x:t>상품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본인이 작성한 리뷰는 삭제가능
-(수정불가함으로 재등록 원하면 삭제 후 등록)</x:t>
+    <x:t>문의답변 -&gt; 문의번호에 해당하는 제목 클릭시, 사용자가 문의한 정보 확인
+                -&gt; 이름, 아이디, 이메일, 문의유형, 문의제목, 문의 내용이 불러와지며 문의 답변 작성란을 통해 작성
+                -&gt; 문의 답변 완료 시 답변 여부가 "답변 대기" 상태에서 "답변 완료"로 변경
+                -&gt; 사용자가 마이페이지의 문의 내역에서 답변 여부 확인 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항</x:t>
   </x:si>
   <x:si>
     <x:t>서비스(메뉴)</x:t>
   </x:si>
   <x:si>
-    <x:t>주문관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항</x:t>
+    <x:t>우선순위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문/배송조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>취소내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체크박스 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자전용메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쇼핑몰 로고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객센터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필요 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품상세메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상단메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름변경 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품상세</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
   </x:si>
   <x:si>
     <x:t>1:1문의관리</x:t>
@@ -73,76 +201,48 @@
     <x:t>로그아웃</x:t>
   </x:si>
   <x:si>
-    <x:t>고객센터</x:t>
+    <x:t>최상단메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HOME</x:t>
   </x:si>
   <x:si>
     <x:t>메인페이지</x:t>
   </x:si>
   <x:si>
-    <x:t>마이페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문/배송조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최상단메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필요 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>취소내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상단메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체크박스 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자전용메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품상세</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쇼핑몰 로고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품상세메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HOME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름변경 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우선순위</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">상품이미지, 상품이름, 상품정보 </x:t>
+    <x:t>요구사항(관리자)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃(관리자계정)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요구사항(사용자)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃 -&gt; 로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인(관리자계정)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색창과 돋보기 모양</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1:1문의 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문번호와 금액 표기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;주문취소&gt;,&lt;재고부족&gt;,&lt;교환/반품&gt; 중 반품에
+해당하는 주문상태일 경우 환불하기 버튼 활성화
+환불버튼 누르면 아임포트api로 환불 진행되며, 
+주문자에게는 &lt;환불완료&gt;로 표기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니 담긴 상태에서 수량 변경 가능하며,
+동일한 상품이면서 같은 사이즈를 장바구니 추가하면
+이미 추가된 내역에서 수량만 증가</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
@@ -150,43 +250,38 @@
 </x:t>
   </x:si>
   <x:si>
+    <x:t>이름,아이디,생년월일, 등급 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">상품이미지, 상품이름, 상품정보 </x:t>
+  </x:si>
+  <x:si>
     <x:t>관리자 페이지의 시작화면으로 이동</x:t>
   </x:si>
   <x:si>
-    <x:t>이름,아이디,생년월일, 등급 출력</x:t>
+    <x:t>장바구니 담기, 바로 결제하기 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수량확인 -&gt; 상품의 재고 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문내역 -&gt; 주문번호로 검색 가능</x:t>
   </x:si>
   <x:si>
     <x:t>주문하기 클릭시 결제 페이지로 이동</x:t>
   </x:si>
   <x:si>
-    <x:t>장바구니 담기, 바로 결제하기 버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문내역 -&gt; 주문번호로 검색 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수량확인 -&gt; 상품의 재고 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카카오 주소 api적용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>클릭시 메인페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모든 1:1 게시글 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아임포트 결제 api적용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문상태는 &lt;주문취소&gt;</x:t>
+    <x:t>리뷰는 별점과 간단한 글로 작성</x:t>
   </x:si>
   <x:si>
     <x:t>기본 배송비 2,500원이며 합계금액 10만원 이상일시 
 배송비 무료 적용</x:t>
   </x:si>
   <x:si>
+    <x:t>빈 단어 검색시 단어를 입력하라고 팝업 메시지
+검색단어는 상품명으로 검색</x:t>
+  </x:si>
+  <x:si>
     <x:t>설정한 옵션 상품의 수량 변경(버튼 클릭시 1개씩 증가하거나 1개씩 감소)</x:t>
   </x:si>
   <x:si>
@@ -194,201 +289,106 @@
 체크된 상품들의 금액 합계출력</x:t>
   </x:si>
   <x:si>
-    <x:t>빈 단어 검색시 단어를 입력하라고 팝업 메시지
-검색단어는 상품명으로 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품검색 -&gt; 상품명, 브랜드, 사이즈에 해당하는 키워드 입력 시, 해당 상품 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제하기 버튼 누르면 결제화면창이 나오면서 결제 완료시 결제완료 페이지로 넘어감</x:t>
-  </x:si>
-  <x:si>
-    <x:t>각각 브랜드 이름을 클릭하면 풋살화/의류 상관없이 해당 브랜드 상품 나오게끔 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품등록 -&gt; 상품명, 브랜드, 사이즈, 상품가격, 상품이미지 첨부, 상품정보 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문관리 -&gt; 주문일, 주문번호, 주문자, 결제방법, 주문가격, 주문상태 리스트 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문검색 -&gt; 주문번호, 주문자 id에 해당하는 키워드 입력시 해당 주문 리스트 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>풋살화, 의류, 풋살공, 골키퍼장갑, 스포츠가방으로 구분</x:t>
+    <x:t>본인이 작성한 리뷰는 삭제가능
+(수정불가함으로 재등록 원하면 삭제 후 등록)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색바</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브랜드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리뷰</x:t>
   </x:si>
   <x:si>
     <x:t>장바구니 기능 회원만 가능함으로
  비회원이 클릭시 로그인창으로 이동</x:t>
   </x:si>
   <x:si>
+    <x:t>아이디, 비밀번호, 비밀번호 확인, 이름, 우편번호, 주소, 상세주소</x:t>
+  </x:si>
+  <x:si>
     <x:t>장바구니에서 체크된 상품들의 목록을 보여주고, 총결제 금액 보여줌</x:t>
   </x:si>
   <x:si>
-    <x:t>아이디, 비밀번호, 비밀번호 확인, 이름, 우편번호, 주소, 상세주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자는 마이페이지에 주문내역 조회시
-배송 상태 조회 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈퇴 즉시 주문내역,장바구니내역, 게시판작성 내역 모두 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배송지는 주문자 동일 / 직접 입력으로 선택 가능하게 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보수정 -&gt; 리스트에서 아이디를 클릭하면 수정페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름을 개명할 경우 대비해서 관리자가 변경 가능하게끔 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제 정보는 카카오페이/신용카드/ 실시간계좌이체 / 무통장 입금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제 완료 페이지에는 계속 쇼핑하기, 주문내역 확인하기 버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전체문의조회 -&gt; 문의일련번호, 문의일자, 문의유형, 제목, 작성자, 답변 여부대한 리스트 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문변경 -&gt; 주문 번호 클릭 시, 해당 주문에 대한 상세내역 페이지로 이동하며, 
-                재고량 부족일 경우 재고량부족, 주문확인 버튼 시 배송시작</x:t>
+    <x:t>별점은 1개,2개,3개,4개,5개 로 0.5개는 없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원관리, 상품관리, 1:1문의관리, 주문관리로 구성</x:t>
   </x:si>
   <x:si>
     <x:t>휴대폰번호 SMS 인증 api(coolSMS) 적용</x:t>
   </x:si>
   <x:si>
-    <x:t>회원관리, 상품관리, 1:1문의관리, 주문관리로 구성</x:t>
-  </x:si>
-  <x:si>
     <x:t>장바구니에 담고 페이지 이동 없이 계속 페이지 유지</x:t>
   </x:si>
   <x:si>
+    <x:t>회원탈퇴(회원 탈퇴 필수동의 체크/ 비밀번호 재확인)</x:t>
+  </x:si>
+  <x:si>
     <x:t>로그아웃 -&gt; 로그인, 마이페이지 -&gt; 회원가입으로 변경</x:t>
   </x:si>
   <x:si>
-    <x:t>회원탈퇴(회원 탈퇴 필수동의 체크/ 비밀번호 재확인)</x:t>
+    <x:t>풋살화, 의류, 풋살공, 골키퍼장갑, 스포츠가방으로 구분</x:t>
   </x:si>
   <x:si>
     <x:t>마우스 가져다 되면 아래로 브랜드명이 나오게끔 구현</x:t>
   </x:si>
   <x:si>
-    <x:t>검색창과 돋보기 모양</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃(관리자계정)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요구사항(관리자)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요구사항(사용자)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃 -&gt; 로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인(관리자계정)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1:1문의 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색바</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브랜드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원검색 -&gt; 전체,아이디,이름,생년월일로 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 성공시 로그인 메뉴가 로그아웃으로 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일, 휴대폰번호(숫자만), 생년월일(숫자만)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개인정보수정 - &gt; 아이디, 이름 제외 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1:1 문의내역(로그인한 유저가 작성한것만 따로)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수량이 변경될때마다 합계 금액도 변경되게 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 성공시 회원가입 메뉴가 마이페이지로 변경</x:t>
+    <x:t>옵션(사이즈)는 한번에 한 개씩 설정가능함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃 버튼 클릭시 메인페이지 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입, 아이디/비밀번호 찾기 버튼 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OOO님 안녕하세요 ! 라고 문구 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품정보, 리뷰, 배송정보, 교환/반품정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문배송/조회, 장바구니 대신에 관리자메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계속 쇼핑하기 클릭시 메인페이지 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수량변경 -&gt; 상품의 사이즈별 재고 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입 완료 시, 로그인 화면으로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">계속 쇼핑하기/ 주문하기 버튼 출력 </x:t>
   </x:si>
   <x:si>
     <x:t>아이디, 비밀번호 입력창, 로그인 버튼</x:t>
   </x:si>
   <x:si>
-    <x:t>회원가입, 아이디/비밀번호 찾기 버튼 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문배송/조회, 장바구니 대신에 관리자메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃 버튼 클릭시 메인페이지 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수량변경 -&gt; 상품의 사이즈별 재고 변경</x:t>
-  </x:si>
-  <x:si>
     <x:t>등급 변경은 SUPER ADMIN만 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입 완료 시, 로그인 화면으로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계속 쇼핑하기 클릭시 메인페이지 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">계속 쇼핑하기/ 주문하기 버튼 출력 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>OOO님 안녕하세요 ! 라고 문구 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>옵션(사이즈)는 한번에 한 개씩 설정가능함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리뷰 작성은 회원만 가능하고, 상품은 구매했거나
-구매하고 3개월이내에만 작성이 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리뷰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문번호와 금액 표기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니 담긴 상태에서 수량 변경 가능하며,
-동일한 상품이면서 같은 사이즈를 장바구니 추가하면
-이미 추가된 내역에서 수량만 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품정보, 리뷰, 배송정보, 교환/반품정보</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="15">
+  <x:fonts count="10">
     <x:font>
       <x:name val="Arial"/>
       <x:sz val="10"/>
@@ -432,18 +432,6 @@
     <x:font>
       <x:name val="Arial"/>
       <x:sz val="11"/>
-      <x:color rgb="ff0000ff"/>
-      <x:b val="1"/>
-    </x:font>
-    <x:font>
-      <x:name val="Arial"/>
-      <x:sz val="11"/>
-      <x:color rgb="ffff0000"/>
-      <x:b val="1"/>
-    </x:font>
-    <x:font>
-      <x:name val="Arial"/>
-      <x:sz val="11"/>
       <x:color rgb="ffffffff"/>
       <x:b val="1"/>
     </x:font>
@@ -465,72 +453,6 @@
           <x:name val="Arial"/>
           <x:sz val="11"/>
           <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ffff0000"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ffff0000"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff008000"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff008000"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff008000"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff008000"/>
           <x:b val="1"/>
         </x:font>
       </mc:Fallback>
@@ -556,30 +478,30 @@
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="33">
+  <x:borders count="32">
     <x:border>
       <x:left>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:left>
       <x:right>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:right>
       <x:top>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:top>
       <x:bottom>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:left>
       <x:right style="thin">
         <x:color rgb="ff000000"/>
       </x:right>
       <x:top>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:top>
       <x:bottom style="thin">
         <x:color rgb="ff000000"/>
@@ -587,13 +509,13 @@
     </x:border>
     <x:border>
       <x:left>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:left>
       <x:right style="thin">
         <x:color rgb="ff000000"/>
       </x:right>
       <x:top style="thin">
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:top>
       <x:bottom style="thin">
         <x:color rgb="ff000000"/>
@@ -601,13 +523,13 @@
     </x:border>
     <x:border>
       <x:left>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:left>
       <x:right style="thin">
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:right>
       <x:top style="thin">
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:top>
       <x:bottom style="thin">
         <x:color rgb="ff000000"/>
@@ -618,24 +540,24 @@
         <x:color rgb="ff000000"/>
       </x:left>
       <x:right style="thin">
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:right>
       <x:top>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:top>
       <x:bottom>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:left>
       <x:right style="thin">
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:right>
       <x:top>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:top>
       <x:bottom style="thin">
         <x:color rgb="ff000000"/>
@@ -643,7 +565,7 @@
     </x:border>
     <x:border>
       <x:left>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:left>
       <x:right style="thin">
         <x:color rgb="ff000000"/>
@@ -652,60 +574,60 @@
         <x:color rgb="ff000000"/>
       </x:top>
       <x:bottom style="thin">
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:left>
       <x:right>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:right>
       <x:top>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:top>
       <x:bottom style="thin">
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:left>
       <x:right style="thin">
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:right>
       <x:top style="thin">
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:top>
       <x:bottom style="thin">
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:left>
       <x:right style="thin">
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:right>
       <x:top style="thin">
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:top>
       <x:bottom>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:left>
       <x:right>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:right>
       <x:top>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:top>
       <x:bottom style="thin">
         <x:color rgb="ff000000"/>
@@ -713,310 +635,296 @@
     </x:border>
     <x:border>
       <x:left>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:left>
       <x:right style="thin">
         <x:color rgb="ff000000"/>
       </x:right>
       <x:top>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:top>
       <x:bottom>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top>
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:left>
       <x:right style="thin">
-        <x:color rgb="ff000000"/>
+        <x:color auto="1"/>
       </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
+      <x:top>
+        <x:color auto="1"/>
       </x:top>
       <x:bottom>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color indexed="64"/>
+        <x:color rgb="ff000000"/>
       </x:left>
       <x:right style="thin">
-        <x:color indexed="64"/>
+        <x:color rgb="ff000000"/>
       </x:right>
       <x:top style="thin">
-        <x:color indexed="64"/>
+        <x:color rgb="ff000000"/>
       </x:top>
       <x:bottom>
-        <x:color rgb="ff000000"/>
+        <x:color auto="1"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color indexed="64"/>
+        <x:color rgb="ff000000"/>
       </x:left>
       <x:right style="thin">
-        <x:color indexed="64"/>
+        <x:color rgb="ff000000"/>
       </x:right>
       <x:top>
-        <x:color rgb="ff000000"/>
+        <x:color auto="1"/>
       </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color indexed="64"/>
+        <x:color rgb="ff000000"/>
       </x:left>
       <x:right style="thin">
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:right>
       <x:top style="thin">
         <x:color rgb="ff000000"/>
       </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
+      <x:bottom>
+        <x:color auto="1"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color indexed="64"/>
+        <x:color rgb="ff000000"/>
       </x:left>
       <x:right style="thin">
-        <x:color rgb="ff000000"/>
+        <x:color auto="1"/>
+      </x:right>
+      <x:top>
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
       </x:right>
       <x:top style="thin">
-        <x:color rgb="ff000000"/>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top>
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom>
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
       </x:top>
       <x:bottom style="thin">
         <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:left>
       <x:right style="thin">
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:right>
       <x:top>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color rgb="ff000000"/>
+        <x:color auto="1"/>
       </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
+      <x:right>
+        <x:color auto="1"/>
       </x:right>
       <x:top style="thin">
         <x:color rgb="ff000000"/>
       </x:top>
       <x:bottom>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color rgb="ff000000"/>
+        <x:color auto="1"/>
       </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
+      <x:right>
+        <x:color auto="1"/>
       </x:right>
       <x:top>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:left>
       <x:right style="thin">
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:right>
-      <x:top>
+      <x:top style="thin">
         <x:color rgb="ff000000"/>
       </x:top>
       <x:bottom>
-        <x:color rgb="ff000000"/>
+        <x:color auto="1"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color rgb="ff000000"/>
+        <x:color auto="1"/>
       </x:left>
       <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:right>
       <x:top>
         <x:color rgb="ff000000"/>
       </x:top>
       <x:bottom style="thin">
         <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top>
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
       </x:bottom>
     </x:border>
   </x:borders>
@@ -1025,7 +933,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="108">
+  <x:cellXfs count="94">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -1178,27 +1086,15 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1206,9 +1102,6 @@
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
@@ -1222,7 +1115,7 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1250,18 +1143,18 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1314,31 +1207,37 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1361,67 +1260,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1439,277 +1323,259 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1720,6 +1586,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1802,6 +1669,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1836,6 +1704,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1880,6 +1749,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1923,6 +1793,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1930,10 +1801,10 @@
           </x:font>
           <x:border>
             <x:left>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:left>
             <x:right>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:right>
             <x:top style="medium">
               <x:color rgb="ff6182d6"/>
@@ -1942,10 +1813,10 @@
               <x:color rgb="ff6182d6"/>
             </x:bottom>
             <x:vertical>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:vertical>
             <x:horizontal>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:horizontal>
           </x:border>
         </x:dxf>
@@ -1957,10 +1828,10 @@
           </x:font>
           <x:border>
             <x:left>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:left>
             <x:right>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:right>
             <x:top style="medium">
               <x:color rgb="ff6182d6"/>
@@ -1969,10 +1840,10 @@
               <x:color rgb="ff6182d6"/>
             </x:bottom>
             <x:vertical>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:vertical>
             <x:horizontal>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:horizontal>
           </x:border>
         </x:dxf>
@@ -2007,6 +1878,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2027,6 +1899,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2057,6 +1930,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2308,29 +2182,29 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:Z43"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E20" activeCellId="0" sqref="E20:E20"/>
+    <x:sheetView topLeftCell="A27" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="H1" activeCellId="0" sqref="H1:H1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15.75" customHeight="1"/>
   <x:cols>
     <x:col min="1" max="1" width="16.36328125" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="16.56640625" style="34" customWidth="1"/>
+    <x:col min="2" max="2" width="16.56640625" style="29" customWidth="1"/>
     <x:col min="3" max="3" width="16.453125" style="3" customWidth="1"/>
-    <x:col min="4" max="4" width="97.81640625" style="34" customWidth="1"/>
+    <x:col min="4" max="4" width="97.81640625" style="29" customWidth="1"/>
     <x:col min="5" max="5" width="55.546875" style="3" customWidth="1"/>
     <x:col min="6" max="6" width="14.4296875" style="8" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:26" ht="16.399999999999999" customHeight="1">
-      <x:c r="A1" s="51" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="B1" s="51"/>
-      <x:c r="C1" s="51"/>
-      <x:c r="D1" s="51"/>
-      <x:c r="E1" s="51"/>
-      <x:c r="F1" s="51"/>
+      <x:c r="A1" s="48" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B1" s="48"/>
+      <x:c r="C1" s="48"/>
+      <x:c r="D1" s="48"/>
+      <x:c r="E1" s="48"/>
+      <x:c r="F1" s="48"/>
       <x:c r="G1" s="4"/>
       <x:c r="H1" s="4"/>
       <x:c r="I1" s="4"/>
@@ -2353,12 +2227,12 @@
       <x:c r="Z1" s="4"/>
     </x:row>
     <x:row r="2" spans="1:26" ht="16.399999999999999">
-      <x:c r="A2" s="52"/>
-      <x:c r="B2" s="52"/>
-      <x:c r="C2" s="52"/>
-      <x:c r="D2" s="52"/>
-      <x:c r="E2" s="52"/>
-      <x:c r="F2" s="52"/>
+      <x:c r="A2" s="49"/>
+      <x:c r="B2" s="49"/>
+      <x:c r="C2" s="49"/>
+      <x:c r="D2" s="49"/>
+      <x:c r="E2" s="49"/>
+      <x:c r="F2" s="49"/>
       <x:c r="G2" s="4"/>
       <x:c r="H2" s="4"/>
       <x:c r="I2" s="4"/>
@@ -2381,23 +2255,23 @@
       <x:c r="Z2" s="4"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="16.399999999999999">
-      <x:c r="A3" s="46" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="B3" s="48" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C3" s="48" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D3" s="48" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E3" s="48" t="s">
+      <x:c r="A3" s="43" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B3" s="45" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C3" s="45" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D3" s="45" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E3" s="45" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="F3" s="48" t="s">
-        <x:v>35</x:v>
+      <x:c r="F3" s="45" t="s">
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G3" s="4"/>
       <x:c r="H3" s="4"/>
@@ -2405,29 +2279,29 @@
       <x:c r="J3" s="4"/>
     </x:row>
     <x:row r="4" spans="1:10" ht="16.399999999999999">
-      <x:c r="A4" s="47"/>
-      <x:c r="B4" s="49"/>
-      <x:c r="C4" s="49"/>
-      <x:c r="D4" s="49"/>
-      <x:c r="E4" s="49"/>
-      <x:c r="F4" s="50"/>
+      <x:c r="A4" s="44"/>
+      <x:c r="B4" s="46"/>
+      <x:c r="C4" s="46"/>
+      <x:c r="D4" s="46"/>
+      <x:c r="E4" s="46"/>
+      <x:c r="F4" s="47"/>
       <x:c r="G4" s="4"/>
       <x:c r="H4" s="4"/>
       <x:c r="I4" s="4"/>
       <x:c r="J4" s="4"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A5" s="78" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B5" s="70" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C5" s="24" t="s">
-        <x:v>29</x:v>
+      <x:c r="A5" s="55" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B5" s="55" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C5" s="10" t="s">
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D5" s="6" t="s">
-        <x:v>45</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E5" s="10"/>
       <x:c r="F5" s="11">
@@ -2439,18 +2313,18 @@
       <x:c r="J5" s="4"/>
     </x:row>
     <x:row r="6" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A6" s="79"/>
-      <x:c r="B6" s="71"/>
-      <x:c r="C6" s="53" t="s">
-        <x:v>88</x:v>
+      <x:c r="A6" s="56"/>
+      <x:c r="B6" s="56"/>
+      <x:c r="C6" s="85" t="s">
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D6" s="6" t="s">
-        <x:v>97</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E6" s="6" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="F6" s="58">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F6" s="50">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G6" s="4"/>
@@ -2459,32 +2333,32 @@
       <x:c r="J6" s="4"/>
     </x:row>
     <x:row r="7" spans="1:10" ht="16.399999999999999">
-      <x:c r="A7" s="79"/>
-      <x:c r="B7" s="71"/>
-      <x:c r="C7" s="54"/>
+      <x:c r="A7" s="56"/>
+      <x:c r="B7" s="56"/>
+      <x:c r="C7" s="86"/>
       <x:c r="D7" s="6" t="s">
-        <x:v>98</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E7" s="6" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="F7" s="59"/>
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F7" s="51"/>
       <x:c r="G7" s="4"/>
       <x:c r="H7" s="4"/>
       <x:c r="I7" s="4"/>
       <x:c r="J7" s="4"/>
     </x:row>
     <x:row r="8" spans="1:10" s="1" customFormat="1" ht="16.399999999999999">
-      <x:c r="A8" s="79"/>
-      <x:c r="B8" s="71"/>
-      <x:c r="C8" s="25" t="s">
-        <x:v>12</x:v>
+      <x:c r="A8" s="56"/>
+      <x:c r="B8" s="56"/>
+      <x:c r="C8" s="82" t="s">
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D8" s="6" t="s">
-        <x:v>100</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E8" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F8" s="12">
         <x:v>1</x:v>
@@ -2495,18 +2369,18 @@
       <x:c r="J8" s="4"/>
     </x:row>
     <x:row r="9" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A9" s="79"/>
-      <x:c r="B9" s="71"/>
-      <x:c r="C9" s="55" t="s">
-        <x:v>30</x:v>
+      <x:c r="A9" s="56"/>
+      <x:c r="B9" s="56"/>
+      <x:c r="C9" s="83" t="s">
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D9" s="6" t="s">
-        <x:v>62</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E9" s="6" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="F9" s="58">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F9" s="50">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G9" s="4"/>
@@ -2515,50 +2389,50 @@
       <x:c r="J9" s="4"/>
     </x:row>
     <x:row r="10" spans="1:10" ht="16.399999999999999">
-      <x:c r="A10" s="79"/>
-      <x:c r="B10" s="71"/>
-      <x:c r="C10" s="56"/>
+      <x:c r="A10" s="56"/>
+      <x:c r="B10" s="56"/>
+      <x:c r="C10" s="75"/>
       <x:c r="D10" s="6" t="s">
-        <x:v>92</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E10" s="6" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="F10" s="60"/>
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F10" s="52"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4"/>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="4"/>
     </x:row>
     <x:row r="11" spans="1:10" ht="16.399999999999999">
-      <x:c r="A11" s="79"/>
-      <x:c r="B11" s="71"/>
-      <x:c r="C11" s="57"/>
+      <x:c r="A11" s="56"/>
+      <x:c r="B11" s="56"/>
+      <x:c r="C11" s="76"/>
       <x:c r="D11" s="6" t="s">
-        <x:v>103</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E11" s="6" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="F11" s="59"/>
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="F11" s="51"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4"/>
       <x:c r="I11" s="4"/>
       <x:c r="J11" s="4"/>
     </x:row>
     <x:row r="12" spans="1:10" ht="19" customHeight="1">
-      <x:c r="A12" s="79"/>
-      <x:c r="B12" s="71"/>
-      <x:c r="C12" s="55" t="s">
-        <x:v>15</x:v>
+      <x:c r="A12" s="56"/>
+      <x:c r="B12" s="56"/>
+      <x:c r="C12" s="83" t="s">
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D12" s="6" t="s">
-        <x:v>93</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E12" s="6" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="F12" s="58">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F12" s="50">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G12" s="4"/>
@@ -2567,28 +2441,28 @@
       <x:c r="J12" s="4"/>
     </x:row>
     <x:row r="13" spans="1:10" ht="17.5" customHeight="1">
-      <x:c r="A13" s="79"/>
-      <x:c r="B13" s="71"/>
-      <x:c r="C13" s="56"/>
+      <x:c r="A13" s="56"/>
+      <x:c r="B13" s="56"/>
+      <x:c r="C13" s="75"/>
       <x:c r="D13" s="6" t="s">
-        <x:v>94</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E13" s="6"/>
-      <x:c r="F13" s="59"/>
+      <x:c r="F13" s="51"/>
       <x:c r="G13" s="4"/>
       <x:c r="H13" s="4"/>
       <x:c r="I13" s="4"/>
       <x:c r="J13" s="4"/>
     </x:row>
     <x:row r="14" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A14" s="79"/>
-      <x:c r="B14" s="71"/>
-      <x:c r="C14" s="57"/>
+      <x:c r="A14" s="56"/>
+      <x:c r="B14" s="56"/>
+      <x:c r="C14" s="76"/>
       <x:c r="D14" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E14" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F14" s="13">
         <x:v>2</x:v>
@@ -2599,18 +2473,18 @@
       <x:c r="J14" s="4"/>
     </x:row>
     <x:row r="15" spans="1:10" ht="35.5" customHeight="1">
-      <x:c r="A15" s="79"/>
-      <x:c r="B15" s="71"/>
-      <x:c r="C15" s="74" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="D15" s="65" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="E15" s="29" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F15" s="58">
+      <x:c r="A15" s="56"/>
+      <x:c r="B15" s="56"/>
+      <x:c r="C15" s="83" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D15" s="58" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E15" s="25" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="F15" s="50">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G15" s="4"/>
@@ -2619,54 +2493,54 @@
       <x:c r="J15" s="4"/>
     </x:row>
     <x:row r="16" spans="1:10" ht="32.75" customHeight="1">
-      <x:c r="A16" s="79"/>
-      <x:c r="B16" s="71"/>
+      <x:c r="A16" s="56"/>
+      <x:c r="B16" s="56"/>
       <x:c r="C16" s="75"/>
-      <x:c r="D16" s="66"/>
-      <x:c r="E16" s="29" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="F16" s="60"/>
+      <x:c r="D16" s="59"/>
+      <x:c r="E16" s="25" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="F16" s="52"/>
       <x:c r="G16" s="4"/>
       <x:c r="H16" s="4"/>
       <x:c r="I16" s="4"/>
       <x:c r="J16" s="4"/>
     </x:row>
     <x:row r="17" spans="1:10" ht="49.149999999999999" customHeight="1">
-      <x:c r="A17" s="79"/>
-      <x:c r="B17" s="71"/>
+      <x:c r="A17" s="56"/>
+      <x:c r="B17" s="56"/>
       <x:c r="C17" s="75"/>
-      <x:c r="D17" s="66"/>
-      <x:c r="E17" s="29" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="F17" s="60"/>
+      <x:c r="D17" s="59"/>
+      <x:c r="E17" s="25" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="F17" s="52"/>
       <x:c r="G17" s="4"/>
       <x:c r="H17" s="4"/>
       <x:c r="I17" s="4"/>
       <x:c r="J17" s="4"/>
     </x:row>
     <x:row r="18" spans="1:10" ht="34" customHeight="1">
-      <x:c r="A18" s="79"/>
-      <x:c r="B18" s="71"/>
+      <x:c r="A18" s="56"/>
+      <x:c r="B18" s="56"/>
       <x:c r="C18" s="75"/>
-      <x:c r="D18" s="66"/>
-      <x:c r="E18" s="29" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="F18" s="90"/>
+      <x:c r="D18" s="59"/>
+      <x:c r="E18" s="25" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="F18" s="61"/>
       <x:c r="G18" s="4"/>
       <x:c r="H18" s="4"/>
       <x:c r="I18" s="4"/>
       <x:c r="J18" s="4"/>
     </x:row>
     <x:row r="19" spans="1:10" ht="16.5" customHeight="1">
-      <x:c r="A19" s="79"/>
-      <x:c r="B19" s="71"/>
+      <x:c r="A19" s="56"/>
+      <x:c r="B19" s="56"/>
       <x:c r="C19" s="76"/>
-      <x:c r="D19" s="67"/>
-      <x:c r="E19" s="29" t="s">
-        <x:v>104</x:v>
+      <x:c r="D19" s="60"/>
+      <x:c r="E19" s="25" t="s">
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F19" s="19">
         <x:v>2</x:v>
@@ -2677,16 +2551,16 @@
       <x:c r="J19" s="4"/>
     </x:row>
     <x:row r="20" spans="1:10" ht="85.5" customHeight="1">
-      <x:c r="A20" s="79"/>
-      <x:c r="B20" s="71"/>
-      <x:c r="C20" s="73" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D20" s="63" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="E20" s="33" t="s">
-        <x:v>4</x:v>
+      <x:c r="A20" s="56"/>
+      <x:c r="B20" s="56"/>
+      <x:c r="C20" s="74" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D20" s="53" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="E20" s="28" t="s">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F20" s="19">
         <x:v>1</x:v>
@@ -2697,12 +2571,12 @@
       <x:c r="J20" s="4"/>
     </x:row>
     <x:row r="21" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A21" s="79"/>
-      <x:c r="B21" s="71"/>
-      <x:c r="C21" s="91"/>
-      <x:c r="D21" s="64"/>
-      <x:c r="E21" s="33" t="s">
-        <x:v>40</x:v>
+      <x:c r="A21" s="56"/>
+      <x:c r="B21" s="56"/>
+      <x:c r="C21" s="84"/>
+      <x:c r="D21" s="54"/>
+      <x:c r="E21" s="28" t="s">
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F21" s="16">
         <x:v>2</x:v>
@@ -2713,14 +2587,14 @@
       <x:c r="J21" s="4"/>
     </x:row>
     <x:row r="22" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A22" s="79"/>
-      <x:c r="B22" s="71"/>
-      <x:c r="C22" s="91"/>
-      <x:c r="D22" s="38" t="s">
-        <x:v>42</x:v>
+      <x:c r="A22" s="56"/>
+      <x:c r="B22" s="56"/>
+      <x:c r="C22" s="84"/>
+      <x:c r="D22" s="33" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E22" s="6" t="s">
-        <x:v>48</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F22" s="16">
         <x:v>2</x:v>
@@ -2731,11 +2605,11 @@
       <x:c r="J22" s="4"/>
     </x:row>
     <x:row r="23" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A23" s="79"/>
-      <x:c r="B23" s="72"/>
-      <x:c r="C23" s="91"/>
+      <x:c r="A23" s="56"/>
+      <x:c r="B23" s="57"/>
+      <x:c r="C23" s="84"/>
       <x:c r="D23" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E23" s="18"/>
       <x:c r="F23" s="16">
@@ -2747,15 +2621,15 @@
       <x:c r="J23" s="4"/>
     </x:row>
     <x:row r="24" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A24" s="79"/>
-      <x:c r="B24" s="101" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C24" s="55" t="s">
-        <x:v>13</x:v>
+      <x:c r="A24" s="56"/>
+      <x:c r="B24" s="69" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C24" s="83" t="s">
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D24" s="6" t="s">
-        <x:v>10</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E24" s="18"/>
       <x:c r="F24" s="23">
@@ -2767,14 +2641,14 @@
       <x:c r="J24" s="4"/>
     </x:row>
     <x:row r="25" spans="1:10" ht="16.399999999999999">
-      <x:c r="A25" s="79"/>
-      <x:c r="B25" s="68"/>
-      <x:c r="C25" s="57"/>
+      <x:c r="A25" s="56"/>
+      <x:c r="B25" s="70"/>
+      <x:c r="C25" s="76"/>
       <x:c r="D25" s="6" t="s">
-        <x:v>84</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E25" s="18" t="s">
-        <x:v>46</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F25" s="16">
         <x:v>1</x:v>
@@ -2785,13 +2659,13 @@
       <x:c r="J25" s="4"/>
     </x:row>
     <x:row r="26" spans="1:10" ht="16.399999999999999">
-      <x:c r="A26" s="79"/>
-      <x:c r="B26" s="68"/>
-      <x:c r="C26" s="30" t="s">
-        <x:v>6</x:v>
+      <x:c r="A26" s="56"/>
+      <x:c r="B26" s="70"/>
+      <x:c r="C26" s="82" t="s">
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D26" s="6" t="s">
-        <x:v>59</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E26" s="18"/>
       <x:c r="F26" s="16">
@@ -2803,222 +2677,222 @@
       <x:c r="J26" s="4"/>
     </x:row>
     <x:row r="27" spans="1:6" ht="17" customHeight="1">
-      <x:c r="A27" s="79"/>
-      <x:c r="B27" s="68"/>
-      <x:c r="C27" s="61" t="s">
+      <x:c r="A27" s="56"/>
+      <x:c r="B27" s="70"/>
+      <x:c r="C27" s="79" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D27" s="6" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E27" s="15"/>
+      <x:c r="F27" s="26">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:6" ht="19.5" customHeight="1">
+      <x:c r="A28" s="56"/>
+      <x:c r="B28" s="70"/>
+      <x:c r="C28" s="80"/>
+      <x:c r="D28" s="14" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E28" s="22"/>
+      <x:c r="F28" s="26">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:6" ht="32.5" customHeight="1">
+      <x:c r="A29" s="56"/>
+      <x:c r="B29" s="71"/>
+      <x:c r="C29" s="81" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D29" s="27" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E29" s="22" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="F29" s="26">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:6" customHeight="1">
+      <x:c r="A30" s="56"/>
+      <x:c r="B30" s="65" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C30" s="62" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D30" s="21" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E30" s="21"/>
+      <x:c r="F30" s="26">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:6" customHeight="1">
+      <x:c r="A31" s="56"/>
+      <x:c r="B31" s="66"/>
+      <x:c r="C31" s="63"/>
+      <x:c r="D31" s="21" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E31" s="21"/>
+      <x:c r="F31" s="26">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:6" customHeight="1">
+      <x:c r="A32" s="56"/>
+      <x:c r="B32" s="66"/>
+      <x:c r="C32" s="63"/>
+      <x:c r="D32" s="21" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E32" s="21" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F32" s="26">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:6" customHeight="1">
+      <x:c r="A33" s="56"/>
+      <x:c r="B33" s="66"/>
+      <x:c r="C33" s="63"/>
+      <x:c r="D33" s="21" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E33" s="21" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="F33" s="26">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:6" customHeight="1">
+      <x:c r="A34" s="56"/>
+      <x:c r="B34" s="66"/>
+      <x:c r="C34" s="64"/>
+      <x:c r="D34" s="21" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="E34" s="21"/>
+      <x:c r="F34" s="26">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:6" customHeight="1">
+      <x:c r="A35" s="56"/>
+      <x:c r="B35" s="66"/>
+      <x:c r="C35" s="62" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="D27" s="6" t="s">
+      <x:c r="D35" s="62" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="E27" s="15"/>
-      <x:c r="F27" s="31">
+      <x:c r="E35" s="21" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="F35" s="26">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:6" ht="19.5" customHeight="1">
-      <x:c r="A28" s="79"/>
-      <x:c r="B28" s="68"/>
-      <x:c r="C28" s="62"/>
-      <x:c r="D28" s="14" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="E28" s="22"/>
-      <x:c r="F28" s="31">
+    <x:row r="36" spans="1:6" ht="38" customHeight="1">
+      <x:c r="A36" s="56"/>
+      <x:c r="B36" s="66"/>
+      <x:c r="C36" s="63"/>
+      <x:c r="D36" s="63"/>
+      <x:c r="E36" s="22" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F36" s="26">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:6" ht="32.5" customHeight="1">
-      <x:c r="A29" s="79"/>
-      <x:c r="B29" s="69"/>
-      <x:c r="C29" s="105" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="D29" s="32" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E29" s="22" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="F29" s="31">
+    <x:row r="37" spans="1:6" ht="33.5" customHeight="1">
+      <x:c r="A37" s="92"/>
+      <x:c r="B37" s="67"/>
+      <x:c r="C37" s="64"/>
+      <x:c r="D37" s="64"/>
+      <x:c r="E37" s="22" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F37" s="26">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:6" customHeight="1">
-      <x:c r="A30" s="79"/>
-      <x:c r="B30" s="102" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C30" s="92" t="s">
+    <x:row r="38" spans="1:6" customHeight="1">
+      <x:c r="A38" s="92"/>
+      <x:c r="B38" s="68" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C38" s="78" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D38" s="21" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="E38" s="32" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="F38" s="26">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:6" customHeight="1">
+      <x:c r="A39" s="92"/>
+      <x:c r="B39" s="68"/>
+      <x:c r="C39" s="78"/>
+      <x:c r="D39" s="31" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E39" s="32"/>
+      <x:c r="F39" s="26">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:6" customHeight="1">
+      <x:c r="A40" s="92"/>
+      <x:c r="B40" s="68"/>
+      <x:c r="C40" s="78"/>
+      <x:c r="D40" s="31" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E40" s="32" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F40" s="26">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:6" customHeight="1">
+      <x:c r="A41" s="92"/>
+      <x:c r="B41" s="68"/>
+      <x:c r="C41" s="78"/>
+      <x:c r="D41" s="31" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="D30" s="21" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="E30" s="21"/>
-      <x:c r="F30" s="31">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:6" customHeight="1">
-      <x:c r="A31" s="79"/>
-      <x:c r="B31" s="103"/>
-      <x:c r="C31" s="93"/>
-      <x:c r="D31" s="21" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="E31" s="21"/>
-      <x:c r="F31" s="31">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:6" customHeight="1">
-      <x:c r="A32" s="79"/>
-      <x:c r="B32" s="103"/>
-      <x:c r="C32" s="93"/>
-      <x:c r="D32" s="21" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="E32" s="21" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="F32" s="31">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:6" customHeight="1">
-      <x:c r="A33" s="79"/>
-      <x:c r="B33" s="103"/>
-      <x:c r="C33" s="93"/>
-      <x:c r="D33" s="21" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="E33" s="21" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="F33" s="31">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:6" customHeight="1">
-      <x:c r="A34" s="79"/>
-      <x:c r="B34" s="103"/>
-      <x:c r="C34" s="94"/>
-      <x:c r="D34" s="21" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="E34" s="21"/>
-      <x:c r="F34" s="31">
+      <x:c r="E41" s="32" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="F41" s="26">
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:6" customHeight="1">
-      <x:c r="A35" s="79"/>
-      <x:c r="B35" s="103"/>
-      <x:c r="C35" s="98" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="D35" s="95" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E35" s="21" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F35" s="31">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:6" ht="38" customHeight="1">
-      <x:c r="A36" s="79"/>
-      <x:c r="B36" s="103"/>
-      <x:c r="C36" s="99"/>
-      <x:c r="D36" s="96"/>
-      <x:c r="E36" s="22" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="F36" s="31">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:6" ht="33.5" customHeight="1">
-      <x:c r="A37"/>
-      <x:c r="B37" s="104"/>
-      <x:c r="C37" s="100"/>
-      <x:c r="D37" s="97"/>
-      <x:c r="E37" s="22" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F37" s="31">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:6" customHeight="1">
-      <x:c r="A38"/>
-      <x:c r="B38" s="88" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C38" s="77" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D38" s="21" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="E38" s="37" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F38" s="31">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:6" customHeight="1">
-      <x:c r="A39"/>
-      <x:c r="B39" s="88"/>
-      <x:c r="C39" s="77"/>
-      <x:c r="D39" s="36" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="E39" s="37"/>
-      <x:c r="F39" s="31">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:6" customHeight="1">
-      <x:c r="A40"/>
-      <x:c r="B40" s="88"/>
-      <x:c r="C40" s="77"/>
-      <x:c r="D40" s="36" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="E40" s="37" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="F40" s="31">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:6" customHeight="1">
-      <x:c r="A41"/>
-      <x:c r="B41" s="88"/>
-      <x:c r="C41" s="77"/>
-      <x:c r="D41" s="36" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="E41" s="37" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="F41" s="31">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
     <x:row r="42" spans="1:6" customHeight="1">
-      <x:c r="A42"/>
-      <x:c r="B42" s="88"/>
-      <x:c r="C42" s="77"/>
-      <x:c r="D42" s="36" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="E42" s="37"/>
-      <x:c r="F42" s="31">
+      <x:c r="A42" s="93"/>
+      <x:c r="B42" s="68"/>
+      <x:c r="C42" s="78"/>
+      <x:c r="D42" s="31" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E42" s="32"/>
+      <x:c r="F42" s="26">
         <x:v>2</x:v>
       </x:c>
     </x:row>
@@ -3046,7 +2920,6 @@
     <x:mergeCell ref="C24:C25"/>
     <x:mergeCell ref="C15:C19"/>
     <x:mergeCell ref="C38:C42"/>
-    <x:mergeCell ref="A5:A36"/>
     <x:mergeCell ref="D15:D19"/>
     <x:mergeCell ref="F15:F18"/>
     <x:mergeCell ref="C20:C23"/>
@@ -3056,6 +2929,7 @@
     <x:mergeCell ref="B30:B37"/>
     <x:mergeCell ref="B38:B42"/>
     <x:mergeCell ref="B24:B29"/>
+    <x:mergeCell ref="A5:A42"/>
   </x:mergeCells>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -3067,8 +2941,8 @@
   <x:sheetPr codeName="Sheet4"/>
   <x:dimension ref="A1:Z29"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D29" activeCellId="0" sqref="D29:D29"/>
+    <x:sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="H28" activeCellId="0" sqref="H28:H28"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3082,14 +2956,14 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:26" ht="16.399999999999999" customHeight="1">
-      <x:c r="A1" s="51" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="B1" s="51"/>
-      <x:c r="C1" s="51"/>
-      <x:c r="D1" s="51"/>
-      <x:c r="E1" s="51"/>
-      <x:c r="F1" s="51"/>
+      <x:c r="A1" s="48" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B1" s="48"/>
+      <x:c r="C1" s="48"/>
+      <x:c r="D1" s="48"/>
+      <x:c r="E1" s="48"/>
+      <x:c r="F1" s="48"/>
       <x:c r="G1" s="4"/>
       <x:c r="H1" s="4"/>
       <x:c r="I1" s="4"/>
@@ -3112,12 +2986,12 @@
       <x:c r="Z1" s="5"/>
     </x:row>
     <x:row r="2" spans="1:26" ht="16.399999999999999">
-      <x:c r="A2" s="52"/>
-      <x:c r="B2" s="52"/>
-      <x:c r="C2" s="52"/>
-      <x:c r="D2" s="52"/>
-      <x:c r="E2" s="52"/>
-      <x:c r="F2" s="52"/>
+      <x:c r="A2" s="49"/>
+      <x:c r="B2" s="49"/>
+      <x:c r="C2" s="49"/>
+      <x:c r="D2" s="49"/>
+      <x:c r="E2" s="49"/>
+      <x:c r="F2" s="49"/>
       <x:c r="G2" s="4"/>
       <x:c r="H2" s="4"/>
       <x:c r="I2" s="4"/>
@@ -3140,23 +3014,23 @@
       <x:c r="Z2" s="5"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="16.399999999999999">
-      <x:c r="A3" s="46" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="B3" s="48" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C3" s="48" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D3" s="48" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E3" s="48" t="s">
+      <x:c r="A3" s="43" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B3" s="45" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C3" s="45" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D3" s="45" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E3" s="45" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="F3" s="48" t="s">
-        <x:v>35</x:v>
+      <x:c r="F3" s="45" t="s">
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G3" s="4"/>
       <x:c r="H3" s="4"/>
@@ -3164,29 +3038,29 @@
       <x:c r="J3" s="4"/>
     </x:row>
     <x:row r="4" spans="1:10" ht="16.399999999999999">
-      <x:c r="A4" s="47"/>
-      <x:c r="B4" s="49"/>
-      <x:c r="C4" s="49"/>
-      <x:c r="D4" s="49"/>
-      <x:c r="E4" s="49"/>
-      <x:c r="F4" s="50"/>
+      <x:c r="A4" s="44"/>
+      <x:c r="B4" s="46"/>
+      <x:c r="C4" s="46"/>
+      <x:c r="D4" s="46"/>
+      <x:c r="E4" s="46"/>
+      <x:c r="F4" s="47"/>
       <x:c r="G4" s="4"/>
       <x:c r="H4" s="4"/>
       <x:c r="I4" s="4"/>
       <x:c r="J4" s="4"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A5" s="70" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B5" s="88" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C5" s="24" t="s">
-        <x:v>32</x:v>
+      <x:c r="A5" s="55" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B5" s="68" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C5" s="10" t="s">
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D5" s="10" t="s">
-        <x:v>38</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E5" s="10"/>
       <x:c r="F5" s="17">
@@ -3198,16 +3072,16 @@
       <x:c r="J5" s="4"/>
     </x:row>
     <x:row r="6" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A6" s="71"/>
-      <x:c r="B6" s="88"/>
-      <x:c r="C6" s="26" t="s">
-        <x:v>83</x:v>
+      <x:c r="A6" s="56"/>
+      <x:c r="B6" s="68"/>
+      <x:c r="C6" s="87" t="s">
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D6" s="6" t="s">
-        <x:v>97</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E6" s="18" t="s">
-        <x:v>99</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F6" s="19">
         <x:v>1</x:v>
@@ -3218,16 +3092,16 @@
       <x:c r="J6" s="4"/>
     </x:row>
     <x:row r="7" spans="1:10" s="2" customFormat="1" ht="16.399999999999999">
-      <x:c r="A7" s="71"/>
-      <x:c r="B7" s="88"/>
-      <x:c r="C7" s="25" t="s">
-        <x:v>79</x:v>
+      <x:c r="A7" s="56"/>
+      <x:c r="B7" s="68"/>
+      <x:c r="C7" s="82" t="s">
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D7" s="6" t="s">
-        <x:v>100</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E7" s="6" t="s">
-        <x:v>82</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F7" s="12">
         <x:v>1</x:v>
@@ -3238,16 +3112,16 @@
       <x:c r="J7" s="4"/>
     </x:row>
     <x:row r="8" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A8" s="71"/>
-      <x:c r="B8" s="88"/>
-      <x:c r="C8" s="27" t="s">
-        <x:v>27</x:v>
+      <x:c r="A8" s="56"/>
+      <x:c r="B8" s="68"/>
+      <x:c r="C8" s="88" t="s">
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D8" s="6" t="s">
-        <x:v>73</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E8" s="6"/>
-      <x:c r="F8" s="58">
+      <x:c r="F8" s="50">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G8" s="4"/>
@@ -3256,94 +3130,94 @@
       <x:c r="J8" s="4"/>
     </x:row>
     <x:row r="9" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A9" s="71"/>
-      <x:c r="B9" s="70" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C9" s="74" t="s">
-        <x:v>34</x:v>
+      <x:c r="A9" s="56"/>
+      <x:c r="B9" s="55" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C9" s="83" t="s">
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D9" s="6" t="s">
-        <x:v>39</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E9" s="6" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="F9" s="60"/>
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="F9" s="52"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4"/>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="4"/>
     </x:row>
     <x:row r="10" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A10" s="71"/>
-      <x:c r="B10" s="71"/>
+      <x:c r="A10" s="56"/>
+      <x:c r="B10" s="56"/>
       <x:c r="C10" s="75"/>
       <x:c r="D10" s="6" t="s">
-        <x:v>90</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E10" s="6"/>
-      <x:c r="F10" s="60"/>
+      <x:c r="F10" s="52"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4"/>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="4"/>
     </x:row>
     <x:row r="11" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A11" s="71"/>
-      <x:c r="B11" s="71"/>
+      <x:c r="A11" s="56"/>
+      <x:c r="B11" s="56"/>
       <x:c r="C11" s="76"/>
       <x:c r="D11" s="6" t="s">
-        <x:v>66</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E11" s="7" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F11" s="60"/>
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F11" s="52"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4"/>
       <x:c r="I11" s="4"/>
       <x:c r="J11" s="4"/>
     </x:row>
     <x:row r="12" spans="1:10" ht="16.399999999999999">
-      <x:c r="A12" s="71"/>
-      <x:c r="B12" s="71"/>
-      <x:c r="C12" s="74" t="s">
-        <x:v>19</x:v>
+      <x:c r="A12" s="56"/>
+      <x:c r="B12" s="56"/>
+      <x:c r="C12" s="83" t="s">
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D12" s="6" t="s">
-        <x:v>53</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E12" s="7"/>
-      <x:c r="F12" s="60"/>
+      <x:c r="F12" s="52"/>
       <x:c r="G12" s="4"/>
       <x:c r="H12" s="4"/>
       <x:c r="I12" s="4"/>
       <x:c r="J12" s="4"/>
     </x:row>
     <x:row r="13" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A13" s="71"/>
-      <x:c r="B13" s="71"/>
+      <x:c r="A13" s="56"/>
+      <x:c r="B13" s="56"/>
       <x:c r="C13" s="75"/>
       <x:c r="D13" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E13" s="20"/>
-      <x:c r="F13" s="60"/>
+      <x:c r="F13" s="52"/>
       <x:c r="G13" s="4"/>
       <x:c r="H13" s="4"/>
       <x:c r="I13" s="4"/>
       <x:c r="J13" s="4"/>
     </x:row>
     <x:row r="14" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A14" s="71"/>
-      <x:c r="B14" s="71"/>
+      <x:c r="A14" s="56"/>
+      <x:c r="B14" s="56"/>
       <x:c r="C14" s="75"/>
-      <x:c r="D14" s="80" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E14" s="89"/>
-      <x:c r="F14" s="70">
+      <x:c r="D14" s="72" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E14" s="77"/>
+      <x:c r="F14" s="55">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G14" s="4"/>
@@ -3352,26 +3226,26 @@
       <x:c r="J14" s="4"/>
     </x:row>
     <x:row r="15" spans="1:10" ht="16.399999999999999">
-      <x:c r="A15" s="71"/>
-      <x:c r="B15" s="71"/>
+      <x:c r="A15" s="56"/>
+      <x:c r="B15" s="56"/>
       <x:c r="C15" s="75"/>
-      <x:c r="D15" s="81"/>
-      <x:c r="E15" s="89"/>
-      <x:c r="F15" s="72"/>
+      <x:c r="D15" s="73"/>
+      <x:c r="E15" s="77"/>
+      <x:c r="F15" s="57"/>
       <x:c r="G15" s="4"/>
       <x:c r="H15" s="4"/>
       <x:c r="I15" s="4"/>
       <x:c r="J15" s="4"/>
     </x:row>
     <x:row r="16" spans="1:10" ht="16.399999999999999">
-      <x:c r="A16" s="71"/>
-      <x:c r="B16" s="71"/>
+      <x:c r="A16" s="56"/>
+      <x:c r="B16" s="56"/>
       <x:c r="C16" s="75"/>
       <x:c r="D16" s="18" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="E16" s="36"/>
-      <x:c r="F16" s="39">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="E16" s="31"/>
+      <x:c r="F16" s="34">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G16" s="4"/>
@@ -3380,13 +3254,13 @@
       <x:c r="J16" s="4"/>
     </x:row>
     <x:row r="17" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A17" s="71"/>
-      <x:c r="B17" s="71"/>
+      <x:c r="A17" s="56"/>
+      <x:c r="B17" s="56"/>
       <x:c r="C17" s="75"/>
       <x:c r="D17" s="18" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="E17" s="36"/>
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="E17" s="31"/>
       <x:c r="F17" s="19">
         <x:v>1</x:v>
       </x:c>
@@ -3396,16 +3270,16 @@
       <x:c r="J17" s="4"/>
     </x:row>
     <x:row r="18" spans="1:10" ht="16.399999999999999">
-      <x:c r="A18" s="71"/>
-      <x:c r="B18" s="71"/>
-      <x:c r="C18" s="74" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D18" s="40" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="E18" s="36"/>
-      <x:c r="F18" s="39">
+      <x:c r="A18" s="56"/>
+      <x:c r="B18" s="56"/>
+      <x:c r="C18" s="83" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D18" s="35" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E18" s="31"/>
+      <x:c r="F18" s="34">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G18" s="4"/>
@@ -3414,14 +3288,14 @@
       <x:c r="J18" s="4"/>
     </x:row>
     <x:row r="19" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A19" s="71"/>
-      <x:c r="B19" s="71"/>
+      <x:c r="A19" s="56"/>
+      <x:c r="B19" s="56"/>
       <x:c r="C19" s="75"/>
-      <x:c r="D19" s="82" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E19" s="89"/>
-      <x:c r="F19" s="70">
+      <x:c r="D19" s="74" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E19" s="77"/>
+      <x:c r="F19" s="55">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G19" s="4"/>
@@ -3430,52 +3304,52 @@
       <x:c r="J19" s="4"/>
     </x:row>
     <x:row r="20" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A20" s="71"/>
-      <x:c r="B20" s="71"/>
+      <x:c r="A20" s="56"/>
+      <x:c r="B20" s="56"/>
       <x:c r="C20" s="75"/>
-      <x:c r="D20" s="83"/>
-      <x:c r="E20" s="89"/>
-      <x:c r="F20" s="71"/>
+      <x:c r="D20" s="75"/>
+      <x:c r="E20" s="77"/>
+      <x:c r="F20" s="56"/>
       <x:c r="G20" s="4"/>
       <x:c r="H20" s="4"/>
       <x:c r="I20" s="4"/>
       <x:c r="J20" s="4"/>
     </x:row>
     <x:row r="21" spans="1:10" ht="16.399999999999999" customHeight="1">
-      <x:c r="A21" s="71"/>
-      <x:c r="B21" s="71"/>
+      <x:c r="A21" s="56"/>
+      <x:c r="B21" s="56"/>
       <x:c r="C21" s="75"/>
-      <x:c r="D21" s="83"/>
-      <x:c r="E21" s="89"/>
-      <x:c r="F21" s="71"/>
+      <x:c r="D21" s="75"/>
+      <x:c r="E21" s="77"/>
+      <x:c r="F21" s="56"/>
       <x:c r="G21" s="4"/>
       <x:c r="H21" s="4"/>
       <x:c r="I21" s="4"/>
       <x:c r="J21" s="4"/>
     </x:row>
     <x:row r="22" spans="1:10" ht="16.399999999999999">
-      <x:c r="A22" s="71"/>
-      <x:c r="B22" s="71"/>
+      <x:c r="A22" s="56"/>
+      <x:c r="B22" s="56"/>
       <x:c r="C22" s="76"/>
-      <x:c r="D22" s="84"/>
-      <x:c r="E22" s="89"/>
-      <x:c r="F22" s="71"/>
+      <x:c r="D22" s="76"/>
+      <x:c r="E22" s="77"/>
+      <x:c r="F22" s="56"/>
       <x:c r="G22" s="4"/>
       <x:c r="H22" s="4"/>
       <x:c r="I22" s="4"/>
       <x:c r="J22" s="4"/>
     </x:row>
     <x:row r="23" spans="1:10" ht="69" customHeight="1">
-      <x:c r="A23" s="71"/>
-      <x:c r="B23" s="71"/>
-      <x:c r="C23" s="85" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D23" s="107" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="E23" s="106" t="s">
-        <x:v>0</x:v>
+      <x:c r="A23" s="56"/>
+      <x:c r="B23" s="56"/>
+      <x:c r="C23" s="89" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D23" s="42" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E23" s="41" t="s">
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F23" s="19">
         <x:v>1</x:v>
@@ -3486,14 +3360,14 @@
       <x:c r="J23" s="4"/>
     </x:row>
     <x:row r="24" spans="1:10" ht="16.399999999999999">
-      <x:c r="A24" s="71"/>
-      <x:c r="B24" s="71"/>
-      <x:c r="C24" s="86"/>
+      <x:c r="A24" s="56"/>
+      <x:c r="B24" s="56"/>
+      <x:c r="C24" s="90"/>
       <x:c r="D24" s="21" t="s">
-        <x:v>58</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E24" s="21"/>
-      <x:c r="F24" s="28">
+      <x:c r="F24" s="24">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G24" s="4"/>
@@ -3502,16 +3376,16 @@
       <x:c r="J24" s="4"/>
     </x:row>
     <x:row r="25" spans="1:10" ht="31.5" customHeight="1">
-      <x:c r="A25" s="72"/>
-      <x:c r="B25" s="72"/>
-      <x:c r="C25" s="87"/>
-      <x:c r="D25" s="41" t="s">
-        <x:v>71</x:v>
+      <x:c r="A25" s="57"/>
+      <x:c r="B25" s="57"/>
+      <x:c r="C25" s="91"/>
+      <x:c r="D25" s="36" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E25" s="22" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="F25" s="42">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F25" s="37">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G25" s="4"/>
@@ -3520,21 +3394,21 @@
       <x:c r="J25" s="4"/>
     </x:row>
     <x:row r="26" spans="1:10" ht="16.399999999999999">
-      <x:c r="A26" s="35"/>
-      <x:c r="B26" s="35"/>
+      <x:c r="A26" s="30"/>
+      <x:c r="B26" s="30"/>
       <x:c r="C26" s="9"/>
       <x:c r="E26" s="9"/>
-      <x:c r="F26" s="43"/>
+      <x:c r="F26" s="38"/>
       <x:c r="G26" s="4"/>
       <x:c r="H26" s="4"/>
       <x:c r="I26" s="4"/>
       <x:c r="J26" s="4"/>
     </x:row>
     <x:row r="27" spans="1:10" ht="16.399999999999999">
-      <x:c r="A27" s="35"/>
-      <x:c r="B27" s="35"/>
+      <x:c r="A27" s="30"/>
+      <x:c r="B27" s="30"/>
       <x:c r="E27" s="9"/>
-      <x:c r="F27" s="43"/>
+      <x:c r="F27" s="38"/>
       <x:c r="G27" s="4"/>
       <x:c r="H27" s="4"/>
       <x:c r="I27" s="4"/>
@@ -3543,8 +3417,8 @@
     <x:row r="28" spans="1:6" customHeight="1">
       <x:c r="A28" s="9"/>
       <x:c r="B28" s="9"/>
-      <x:c r="E28" s="44"/>
-      <x:c r="F28" s="45"/>
+      <x:c r="E28" s="39"/>
+      <x:c r="F28" s="40"/>
     </x:row>
     <x:row r="29" spans="5:5" customHeight="1">
       <x:c r="E29" s="9"/>
